--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Palta.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Palta.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1100"/>
+  <dimension ref="A1:T1105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86167,7 +86167,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -86195,7 +86195,7 @@
       </c>
       <c r="K1073" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1073" t="inlineStr">
@@ -86204,16 +86204,16 @@
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N1073" t="n">
-        <v>3600</v>
+        <v>2600</v>
       </c>
       <c r="O1073" t="n">
-        <v>3600</v>
+        <v>2700</v>
       </c>
       <c r="P1073" t="n">
-        <v>3600</v>
+        <v>2648</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
@@ -86222,11 +86222,11 @@
       </c>
       <c r="R1073" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>3600</v>
+        <v>2648</v>
       </c>
       <c r="T1073" t="n">
         <v>1</v>
@@ -86247,7 +86247,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -86275,7 +86275,7 @@
       </c>
       <c r="K1074" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1074" t="inlineStr">
@@ -86284,16 +86284,16 @@
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="N1074" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="O1074" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="P1074" t="n">
-        <v>3400</v>
+        <v>2447</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
@@ -86302,11 +86302,11 @@
       </c>
       <c r="R1074" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>3400</v>
+        <v>2447</v>
       </c>
       <c r="T1074" t="n">
         <v>1</v>
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -86360,20 +86360,20 @@
       </c>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="N1075" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="O1075" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="P1075" t="n">
-        <v>3200</v>
+        <v>2352</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
@@ -86382,11 +86382,11 @@
       </c>
       <c r="R1075" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>3200</v>
+        <v>2352</v>
       </c>
       <c r="T1075" t="n">
         <v>1</v>
@@ -86407,7 +86407,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -86440,20 +86440,20 @@
       </c>
       <c r="L1076" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="N1076" t="n">
-        <v>4400</v>
+        <v>2100</v>
       </c>
       <c r="O1076" t="n">
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="P1076" t="n">
-        <v>4400</v>
+        <v>2150</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
@@ -86462,11 +86462,11 @@
       </c>
       <c r="R1076" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>4400</v>
+        <v>2150</v>
       </c>
       <c r="T1076" t="n">
         <v>1</v>
@@ -86487,7 +86487,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -86520,20 +86520,20 @@
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Especial nueva (o)</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="N1077" t="n">
-        <v>4400</v>
+        <v>2500</v>
       </c>
       <c r="O1077" t="n">
-        <v>4400</v>
+        <v>2600</v>
       </c>
       <c r="P1077" t="n">
-        <v>4400</v>
+        <v>2546</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
@@ -86542,11 +86542,11 @@
       </c>
       <c r="R1077" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>4400</v>
+        <v>2546</v>
       </c>
       <c r="T1077" t="n">
         <v>1</v>
@@ -86567,7 +86567,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -86600,20 +86600,20 @@
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N1078" t="n">
-        <v>4600</v>
+        <v>3600</v>
       </c>
       <c r="O1078" t="n">
-        <v>4600</v>
+        <v>3600</v>
       </c>
       <c r="P1078" t="n">
-        <v>4600</v>
+        <v>3600</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
@@ -86622,11 +86622,11 @@
       </c>
       <c r="R1078" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>4600</v>
+        <v>3600</v>
       </c>
       <c r="T1078" t="n">
         <v>1</v>
@@ -86647,7 +86647,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -86687,13 +86687,13 @@
         <v>180</v>
       </c>
       <c r="N1079" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="O1079" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P1079" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
@@ -86702,11 +86702,11 @@
       </c>
       <c r="R1079" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="T1079" t="n">
         <v>1</v>
@@ -86727,7 +86727,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -86760,20 +86760,20 @@
       </c>
       <c r="L1080" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="N1080" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="O1080" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P1080" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
@@ -86782,11 +86782,11 @@
       </c>
       <c r="R1080" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="T1080" t="n">
         <v>1</v>
@@ -86840,20 +86840,20 @@
       </c>
       <c r="L1081" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="N1081" t="n">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="O1081" t="n">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="P1081" t="n">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
@@ -86862,11 +86862,11 @@
       </c>
       <c r="R1081" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="T1081" t="n">
         <v>1</v>
@@ -86920,20 +86920,20 @@
       </c>
       <c r="L1082" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N1082" t="n">
-        <v>3600</v>
+        <v>4400</v>
       </c>
       <c r="O1082" t="n">
-        <v>3600</v>
+        <v>4400</v>
       </c>
       <c r="P1082" t="n">
-        <v>3600</v>
+        <v>4400</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
@@ -86942,11 +86942,11 @@
       </c>
       <c r="R1082" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>3600</v>
+        <v>4400</v>
       </c>
       <c r="T1082" t="n">
         <v>1</v>
@@ -87000,20 +87000,20 @@
       </c>
       <c r="L1083" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N1083" t="n">
-        <v>3700</v>
+        <v>4600</v>
       </c>
       <c r="O1083" t="n">
-        <v>3700</v>
+        <v>4600</v>
       </c>
       <c r="P1083" t="n">
-        <v>3700</v>
+        <v>4600</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
@@ -87026,7 +87026,7 @@
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>3700</v>
+        <v>4600</v>
       </c>
       <c r="T1083" t="n">
         <v>1</v>
@@ -87080,20 +87080,20 @@
       </c>
       <c r="L1084" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N1084" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O1084" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P1084" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
@@ -87102,11 +87102,11 @@
       </c>
       <c r="R1084" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="T1084" t="n">
         <v>1</v>
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -87155,25 +87155,25 @@
       </c>
       <c r="K1085" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="N1085" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="O1085" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="P1085" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
@@ -87182,11 +87182,11 @@
       </c>
       <c r="R1085" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="T1085" t="n">
         <v>1</v>
@@ -87207,7 +87207,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -87235,7 +87235,7 @@
       </c>
       <c r="K1086" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1086" t="inlineStr">
@@ -87244,16 +87244,16 @@
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="N1086" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="O1086" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="P1086" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
@@ -87266,7 +87266,7 @@
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="T1086" t="n">
         <v>1</v>
@@ -87287,7 +87287,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -87315,7 +87315,7 @@
       </c>
       <c r="K1087" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1087" t="inlineStr">
@@ -87324,16 +87324,16 @@
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N1087" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="O1087" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="P1087" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
@@ -87342,11 +87342,11 @@
       </c>
       <c r="R1087" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="T1087" t="n">
         <v>1</v>
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -87400,36 +87400,36 @@
       </c>
       <c r="L1088" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="N1088" t="n">
-        <v>27000</v>
+        <v>3700</v>
       </c>
       <c r="O1088" t="n">
-        <v>27000</v>
+        <v>3700</v>
       </c>
       <c r="P1088" t="n">
-        <v>27000</v>
+        <v>3700</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1088" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>2700</v>
+        <v>3700</v>
       </c>
       <c r="T1088" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089">
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -87480,36 +87480,36 @@
       </c>
       <c r="L1089" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="N1089" t="n">
-        <v>25000</v>
+        <v>3500</v>
       </c>
       <c r="O1089" t="n">
-        <v>25000</v>
+        <v>3500</v>
       </c>
       <c r="P1089" t="n">
-        <v>25000</v>
+        <v>3500</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="T1089" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090">
@@ -87555,41 +87555,41 @@
       </c>
       <c r="K1090" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>390</v>
+        <v>70</v>
       </c>
       <c r="N1090" t="n">
-        <v>22000</v>
+        <v>2600</v>
       </c>
       <c r="O1090" t="n">
-        <v>22000</v>
+        <v>2600</v>
       </c>
       <c r="P1090" t="n">
-        <v>22000</v>
+        <v>2600</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1090" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="T1090" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091">
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -87640,24 +87640,24 @@
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N1091" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="O1091" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="P1091" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1091" t="inlineStr">
@@ -87666,10 +87666,10 @@
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>270</v>
+        <v>2400</v>
       </c>
       <c r="T1091" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092">
@@ -87687,7 +87687,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -87720,24 +87720,24 @@
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N1092" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="O1092" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="P1092" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1092" t="inlineStr">
@@ -87746,10 +87746,10 @@
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="T1092" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093">
@@ -87767,7 +87767,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -87795,25 +87795,25 @@
       </c>
       <c r="K1093" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="N1093" t="n">
-        <v>2300</v>
+        <v>27000</v>
       </c>
       <c r="O1093" t="n">
-        <v>2300</v>
+        <v>27000</v>
       </c>
       <c r="P1093" t="n">
-        <v>2300</v>
+        <v>27000</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
@@ -87822,11 +87822,11 @@
       </c>
       <c r="R1093" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>230</v>
+        <v>2700</v>
       </c>
       <c r="T1093" t="n">
         <v>10</v>
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -87880,20 +87880,20 @@
       </c>
       <c r="L1094" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="N1094" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="O1094" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="P1094" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
@@ -87906,7 +87906,7 @@
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="T1094" t="n">
         <v>10</v>
@@ -87927,7 +87927,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -87960,20 +87960,20 @@
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="N1095" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O1095" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P1095" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
@@ -87986,7 +87986,7 @@
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="T1095" t="n">
         <v>10</v>
@@ -88035,25 +88035,25 @@
       </c>
       <c r="K1096" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1096" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="N1096" t="n">
-        <v>22000</v>
+        <v>2700</v>
       </c>
       <c r="O1096" t="n">
-        <v>22000</v>
+        <v>2700</v>
       </c>
       <c r="P1096" t="n">
-        <v>22000</v>
+        <v>2700</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
@@ -88062,11 +88062,11 @@
       </c>
       <c r="R1096" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>2200</v>
+        <v>270</v>
       </c>
       <c r="T1096" t="n">
         <v>10</v>
@@ -88115,25 +88115,25 @@
       </c>
       <c r="K1097" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N1097" t="n">
-        <v>22000</v>
+        <v>2500</v>
       </c>
       <c r="O1097" t="n">
-        <v>22000</v>
+        <v>2500</v>
       </c>
       <c r="P1097" t="n">
-        <v>22000</v>
+        <v>2500</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
@@ -88142,11 +88142,11 @@
       </c>
       <c r="R1097" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>2200</v>
+        <v>250</v>
       </c>
       <c r="T1097" t="n">
         <v>10</v>
@@ -88195,41 +88195,41 @@
       </c>
       <c r="K1098" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="N1098" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="O1098" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="P1098" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>2500</v>
+        <v>230</v>
       </c>
       <c r="T1098" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1099">
@@ -88275,41 +88275,41 @@
       </c>
       <c r="K1099" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1099" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="N1099" t="n">
-        <v>2300</v>
+        <v>27000</v>
       </c>
       <c r="O1099" t="n">
-        <v>2300</v>
+        <v>27000</v>
       </c>
       <c r="P1099" t="n">
-        <v>2300</v>
+        <v>27000</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1099" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="T1099" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1100">
@@ -88355,40 +88355,440 @@
       </c>
       <c r="K1100" t="inlineStr">
         <is>
+          <t>Hass</t>
+        </is>
+      </c>
+      <c r="L1100" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1100" t="n">
+        <v>290</v>
+      </c>
+      <c r="N1100" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O1100" t="n">
+        <v>25000</v>
+      </c>
+      <c r="P1100" t="n">
+        <v>25000</v>
+      </c>
+      <c r="Q1100" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1100" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S1100" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T1100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1101" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1101" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1101" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1101" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1101" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1101" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>Hass</t>
+        </is>
+      </c>
+      <c r="L1101" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1101" t="n">
+        <v>340</v>
+      </c>
+      <c r="N1101" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O1101" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P1101" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q1101" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1101" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S1101" t="n">
+        <v>2200</v>
+      </c>
+      <c r="T1101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1102" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1102" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1102" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1102" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1102" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1102" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>Hass</t>
+        </is>
+      </c>
+      <c r="L1102" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M1102" t="n">
+        <v>240</v>
+      </c>
+      <c r="N1102" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O1102" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P1102" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q1102" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1102" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S1102" t="n">
+        <v>2200</v>
+      </c>
+      <c r="T1102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1103" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1103" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1103" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1103" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1103" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1103" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1103" t="inlineStr">
+        <is>
           <t>Negra de La Cruz</t>
         </is>
       </c>
-      <c r="L1100" t="inlineStr">
+      <c r="L1103" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1103" t="n">
+        <v>220</v>
+      </c>
+      <c r="N1103" t="n">
+        <v>2500</v>
+      </c>
+      <c r="O1103" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P1103" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q1103" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1103" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1103" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T1103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1104" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1104" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1104" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1104" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1104" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1104" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>Negra de La Cruz</t>
+        </is>
+      </c>
+      <c r="L1104" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1104" t="n">
+        <v>260</v>
+      </c>
+      <c r="N1104" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O1104" t="n">
+        <v>2300</v>
+      </c>
+      <c r="P1104" t="n">
+        <v>2300</v>
+      </c>
+      <c r="Q1104" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1104" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1104" t="n">
+        <v>2300</v>
+      </c>
+      <c r="T1104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1105" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1105" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1105" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1105" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1105" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1105" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>Negra de La Cruz</t>
+        </is>
+      </c>
+      <c r="L1105" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M1100" t="n">
+      <c r="M1105" t="n">
         <v>280</v>
       </c>
-      <c r="N1100" t="n">
+      <c r="N1105" t="n">
         <v>2100</v>
       </c>
-      <c r="O1100" t="n">
+      <c r="O1105" t="n">
         <v>2100</v>
       </c>
-      <c r="P1100" t="n">
+      <c r="P1105" t="n">
         <v>2100</v>
       </c>
-      <c r="Q1100" t="inlineStr">
+      <c r="Q1105" t="inlineStr">
         <is>
           <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
-      <c r="R1100" t="inlineStr">
+      <c r="R1105" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1100" t="n">
+      <c r="S1105" t="n">
         <v>2100</v>
       </c>
-      <c r="T1100" t="n">
+      <c r="T1105" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Palta.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Palta.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1105"/>
+  <dimension ref="A1:T1114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79447,7 +79447,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -79480,20 +79480,20 @@
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M989" t="n">
         <v>85</v>
       </c>
       <c r="N989" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="O989" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="P989" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="Q989" t="inlineStr">
         <is>
@@ -79506,7 +79506,7 @@
         </is>
       </c>
       <c r="S989" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="T989" t="n">
         <v>1</v>
@@ -79527,7 +79527,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -79564,16 +79564,16 @@
         </is>
       </c>
       <c r="M990" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N990" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="O990" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="P990" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
@@ -79586,7 +79586,7 @@
         </is>
       </c>
       <c r="S990" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T990" t="n">
         <v>1</v>
@@ -79607,7 +79607,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -79635,25 +79635,25 @@
       </c>
       <c r="K991" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L991" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M991" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N991" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="O991" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="P991" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="Q991" t="inlineStr">
         <is>
@@ -79666,7 +79666,7 @@
         </is>
       </c>
       <c r="S991" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="T991" t="n">
         <v>1</v>
@@ -79687,7 +79687,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -79720,20 +79720,20 @@
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="M992" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N992" t="n">
-        <v>3700</v>
+        <v>2700</v>
       </c>
       <c r="O992" t="n">
-        <v>3700</v>
+        <v>2700</v>
       </c>
       <c r="P992" t="n">
-        <v>3700</v>
+        <v>2700</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
@@ -79742,11 +79742,11 @@
       </c>
       <c r="R992" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S992" t="n">
-        <v>3700</v>
+        <v>2700</v>
       </c>
       <c r="T992" t="n">
         <v>1</v>
@@ -79767,7 +79767,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -79800,20 +79800,20 @@
       </c>
       <c r="L993" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="M993" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="N993" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="O993" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="P993" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="Q993" t="inlineStr">
         <is>
@@ -79822,11 +79822,11 @@
       </c>
       <c r="R993" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S993" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="T993" t="n">
         <v>1</v>
@@ -79847,7 +79847,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -79880,36 +79880,36 @@
       </c>
       <c r="L994" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M994" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="N994" t="n">
-        <v>3100</v>
+        <v>30000</v>
       </c>
       <c r="O994" t="n">
-        <v>3100</v>
+        <v>30000</v>
       </c>
       <c r="P994" t="n">
-        <v>3100</v>
+        <v>30000</v>
       </c>
       <c r="Q994" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R994" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S994" t="n">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="T994" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="995">
@@ -79927,7 +79927,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -79960,20 +79960,20 @@
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Especial nueva (o)</t>
         </is>
       </c>
       <c r="M995" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N995" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="O995" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="P995" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
@@ -79982,11 +79982,11 @@
       </c>
       <c r="R995" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S995" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="T995" t="n">
         <v>1</v>
@@ -80007,7 +80007,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -80040,36 +80040,36 @@
       </c>
       <c r="L996" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M996" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N996" t="n">
-        <v>1800</v>
+        <v>28000</v>
       </c>
       <c r="O996" t="n">
-        <v>1800</v>
+        <v>28000</v>
       </c>
       <c r="P996" t="n">
-        <v>1800</v>
+        <v>28000</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R996" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S996" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="T996" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="997">
@@ -80087,7 +80087,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -80120,36 +80120,36 @@
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M997" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="N997" t="n">
-        <v>1500</v>
+        <v>26000</v>
       </c>
       <c r="O997" t="n">
-        <v>1500</v>
+        <v>26000</v>
       </c>
       <c r="P997" t="n">
-        <v>1500</v>
+        <v>26000</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R997" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S997" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="T997" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="998">
@@ -80167,7 +80167,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -80195,41 +80195,41 @@
       </c>
       <c r="K998" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M998" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N998" t="n">
-        <v>30000</v>
+        <v>3200</v>
       </c>
       <c r="O998" t="n">
-        <v>30000</v>
+        <v>3200</v>
       </c>
       <c r="P998" t="n">
-        <v>30000</v>
+        <v>3200</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R998" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S998" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="T998" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999">
@@ -80247,7 +80247,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -80275,41 +80275,41 @@
       </c>
       <c r="K999" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M999" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="N999" t="n">
-        <v>27000</v>
+        <v>2800</v>
       </c>
       <c r="O999" t="n">
-        <v>27000</v>
+        <v>2800</v>
       </c>
       <c r="P999" t="n">
-        <v>27000</v>
+        <v>2800</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R999" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S999" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="T999" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000">
@@ -80327,7 +80327,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -80360,36 +80360,36 @@
       </c>
       <c r="L1000" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N1000" t="n">
-        <v>25000</v>
+        <v>3500</v>
       </c>
       <c r="O1000" t="n">
-        <v>25000</v>
+        <v>3500</v>
       </c>
       <c r="P1000" t="n">
-        <v>25000</v>
+        <v>3500</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="T1000" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001">
@@ -80407,7 +80407,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -80440,20 +80440,20 @@
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1001" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N1001" t="n">
-        <v>4600</v>
+        <v>3700</v>
       </c>
       <c r="O1001" t="n">
-        <v>4600</v>
+        <v>3700</v>
       </c>
       <c r="P1001" t="n">
-        <v>4600</v>
+        <v>3700</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
@@ -80466,7 +80466,7 @@
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>4600</v>
+        <v>3700</v>
       </c>
       <c r="T1001" t="n">
         <v>1</v>
@@ -80487,7 +80487,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -80520,20 +80520,20 @@
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N1002" t="n">
-        <v>4800</v>
+        <v>3400</v>
       </c>
       <c r="O1002" t="n">
-        <v>4800</v>
+        <v>3400</v>
       </c>
       <c r="P1002" t="n">
-        <v>4800</v>
+        <v>3400</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
@@ -80546,7 +80546,7 @@
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>4800</v>
+        <v>3400</v>
       </c>
       <c r="T1002" t="n">
         <v>1</v>
@@ -80567,7 +80567,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -80600,20 +80600,20 @@
       </c>
       <c r="L1003" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="N1003" t="n">
-        <v>4200</v>
+        <v>3100</v>
       </c>
       <c r="O1003" t="n">
-        <v>4200</v>
+        <v>3100</v>
       </c>
       <c r="P1003" t="n">
-        <v>4200</v>
+        <v>3100</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
@@ -80626,7 +80626,7 @@
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>4200</v>
+        <v>3100</v>
       </c>
       <c r="T1003" t="n">
         <v>1</v>
@@ -80647,7 +80647,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -80680,20 +80680,20 @@
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="N1004" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="O1004" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="P1004" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
@@ -80706,7 +80706,7 @@
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="T1004" t="n">
         <v>1</v>
@@ -80727,7 +80727,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -80755,25 +80755,25 @@
       </c>
       <c r="K1005" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="N1005" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="O1005" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="P1005" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
@@ -80786,7 +80786,7 @@
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="T1005" t="n">
         <v>1</v>
@@ -80807,7 +80807,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -80835,25 +80835,25 @@
       </c>
       <c r="K1006" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="M1006" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="N1006" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="O1006" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="P1006" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
@@ -80866,7 +80866,7 @@
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="T1006" t="n">
         <v>1</v>
@@ -80887,7 +80887,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -80915,41 +80915,41 @@
       </c>
       <c r="K1007" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1007" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N1007" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="O1007" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="P1007" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T1007" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1008">
@@ -80967,7 +80967,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -81000,20 +81000,20 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="N1008" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="O1008" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="P1008" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
@@ -81026,7 +81026,7 @@
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="T1008" t="n">
         <v>10</v>
@@ -81047,7 +81047,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -81080,20 +81080,20 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N1009" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="O1009" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="P1009" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
@@ -81106,7 +81106,7 @@
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="T1009" t="n">
         <v>10</v>
@@ -81127,7 +81127,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -81160,36 +81160,36 @@
       </c>
       <c r="L1010" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="N1010" t="n">
-        <v>24000</v>
+        <v>4600</v>
       </c>
       <c r="O1010" t="n">
-        <v>24000</v>
+        <v>4600</v>
       </c>
       <c r="P1010" t="n">
-        <v>24000</v>
+        <v>4600</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>2400</v>
+        <v>4600</v>
       </c>
       <c r="T1010" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011">
@@ -81207,7 +81207,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -81240,36 +81240,36 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N1011" t="n">
-        <v>21000</v>
+        <v>4800</v>
       </c>
       <c r="O1011" t="n">
-        <v>21000</v>
+        <v>4800</v>
       </c>
       <c r="P1011" t="n">
-        <v>21000</v>
+        <v>4800</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>2100</v>
+        <v>4800</v>
       </c>
       <c r="T1011" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012">
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -81315,25 +81315,25 @@
       </c>
       <c r="K1012" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1012" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N1012" t="n">
-        <v>2700</v>
+        <v>4200</v>
       </c>
       <c r="O1012" t="n">
-        <v>2700</v>
+        <v>4200</v>
       </c>
       <c r="P1012" t="n">
-        <v>2700</v>
+        <v>4200</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
@@ -81346,7 +81346,7 @@
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>2700</v>
+        <v>4200</v>
       </c>
       <c r="T1012" t="n">
         <v>1</v>
@@ -81367,7 +81367,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -81395,25 +81395,25 @@
       </c>
       <c r="K1013" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N1013" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="O1013" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="P1013" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
@@ -81426,7 +81426,7 @@
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T1013" t="n">
         <v>1</v>
@@ -81447,7 +81447,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -81480,20 +81480,20 @@
       </c>
       <c r="L1014" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="N1014" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="O1014" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="P1014" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
@@ -81506,7 +81506,7 @@
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="T1014" t="n">
         <v>1</v>
@@ -81527,7 +81527,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -81555,25 +81555,25 @@
       </c>
       <c r="K1015" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N1015" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="O1015" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="P1015" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
@@ -81586,7 +81586,7 @@
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="T1015" t="n">
         <v>1</v>
@@ -81607,7 +81607,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -81635,25 +81635,25 @@
       </c>
       <c r="K1016" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1016" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="N1016" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="O1016" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="P1016" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
@@ -81666,7 +81666,7 @@
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="T1016" t="n">
         <v>1</v>
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -81720,36 +81720,36 @@
       </c>
       <c r="L1017" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="N1017" t="n">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="O1017" t="n">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="P1017" t="n">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="T1017" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1018">
@@ -81767,7 +81767,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -81800,20 +81800,20 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="N1018" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="O1018" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="P1018" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
@@ -81826,7 +81826,7 @@
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="T1018" t="n">
         <v>10</v>
@@ -81847,7 +81847,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -81884,16 +81884,16 @@
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="N1019" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="O1019" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="P1019" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
@@ -81906,7 +81906,7 @@
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="T1019" t="n">
         <v>10</v>
@@ -81927,7 +81927,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -81964,16 +81964,16 @@
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N1020" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="O1020" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="P1020" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
@@ -81986,7 +81986,7 @@
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>3100</v>
+        <v>2100</v>
       </c>
       <c r="T1020" t="n">
         <v>10</v>
@@ -82007,7 +82007,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -82047,13 +82047,13 @@
         <v>45</v>
       </c>
       <c r="N1021" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="O1021" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="P1021" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
@@ -82062,11 +82062,11 @@
       </c>
       <c r="R1021" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="T1021" t="n">
         <v>1</v>
@@ -82087,7 +82087,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -82120,20 +82120,20 @@
       </c>
       <c r="L1022" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1022" t="n">
         <v>80</v>
       </c>
       <c r="N1022" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="O1022" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="P1022" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
@@ -82146,7 +82146,7 @@
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="T1022" t="n">
         <v>1</v>
@@ -82167,7 +82167,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -82200,20 +82200,20 @@
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1023" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="N1023" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="O1023" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="P1023" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="Q1023" t="inlineStr">
         <is>
@@ -82222,11 +82222,11 @@
       </c>
       <c r="R1023" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1023" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="T1023" t="n">
         <v>1</v>
@@ -82247,7 +82247,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -82275,25 +82275,25 @@
       </c>
       <c r="K1024" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1024" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="N1024" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="O1024" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="P1024" t="n">
-        <v>2470</v>
+        <v>2700</v>
       </c>
       <c r="Q1024" t="inlineStr">
         <is>
@@ -82306,7 +82306,7 @@
         </is>
       </c>
       <c r="S1024" t="n">
-        <v>2470</v>
+        <v>2700</v>
       </c>
       <c r="T1024" t="n">
         <v>1</v>
@@ -82327,7 +82327,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -82355,25 +82355,25 @@
       </c>
       <c r="K1025" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="N1025" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="O1025" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="P1025" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
@@ -82382,11 +82382,11 @@
       </c>
       <c r="R1025" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1025" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="T1025" t="n">
         <v>1</v>
@@ -82407,7 +82407,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -82435,25 +82435,25 @@
       </c>
       <c r="K1026" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="M1026" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="N1026" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="O1026" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="P1026" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
@@ -82462,11 +82462,11 @@
       </c>
       <c r="R1026" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="T1026" t="n">
         <v>1</v>
@@ -82487,7 +82487,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -82515,41 +82515,41 @@
       </c>
       <c r="K1027" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="N1027" t="n">
-        <v>2200</v>
+        <v>35000</v>
       </c>
       <c r="O1027" t="n">
-        <v>2300</v>
+        <v>35000</v>
       </c>
       <c r="P1027" t="n">
-        <v>2269</v>
+        <v>35000</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1027" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>2269</v>
+        <v>3500</v>
       </c>
       <c r="T1027" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1028">
@@ -82567,7 +82567,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -82595,41 +82595,41 @@
       </c>
       <c r="K1028" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1028" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="N1028" t="n">
-        <v>2300</v>
+        <v>33000</v>
       </c>
       <c r="O1028" t="n">
-        <v>2300</v>
+        <v>33000</v>
       </c>
       <c r="P1028" t="n">
-        <v>2300</v>
+        <v>33000</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1028" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="T1028" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1029">
@@ -82647,7 +82647,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -82675,41 +82675,41 @@
       </c>
       <c r="K1029" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N1029" t="n">
-        <v>2000</v>
+        <v>31000</v>
       </c>
       <c r="O1029" t="n">
-        <v>2000</v>
+        <v>31000</v>
       </c>
       <c r="P1029" t="n">
-        <v>2000</v>
+        <v>31000</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1029" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>2000</v>
+        <v>3100</v>
       </c>
       <c r="T1029" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1030">
@@ -82755,7 +82755,7 @@
       </c>
       <c r="K1030" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1030" t="inlineStr">
@@ -82764,32 +82764,32 @@
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>765</v>
+        <v>45</v>
       </c>
       <c r="N1030" t="n">
-        <v>27000</v>
+        <v>2800</v>
       </c>
       <c r="O1030" t="n">
-        <v>30000</v>
+        <v>2800</v>
       </c>
       <c r="P1030" t="n">
-        <v>28791</v>
+        <v>2800</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>2879</v>
+        <v>2800</v>
       </c>
       <c r="T1030" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031">
@@ -82835,41 +82835,41 @@
       </c>
       <c r="K1031" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1031" t="n">
-        <v>1260</v>
+        <v>80</v>
       </c>
       <c r="N1031" t="n">
-        <v>25000</v>
+        <v>2700</v>
       </c>
       <c r="O1031" t="n">
-        <v>26000</v>
+        <v>2700</v>
       </c>
       <c r="P1031" t="n">
-        <v>25857</v>
+        <v>2700</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1031" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>2586</v>
+        <v>2700</v>
       </c>
       <c r="T1031" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032">
@@ -82915,41 +82915,41 @@
       </c>
       <c r="K1032" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1032" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>1510</v>
+        <v>70</v>
       </c>
       <c r="N1032" t="n">
-        <v>22000</v>
+        <v>2500</v>
       </c>
       <c r="O1032" t="n">
-        <v>23000</v>
+        <v>2500</v>
       </c>
       <c r="P1032" t="n">
-        <v>22450</v>
+        <v>2500</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1032" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>2245</v>
+        <v>2500</v>
       </c>
       <c r="T1032" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033">
@@ -82967,7 +82967,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -82995,25 +82995,25 @@
       </c>
       <c r="K1033" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="N1033" t="n">
-        <v>6200</v>
+        <v>2400</v>
       </c>
       <c r="O1033" t="n">
-        <v>6200</v>
+        <v>2500</v>
       </c>
       <c r="P1033" t="n">
-        <v>6200</v>
+        <v>2470</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
@@ -83026,7 +83026,7 @@
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>6200</v>
+        <v>2470</v>
       </c>
       <c r="T1033" t="n">
         <v>1</v>
@@ -83047,7 +83047,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -83075,7 +83075,7 @@
       </c>
       <c r="K1034" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1034" t="inlineStr">
@@ -83084,16 +83084,16 @@
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="N1034" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="O1034" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="P1034" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
@@ -83102,11 +83102,11 @@
       </c>
       <c r="R1034" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="T1034" t="n">
         <v>1</v>
@@ -83127,7 +83127,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -83155,7 +83155,7 @@
       </c>
       <c r="K1035" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1035" t="inlineStr">
@@ -83167,13 +83167,13 @@
         <v>85</v>
       </c>
       <c r="N1035" t="n">
-        <v>5800</v>
+        <v>2300</v>
       </c>
       <c r="O1035" t="n">
-        <v>5800</v>
+        <v>2300</v>
       </c>
       <c r="P1035" t="n">
-        <v>5800</v>
+        <v>2300</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
@@ -83182,11 +83182,11 @@
       </c>
       <c r="R1035" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>5800</v>
+        <v>2300</v>
       </c>
       <c r="T1035" t="n">
         <v>1</v>
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -83235,25 +83235,25 @@
       </c>
       <c r="K1036" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1036" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="N1036" t="n">
-        <v>5600</v>
+        <v>2200</v>
       </c>
       <c r="O1036" t="n">
-        <v>5600</v>
+        <v>2300</v>
       </c>
       <c r="P1036" t="n">
-        <v>5600</v>
+        <v>2269</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83266,7 +83266,7 @@
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>5600</v>
+        <v>2269</v>
       </c>
       <c r="T1036" t="n">
         <v>1</v>
@@ -83287,7 +83287,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -83315,25 +83315,25 @@
       </c>
       <c r="K1037" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1037" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="N1037" t="n">
-        <v>3900</v>
+        <v>2300</v>
       </c>
       <c r="O1037" t="n">
-        <v>3900</v>
+        <v>2300</v>
       </c>
       <c r="P1037" t="n">
-        <v>3900</v>
+        <v>2300</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
@@ -83342,11 +83342,11 @@
       </c>
       <c r="R1037" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>3900</v>
+        <v>2300</v>
       </c>
       <c r="T1037" t="n">
         <v>1</v>
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -83395,25 +83395,25 @@
       </c>
       <c r="K1038" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N1038" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="O1038" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="P1038" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
@@ -83426,7 +83426,7 @@
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="T1038" t="n">
         <v>1</v>
@@ -83447,7 +83447,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -83480,36 +83480,36 @@
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>90</v>
+        <v>765</v>
       </c>
       <c r="N1039" t="n">
-        <v>3400</v>
+        <v>27000</v>
       </c>
       <c r="O1039" t="n">
-        <v>3400</v>
+        <v>30000</v>
       </c>
       <c r="P1039" t="n">
-        <v>3400</v>
+        <v>28791</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>3400</v>
+        <v>2879</v>
       </c>
       <c r="T1039" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1040">
@@ -83527,7 +83527,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -83560,36 +83560,36 @@
       </c>
       <c r="L1040" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>70</v>
+        <v>1260</v>
       </c>
       <c r="N1040" t="n">
-        <v>3000</v>
+        <v>25000</v>
       </c>
       <c r="O1040" t="n">
-        <v>3000</v>
+        <v>26000</v>
       </c>
       <c r="P1040" t="n">
-        <v>3000</v>
+        <v>25857</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1040" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>3000</v>
+        <v>2586</v>
       </c>
       <c r="T1040" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1041">
@@ -83607,7 +83607,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -83635,41 +83635,41 @@
       </c>
       <c r="K1041" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>15</v>
+        <v>1510</v>
       </c>
       <c r="N1041" t="n">
-        <v>3000</v>
+        <v>22000</v>
       </c>
       <c r="O1041" t="n">
-        <v>3000</v>
+        <v>23000</v>
       </c>
       <c r="P1041" t="n">
-        <v>3000</v>
+        <v>22450</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>3000</v>
+        <v>2245</v>
       </c>
       <c r="T1041" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1042">
@@ -83687,7 +83687,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -83715,25 +83715,25 @@
       </c>
       <c r="K1042" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N1042" t="n">
-        <v>2800</v>
+        <v>6200</v>
       </c>
       <c r="O1042" t="n">
-        <v>2800</v>
+        <v>6200</v>
       </c>
       <c r="P1042" t="n">
-        <v>2800</v>
+        <v>6200</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
@@ -83746,7 +83746,7 @@
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>2800</v>
+        <v>6200</v>
       </c>
       <c r="T1042" t="n">
         <v>1</v>
@@ -83767,7 +83767,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -83800,20 +83800,20 @@
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N1043" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O1043" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="P1043" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
@@ -83826,7 +83826,7 @@
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="T1043" t="n">
         <v>1</v>
@@ -83847,7 +83847,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -83880,20 +83880,20 @@
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N1044" t="n">
-        <v>3000</v>
+        <v>5800</v>
       </c>
       <c r="O1044" t="n">
-        <v>3000</v>
+        <v>5800</v>
       </c>
       <c r="P1044" t="n">
-        <v>3000</v>
+        <v>5800</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
@@ -83906,7 +83906,7 @@
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>3000</v>
+        <v>5800</v>
       </c>
       <c r="T1044" t="n">
         <v>1</v>
@@ -83927,7 +83927,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -83960,36 +83960,36 @@
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>420</v>
+        <v>95</v>
       </c>
       <c r="N1045" t="n">
-        <v>34000</v>
+        <v>5600</v>
       </c>
       <c r="O1045" t="n">
-        <v>35000</v>
+        <v>5600</v>
       </c>
       <c r="P1045" t="n">
-        <v>34571</v>
+        <v>5600</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1045" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>3457</v>
+        <v>5600</v>
       </c>
       <c r="T1045" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046">
@@ -84007,7 +84007,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -84040,36 +84040,36 @@
       </c>
       <c r="L1046" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="N1046" t="n">
-        <v>37000</v>
+        <v>3900</v>
       </c>
       <c r="O1046" t="n">
-        <v>38000</v>
+        <v>3900</v>
       </c>
       <c r="P1046" t="n">
-        <v>37390</v>
+        <v>3900</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>3739</v>
+        <v>3900</v>
       </c>
       <c r="T1046" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047">
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -84124,32 +84124,32 @@
         </is>
       </c>
       <c r="M1047" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N1047" t="n">
-        <v>28000</v>
+        <v>3700</v>
       </c>
       <c r="O1047" t="n">
-        <v>30000</v>
+        <v>3700</v>
       </c>
       <c r="P1047" t="n">
-        <v>29360</v>
+        <v>3700</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>2936</v>
+        <v>3700</v>
       </c>
       <c r="T1047" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048">
@@ -84167,7 +84167,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -84204,32 +84204,32 @@
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N1048" t="n">
-        <v>24000</v>
+        <v>3400</v>
       </c>
       <c r="O1048" t="n">
-        <v>25000</v>
+        <v>3400</v>
       </c>
       <c r="P1048" t="n">
-        <v>24600</v>
+        <v>3400</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1048" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>2460</v>
+        <v>3400</v>
       </c>
       <c r="T1048" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049">
@@ -84247,7 +84247,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -84275,25 +84275,25 @@
       </c>
       <c r="K1049" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1049" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1049" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N1049" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="O1049" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="P1049" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
@@ -84306,7 +84306,7 @@
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="T1049" t="n">
         <v>1</v>
@@ -84355,7 +84355,7 @@
       </c>
       <c r="K1050" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1050" t="inlineStr">
@@ -84364,16 +84364,16 @@
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N1050" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="O1050" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="P1050" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
@@ -84386,7 +84386,7 @@
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T1050" t="n">
         <v>1</v>
@@ -84435,7 +84435,7 @@
       </c>
       <c r="K1051" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1051" t="inlineStr">
@@ -84444,16 +84444,16 @@
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N1051" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="O1051" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="P1051" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
@@ -84466,7 +84466,7 @@
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T1051" t="n">
         <v>1</v>
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -84520,20 +84520,20 @@
       </c>
       <c r="L1052" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N1052" t="n">
-        <v>5400</v>
+        <v>3500</v>
       </c>
       <c r="O1052" t="n">
-        <v>5400</v>
+        <v>3500</v>
       </c>
       <c r="P1052" t="n">
-        <v>5400</v>
+        <v>3500</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
@@ -84546,7 +84546,7 @@
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>5400</v>
+        <v>3500</v>
       </c>
       <c r="T1052" t="n">
         <v>1</v>
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -84600,20 +84600,20 @@
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N1053" t="n">
-        <v>5700</v>
+        <v>3000</v>
       </c>
       <c r="O1053" t="n">
-        <v>5700</v>
+        <v>3000</v>
       </c>
       <c r="P1053" t="n">
-        <v>5700</v>
+        <v>3000</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
@@ -84626,7 +84626,7 @@
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>5700</v>
+        <v>3000</v>
       </c>
       <c r="T1053" t="n">
         <v>1</v>
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -84680,36 +84680,36 @@
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="N1054" t="n">
-        <v>5200</v>
+        <v>34000</v>
       </c>
       <c r="O1054" t="n">
-        <v>5200</v>
+        <v>35000</v>
       </c>
       <c r="P1054" t="n">
-        <v>5200</v>
+        <v>34571</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1054" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>5200</v>
+        <v>3457</v>
       </c>
       <c r="T1054" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1055">
@@ -84727,7 +84727,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -84760,36 +84760,36 @@
       </c>
       <c r="L1055" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N1055" t="n">
-        <v>5100</v>
+        <v>37000</v>
       </c>
       <c r="O1055" t="n">
-        <v>5100</v>
+        <v>38000</v>
       </c>
       <c r="P1055" t="n">
-        <v>5100</v>
+        <v>37390</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1055" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>5100</v>
+        <v>3739</v>
       </c>
       <c r="T1055" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1056">
@@ -84807,7 +84807,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -84835,41 +84835,41 @@
       </c>
       <c r="K1056" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="N1056" t="n">
-        <v>2500</v>
+        <v>28000</v>
       </c>
       <c r="O1056" t="n">
-        <v>2500</v>
+        <v>30000</v>
       </c>
       <c r="P1056" t="n">
-        <v>2500</v>
+        <v>29360</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1056" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>2500</v>
+        <v>2936</v>
       </c>
       <c r="T1056" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1057">
@@ -84887,7 +84887,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -84915,41 +84915,41 @@
       </c>
       <c r="K1057" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N1057" t="n">
-        <v>2200</v>
+        <v>24000</v>
       </c>
       <c r="O1057" t="n">
-        <v>2200</v>
+        <v>25000</v>
       </c>
       <c r="P1057" t="n">
-        <v>2200</v>
+        <v>24600</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1057" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>2200</v>
+        <v>2460</v>
       </c>
       <c r="T1057" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1058">
@@ -84967,7 +84967,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -84995,25 +84995,25 @@
       </c>
       <c r="K1058" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N1058" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="O1058" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="P1058" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
@@ -85026,7 +85026,7 @@
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="T1058" t="n">
         <v>1</v>
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -85075,41 +85075,41 @@
       </c>
       <c r="K1059" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1059" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N1059" t="n">
-        <v>23000</v>
+        <v>2400</v>
       </c>
       <c r="O1059" t="n">
-        <v>23000</v>
+        <v>2400</v>
       </c>
       <c r="P1059" t="n">
-        <v>23000</v>
+        <v>2400</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1059" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="T1059" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060">
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -85155,41 +85155,41 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1060" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>380</v>
+        <v>55</v>
       </c>
       <c r="N1060" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="O1060" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="P1060" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1060" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1060" t="n">
         <v>2000</v>
       </c>
       <c r="T1060" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061">
@@ -85207,7 +85207,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -85240,36 +85240,36 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>410</v>
+        <v>180</v>
       </c>
       <c r="N1061" t="n">
-        <v>16000</v>
+        <v>5400</v>
       </c>
       <c r="O1061" t="n">
-        <v>16000</v>
+        <v>5400</v>
       </c>
       <c r="P1061" t="n">
-        <v>16000</v>
+        <v>5400</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1061" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>1600</v>
+        <v>5400</v>
       </c>
       <c r="T1061" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062">
@@ -85287,7 +85287,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -85320,36 +85320,36 @@
       </c>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>350</v>
+        <v>110</v>
       </c>
       <c r="N1062" t="n">
-        <v>14000</v>
+        <v>5700</v>
       </c>
       <c r="O1062" t="n">
-        <v>14000</v>
+        <v>5700</v>
       </c>
       <c r="P1062" t="n">
-        <v>14000</v>
+        <v>5700</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1062" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>1400</v>
+        <v>5700</v>
       </c>
       <c r="T1062" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -85367,7 +85367,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -85400,20 +85400,20 @@
       </c>
       <c r="L1063" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N1063" t="n">
-        <v>4600</v>
+        <v>5200</v>
       </c>
       <c r="O1063" t="n">
-        <v>4600</v>
+        <v>5200</v>
       </c>
       <c r="P1063" t="n">
-        <v>4600</v>
+        <v>5200</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
@@ -85426,7 +85426,7 @@
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>4600</v>
+        <v>5200</v>
       </c>
       <c r="T1063" t="n">
         <v>1</v>
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -85480,20 +85480,20 @@
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N1064" t="n">
-        <v>4400</v>
+        <v>5100</v>
       </c>
       <c r="O1064" t="n">
-        <v>4400</v>
+        <v>5100</v>
       </c>
       <c r="P1064" t="n">
-        <v>4400</v>
+        <v>5100</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
@@ -85506,7 +85506,7 @@
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>4400</v>
+        <v>5100</v>
       </c>
       <c r="T1064" t="n">
         <v>1</v>
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -85555,25 +85555,25 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="N1065" t="n">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="O1065" t="n">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="P1065" t="n">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
@@ -85586,7 +85586,7 @@
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="T1065" t="n">
         <v>1</v>
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -85635,25 +85635,25 @@
       </c>
       <c r="K1066" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N1066" t="n">
-        <v>3700</v>
+        <v>2200</v>
       </c>
       <c r="O1066" t="n">
-        <v>3700</v>
+        <v>2200</v>
       </c>
       <c r="P1066" t="n">
-        <v>3700</v>
+        <v>2200</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
@@ -85666,7 +85666,7 @@
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>3700</v>
+        <v>2200</v>
       </c>
       <c r="T1066" t="n">
         <v>1</v>
@@ -85687,7 +85687,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -85715,25 +85715,25 @@
       </c>
       <c r="K1067" t="inlineStr">
         <is>
-          <t>Ester</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N1067" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="O1067" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="P1067" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
@@ -85746,7 +85746,7 @@
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="T1067" t="n">
         <v>1</v>
@@ -85767,7 +85767,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -85795,41 +85795,41 @@
       </c>
       <c r="K1068" t="inlineStr">
         <is>
-          <t>Ester</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1068" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="N1068" t="n">
-        <v>4300</v>
+        <v>23000</v>
       </c>
       <c r="O1068" t="n">
-        <v>4300</v>
+        <v>23000</v>
       </c>
       <c r="P1068" t="n">
-        <v>4300</v>
+        <v>23000</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1068" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>4300</v>
+        <v>2300</v>
       </c>
       <c r="T1068" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1069">
@@ -85847,7 +85847,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -85875,41 +85875,41 @@
       </c>
       <c r="K1069" t="inlineStr">
         <is>
-          <t>Ester</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1069" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="N1069" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="O1069" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="P1069" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1069" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="T1069" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1070">
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -85960,36 +85960,36 @@
       </c>
       <c r="L1070" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="N1070" t="n">
-        <v>6100</v>
+        <v>16000</v>
       </c>
       <c r="O1070" t="n">
-        <v>6100</v>
+        <v>16000</v>
       </c>
       <c r="P1070" t="n">
-        <v>6100</v>
+        <v>16000</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1070" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>6100</v>
+        <v>1600</v>
       </c>
       <c r="T1070" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1071">
@@ -86007,7 +86007,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -86040,36 +86040,36 @@
       </c>
       <c r="L1071" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N1071" t="n">
-        <v>5900</v>
+        <v>14000</v>
       </c>
       <c r="O1071" t="n">
-        <v>5900</v>
+        <v>14000</v>
       </c>
       <c r="P1071" t="n">
-        <v>5900</v>
+        <v>14000</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1071" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>5900</v>
+        <v>1400</v>
       </c>
       <c r="T1071" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1072">
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -86120,20 +86120,20 @@
       </c>
       <c r="L1072" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N1072" t="n">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="O1072" t="n">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="P1072" t="n">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
@@ -86146,7 +86146,7 @@
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="T1072" t="n">
         <v>1</v>
@@ -86167,7 +86167,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -86195,25 +86195,25 @@
       </c>
       <c r="K1073" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="N1073" t="n">
-        <v>2600</v>
+        <v>4400</v>
       </c>
       <c r="O1073" t="n">
-        <v>2700</v>
+        <v>4400</v>
       </c>
       <c r="P1073" t="n">
-        <v>2648</v>
+        <v>4400</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
@@ -86222,11 +86222,11 @@
       </c>
       <c r="R1073" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>2648</v>
+        <v>4400</v>
       </c>
       <c r="T1073" t="n">
         <v>1</v>
@@ -86247,7 +86247,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -86275,25 +86275,25 @@
       </c>
       <c r="K1074" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1074" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="N1074" t="n">
-        <v>2400</v>
+        <v>4100</v>
       </c>
       <c r="O1074" t="n">
-        <v>2500</v>
+        <v>4100</v>
       </c>
       <c r="P1074" t="n">
-        <v>2447</v>
+        <v>4100</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
@@ -86302,11 +86302,11 @@
       </c>
       <c r="R1074" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>2447</v>
+        <v>4100</v>
       </c>
       <c r="T1074" t="n">
         <v>1</v>
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -86360,20 +86360,20 @@
       </c>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="N1075" t="n">
-        <v>2300</v>
+        <v>3700</v>
       </c>
       <c r="O1075" t="n">
-        <v>2400</v>
+        <v>3700</v>
       </c>
       <c r="P1075" t="n">
-        <v>2352</v>
+        <v>3700</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
@@ -86382,11 +86382,11 @@
       </c>
       <c r="R1075" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>2352</v>
+        <v>3700</v>
       </c>
       <c r="T1075" t="n">
         <v>1</v>
@@ -86407,7 +86407,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -86435,25 +86435,25 @@
       </c>
       <c r="K1076" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Ester</t>
         </is>
       </c>
       <c r="L1076" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N1076" t="n">
-        <v>2100</v>
+        <v>4500</v>
       </c>
       <c r="O1076" t="n">
-        <v>2200</v>
+        <v>4500</v>
       </c>
       <c r="P1076" t="n">
-        <v>2150</v>
+        <v>4500</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
@@ -86462,11 +86462,11 @@
       </c>
       <c r="R1076" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>2150</v>
+        <v>4500</v>
       </c>
       <c r="T1076" t="n">
         <v>1</v>
@@ -86487,7 +86487,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -86515,25 +86515,25 @@
       </c>
       <c r="K1077" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Ester</t>
         </is>
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>Especial nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="N1077" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="O1077" t="n">
-        <v>2600</v>
+        <v>4300</v>
       </c>
       <c r="P1077" t="n">
-        <v>2546</v>
+        <v>4300</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
@@ -86542,11 +86542,11 @@
       </c>
       <c r="R1077" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>2546</v>
+        <v>4300</v>
       </c>
       <c r="T1077" t="n">
         <v>1</v>
@@ -86567,7 +86567,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -86595,25 +86595,25 @@
       </c>
       <c r="K1078" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Ester</t>
         </is>
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N1078" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="O1078" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="P1078" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
@@ -86626,7 +86626,7 @@
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="T1078" t="n">
         <v>1</v>
@@ -86647,7 +86647,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -86680,20 +86680,20 @@
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N1079" t="n">
-        <v>3400</v>
+        <v>6100</v>
       </c>
       <c r="O1079" t="n">
-        <v>3400</v>
+        <v>6100</v>
       </c>
       <c r="P1079" t="n">
-        <v>3400</v>
+        <v>6100</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
@@ -86706,7 +86706,7 @@
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>3400</v>
+        <v>6100</v>
       </c>
       <c r="T1079" t="n">
         <v>1</v>
@@ -86727,7 +86727,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -86760,20 +86760,20 @@
       </c>
       <c r="L1080" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N1080" t="n">
-        <v>3200</v>
+        <v>5900</v>
       </c>
       <c r="O1080" t="n">
-        <v>3200</v>
+        <v>5900</v>
       </c>
       <c r="P1080" t="n">
-        <v>3200</v>
+        <v>5900</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
@@ -86786,7 +86786,7 @@
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>3200</v>
+        <v>5900</v>
       </c>
       <c r="T1080" t="n">
         <v>1</v>
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44238</v>
+        <v>44314</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -86840,20 +86840,20 @@
       </c>
       <c r="L1081" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="N1081" t="n">
-        <v>4400</v>
+        <v>5700</v>
       </c>
       <c r="O1081" t="n">
-        <v>4400</v>
+        <v>5700</v>
       </c>
       <c r="P1081" t="n">
-        <v>4400</v>
+        <v>5700</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
@@ -86862,11 +86862,11 @@
       </c>
       <c r="R1081" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>4400</v>
+        <v>5700</v>
       </c>
       <c r="T1081" t="n">
         <v>1</v>
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -86915,7 +86915,7 @@
       </c>
       <c r="K1082" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1082" t="inlineStr">
@@ -86924,16 +86924,16 @@
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="N1082" t="n">
-        <v>4400</v>
+        <v>2600</v>
       </c>
       <c r="O1082" t="n">
-        <v>4400</v>
+        <v>2700</v>
       </c>
       <c r="P1082" t="n">
-        <v>4400</v>
+        <v>2648</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
@@ -86942,11 +86942,11 @@
       </c>
       <c r="R1082" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>4400</v>
+        <v>2648</v>
       </c>
       <c r="T1082" t="n">
         <v>1</v>
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -86995,25 +86995,25 @@
       </c>
       <c r="K1083" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1083" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N1083" t="n">
-        <v>4600</v>
+        <v>2400</v>
       </c>
       <c r="O1083" t="n">
-        <v>4600</v>
+        <v>2500</v>
       </c>
       <c r="P1083" t="n">
-        <v>4600</v>
+        <v>2447</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
@@ -87022,11 +87022,11 @@
       </c>
       <c r="R1083" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>4600</v>
+        <v>2447</v>
       </c>
       <c r="T1083" t="n">
         <v>1</v>
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -87080,20 +87080,20 @@
       </c>
       <c r="L1084" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="N1084" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="O1084" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="P1084" t="n">
-        <v>4000</v>
+        <v>2352</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
@@ -87102,11 +87102,11 @@
       </c>
       <c r="R1084" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>4000</v>
+        <v>2352</v>
       </c>
       <c r="T1084" t="n">
         <v>1</v>
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -87160,20 +87160,20 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N1085" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="O1085" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="P1085" t="n">
-        <v>4000</v>
+        <v>2150</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
@@ -87182,11 +87182,11 @@
       </c>
       <c r="R1085" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>4000</v>
+        <v>2150</v>
       </c>
       <c r="T1085" t="n">
         <v>1</v>
@@ -87207,7 +87207,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -87240,20 +87240,20 @@
       </c>
       <c r="L1086" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial nueva (o)</t>
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="N1086" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="O1086" t="n">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="P1086" t="n">
-        <v>4000</v>
+        <v>2546</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
@@ -87262,11 +87262,11 @@
       </c>
       <c r="R1086" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>4000</v>
+        <v>2546</v>
       </c>
       <c r="T1086" t="n">
         <v>1</v>
@@ -87287,7 +87287,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -87320,11 +87320,11 @@
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N1087" t="n">
         <v>3600</v>
@@ -87342,7 +87342,7 @@
       </c>
       <c r="R1087" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1087" t="n">
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -87400,20 +87400,20 @@
       </c>
       <c r="L1088" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N1088" t="n">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="O1088" t="n">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="P1088" t="n">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
@@ -87422,11 +87422,11 @@
       </c>
       <c r="R1088" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="T1088" t="n">
         <v>1</v>
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -87480,20 +87480,20 @@
       </c>
       <c r="L1089" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N1089" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="O1089" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="P1089" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
@@ -87502,11 +87502,11 @@
       </c>
       <c r="R1089" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="T1089" t="n">
         <v>1</v>
@@ -87527,7 +87527,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -87555,7 +87555,7 @@
       </c>
       <c r="K1090" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1090" t="inlineStr">
@@ -87564,16 +87564,16 @@
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="N1090" t="n">
-        <v>2600</v>
+        <v>4400</v>
       </c>
       <c r="O1090" t="n">
-        <v>2600</v>
+        <v>4400</v>
       </c>
       <c r="P1090" t="n">
-        <v>2600</v>
+        <v>4400</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
@@ -87582,11 +87582,11 @@
       </c>
       <c r="R1090" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>2600</v>
+        <v>4400</v>
       </c>
       <c r="T1090" t="n">
         <v>1</v>
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -87635,25 +87635,25 @@
       </c>
       <c r="K1091" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N1091" t="n">
-        <v>2400</v>
+        <v>4400</v>
       </c>
       <c r="O1091" t="n">
-        <v>2400</v>
+        <v>4400</v>
       </c>
       <c r="P1091" t="n">
-        <v>2400</v>
+        <v>4400</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
@@ -87666,7 +87666,7 @@
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>2400</v>
+        <v>4400</v>
       </c>
       <c r="T1091" t="n">
         <v>1</v>
@@ -87687,7 +87687,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -87715,25 +87715,25 @@
       </c>
       <c r="K1092" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N1092" t="n">
-        <v>2000</v>
+        <v>4600</v>
       </c>
       <c r="O1092" t="n">
-        <v>2000</v>
+        <v>4600</v>
       </c>
       <c r="P1092" t="n">
-        <v>2000</v>
+        <v>4600</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
@@ -87742,11 +87742,11 @@
       </c>
       <c r="R1092" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>2000</v>
+        <v>4600</v>
       </c>
       <c r="T1092" t="n">
         <v>1</v>
@@ -87767,7 +87767,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -87800,36 +87800,36 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="N1093" t="n">
-        <v>27000</v>
+        <v>4000</v>
       </c>
       <c r="O1093" t="n">
-        <v>27000</v>
+        <v>4000</v>
       </c>
       <c r="P1093" t="n">
-        <v>27000</v>
+        <v>4000</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1093" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="T1093" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094">
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -87884,32 +87884,32 @@
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>340</v>
+        <v>125</v>
       </c>
       <c r="N1094" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="O1094" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="P1094" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1094" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T1094" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095">
@@ -87927,7 +87927,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -87960,36 +87960,36 @@
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>390</v>
+        <v>120</v>
       </c>
       <c r="N1095" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="O1095" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="P1095" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1095" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="T1095" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096">
@@ -88007,7 +88007,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -88035,41 +88035,41 @@
       </c>
       <c r="K1096" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1096" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N1096" t="n">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="O1096" t="n">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="P1096" t="n">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1096" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>270</v>
+        <v>3600</v>
       </c>
       <c r="T1096" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097">
@@ -88087,7 +88087,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -88115,41 +88115,41 @@
       </c>
       <c r="K1097" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N1097" t="n">
-        <v>2500</v>
+        <v>3700</v>
       </c>
       <c r="O1097" t="n">
-        <v>2500</v>
+        <v>3700</v>
       </c>
       <c r="P1097" t="n">
-        <v>2500</v>
+        <v>3700</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1097" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>250</v>
+        <v>3700</v>
       </c>
       <c r="T1097" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098">
@@ -88167,7 +88167,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -88195,41 +88195,41 @@
       </c>
       <c r="K1098" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N1098" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="O1098" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="P1098" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>230</v>
+        <v>3500</v>
       </c>
       <c r="T1098" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099">
@@ -88247,7 +88247,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -88275,7 +88275,7 @@
       </c>
       <c r="K1099" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1099" t="inlineStr">
@@ -88284,32 +88284,32 @@
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="N1099" t="n">
-        <v>27000</v>
+        <v>2600</v>
       </c>
       <c r="O1099" t="n">
-        <v>27000</v>
+        <v>2600</v>
       </c>
       <c r="P1099" t="n">
-        <v>27000</v>
+        <v>2600</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1099" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="T1099" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100">
@@ -88327,7 +88327,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -88355,7 +88355,7 @@
       </c>
       <c r="K1100" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1100" t="inlineStr">
@@ -88364,32 +88364,32 @@
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="N1100" t="n">
-        <v>25000</v>
+        <v>2400</v>
       </c>
       <c r="O1100" t="n">
-        <v>25000</v>
+        <v>2400</v>
       </c>
       <c r="P1100" t="n">
-        <v>25000</v>
+        <v>2400</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="T1100" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101">
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -88435,7 +88435,7 @@
       </c>
       <c r="K1101" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1101" t="inlineStr">
@@ -88444,32 +88444,32 @@
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="N1101" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O1101" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="P1101" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1101" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="T1101" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102">
@@ -88487,7 +88487,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -88520,20 +88520,20 @@
       </c>
       <c r="L1102" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="N1102" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O1102" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="P1102" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
@@ -88546,7 +88546,7 @@
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="T1102" t="n">
         <v>10</v>
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -88595,41 +88595,41 @@
       </c>
       <c r="K1103" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="N1103" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="O1103" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="P1103" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1103" t="n">
         <v>2500</v>
       </c>
       <c r="T1103" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1104">
@@ -88647,7 +88647,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -88675,41 +88675,41 @@
       </c>
       <c r="K1104" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="N1104" t="n">
-        <v>2300</v>
+        <v>22000</v>
       </c>
       <c r="O1104" t="n">
-        <v>2300</v>
+        <v>22000</v>
       </c>
       <c r="P1104" t="n">
-        <v>2300</v>
+        <v>22000</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="T1104" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1105">
@@ -88755,40 +88755,760 @@
       </c>
       <c r="K1105" t="inlineStr">
         <is>
+          <t>Edranol</t>
+        </is>
+      </c>
+      <c r="L1105" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1105" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1105" t="n">
+        <v>2700</v>
+      </c>
+      <c r="O1105" t="n">
+        <v>2700</v>
+      </c>
+      <c r="P1105" t="n">
+        <v>2700</v>
+      </c>
+      <c r="Q1105" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1105" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S1105" t="n">
+        <v>270</v>
+      </c>
+      <c r="T1105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1106" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1106" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1106" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1106" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1106" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1106" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>Edranol</t>
+        </is>
+      </c>
+      <c r="L1106" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1106" t="n">
+        <v>60</v>
+      </c>
+      <c r="N1106" t="n">
+        <v>2500</v>
+      </c>
+      <c r="O1106" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P1106" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q1106" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1106" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S1106" t="n">
+        <v>250</v>
+      </c>
+      <c r="T1106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1107" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1107" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1107" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1107" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1107" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1107" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>Edranol</t>
+        </is>
+      </c>
+      <c r="L1107" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1107" t="n">
+        <v>70</v>
+      </c>
+      <c r="N1107" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O1107" t="n">
+        <v>2300</v>
+      </c>
+      <c r="P1107" t="n">
+        <v>2300</v>
+      </c>
+      <c r="Q1107" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1107" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S1107" t="n">
+        <v>230</v>
+      </c>
+      <c r="T1107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1108" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1108" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1108" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1108" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1108" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1108" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>Hass</t>
+        </is>
+      </c>
+      <c r="L1108" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1108" t="n">
+        <v>220</v>
+      </c>
+      <c r="N1108" t="n">
+        <v>27000</v>
+      </c>
+      <c r="O1108" t="n">
+        <v>27000</v>
+      </c>
+      <c r="P1108" t="n">
+        <v>27000</v>
+      </c>
+      <c r="Q1108" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1108" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S1108" t="n">
+        <v>2700</v>
+      </c>
+      <c r="T1108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1109" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1109" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1109" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1109" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1109" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1109" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>Hass</t>
+        </is>
+      </c>
+      <c r="L1109" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1109" t="n">
+        <v>290</v>
+      </c>
+      <c r="N1109" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O1109" t="n">
+        <v>25000</v>
+      </c>
+      <c r="P1109" t="n">
+        <v>25000</v>
+      </c>
+      <c r="Q1109" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1109" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S1109" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T1109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1110" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1110" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1110" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1110" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1110" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1110" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>Hass</t>
+        </is>
+      </c>
+      <c r="L1110" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1110" t="n">
+        <v>340</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O1110" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q1110" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1110" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S1110" t="n">
+        <v>2200</v>
+      </c>
+      <c r="T1110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1111" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1111" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1111" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1111" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1111" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1111" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>Hass</t>
+        </is>
+      </c>
+      <c r="L1111" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M1111" t="n">
+        <v>240</v>
+      </c>
+      <c r="N1111" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O1111" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P1111" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q1111" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1111" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S1111" t="n">
+        <v>2200</v>
+      </c>
+      <c r="T1111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1112" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1112" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1112" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1112" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1112" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1112" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1112" t="inlineStr">
+        <is>
           <t>Negra de La Cruz</t>
         </is>
       </c>
-      <c r="L1105" t="inlineStr">
+      <c r="L1112" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1112" t="n">
+        <v>220</v>
+      </c>
+      <c r="N1112" t="n">
+        <v>2500</v>
+      </c>
+      <c r="O1112" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P1112" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q1112" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1112" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1112" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T1112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1113" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1113" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1113" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1113" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1113" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1113" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>Negra de La Cruz</t>
+        </is>
+      </c>
+      <c r="L1113" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1113" t="n">
+        <v>260</v>
+      </c>
+      <c r="N1113" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O1113" t="n">
+        <v>2300</v>
+      </c>
+      <c r="P1113" t="n">
+        <v>2300</v>
+      </c>
+      <c r="Q1113" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1113" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1113" t="n">
+        <v>2300</v>
+      </c>
+      <c r="T1113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1114" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1114" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1114" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1114" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1114" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1114" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>Negra de La Cruz</t>
+        </is>
+      </c>
+      <c r="L1114" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M1105" t="n">
+      <c r="M1114" t="n">
         <v>280</v>
       </c>
-      <c r="N1105" t="n">
+      <c r="N1114" t="n">
         <v>2100</v>
       </c>
-      <c r="O1105" t="n">
+      <c r="O1114" t="n">
         <v>2100</v>
       </c>
-      <c r="P1105" t="n">
+      <c r="P1114" t="n">
         <v>2100</v>
       </c>
-      <c r="Q1105" t="inlineStr">
+      <c r="Q1114" t="inlineStr">
         <is>
           <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
-      <c r="R1105" t="inlineStr">
+      <c r="R1114" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1105" t="n">
+      <c r="S1114" t="n">
         <v>2100</v>
       </c>
-      <c r="T1105" t="n">
+      <c r="T1114" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Palta.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Palta.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1160"/>
+  <dimension ref="A1:T1169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84967,7 +84967,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -84995,7 +84995,7 @@
       </c>
       <c r="K1058" t="inlineStr">
         <is>
-          <t>Fuerte</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1058" t="inlineStr">
@@ -85004,16 +85004,16 @@
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N1058" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="O1058" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="P1058" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
@@ -85022,11 +85022,11 @@
       </c>
       <c r="R1058" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="T1058" t="n">
         <v>1</v>
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -85075,7 +85075,7 @@
       </c>
       <c r="K1059" t="inlineStr">
         <is>
-          <t>Fuerte</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1059" t="inlineStr">
@@ -85084,16 +85084,16 @@
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N1059" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="O1059" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="P1059" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
@@ -85102,11 +85102,11 @@
       </c>
       <c r="R1059" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="T1059" t="n">
         <v>1</v>
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -85155,7 +85155,7 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>Fuerte</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1060" t="inlineStr">
@@ -85164,16 +85164,16 @@
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N1060" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="O1060" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="P1060" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
@@ -85182,11 +85182,11 @@
       </c>
       <c r="R1060" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="T1060" t="n">
         <v>1</v>
@@ -85207,7 +85207,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -85240,36 +85240,36 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N1061" t="n">
-        <v>40000</v>
+        <v>3500</v>
       </c>
       <c r="O1061" t="n">
-        <v>40000</v>
+        <v>3500</v>
       </c>
       <c r="P1061" t="n">
-        <v>40000</v>
+        <v>3500</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1061" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="T1061" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062">
@@ -85287,7 +85287,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -85320,36 +85320,36 @@
       </c>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>480</v>
+        <v>85</v>
       </c>
       <c r="N1062" t="n">
-        <v>38000</v>
+        <v>3000</v>
       </c>
       <c r="O1062" t="n">
-        <v>38000</v>
+        <v>3000</v>
       </c>
       <c r="P1062" t="n">
-        <v>38000</v>
+        <v>3000</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1062" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="T1062" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -85367,7 +85367,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -85400,36 +85400,36 @@
       </c>
       <c r="L1063" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="N1063" t="n">
-        <v>35000</v>
+        <v>2500</v>
       </c>
       <c r="O1063" t="n">
-        <v>35000</v>
+        <v>2500</v>
       </c>
       <c r="P1063" t="n">
-        <v>35000</v>
+        <v>2500</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1063" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="T1063" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064">
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -85480,20 +85480,20 @@
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="N1064" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O1064" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P1064" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
@@ -85506,7 +85506,7 @@
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="T1064" t="n">
         <v>10</v>
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -85555,41 +85555,41 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N1065" t="n">
-        <v>2800</v>
+        <v>27000</v>
       </c>
       <c r="O1065" t="n">
-        <v>2800</v>
+        <v>27000</v>
       </c>
       <c r="P1065" t="n">
-        <v>2800</v>
+        <v>27000</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1065" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="T1065" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1066">
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -85635,41 +85635,41 @@
       </c>
       <c r="K1066" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1066" t="n">
         <v>100</v>
       </c>
       <c r="N1066" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="O1066" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="P1066" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1066" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1066" t="n">
         <v>2500</v>
       </c>
       <c r="T1066" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1067">
@@ -85715,25 +85715,25 @@
       </c>
       <c r="K1067" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Fuerte</t>
         </is>
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1067" t="n">
         <v>70</v>
       </c>
       <c r="N1067" t="n">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="O1067" t="n">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="P1067" t="n">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
@@ -85742,11 +85742,11 @@
       </c>
       <c r="R1067" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="T1067" t="n">
         <v>1</v>
@@ -85767,7 +85767,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -85795,25 +85795,25 @@
       </c>
       <c r="K1068" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Fuerte</t>
         </is>
       </c>
       <c r="L1068" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1068" t="n">
         <v>100</v>
       </c>
       <c r="N1068" t="n">
-        <v>4800</v>
+        <v>3500</v>
       </c>
       <c r="O1068" t="n">
-        <v>4800</v>
+        <v>3500</v>
       </c>
       <c r="P1068" t="n">
-        <v>4800</v>
+        <v>3500</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
@@ -85822,11 +85822,11 @@
       </c>
       <c r="R1068" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>4800</v>
+        <v>3500</v>
       </c>
       <c r="T1068" t="n">
         <v>1</v>
@@ -85847,7 +85847,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -85875,25 +85875,25 @@
       </c>
       <c r="K1069" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Fuerte</t>
         </is>
       </c>
       <c r="L1069" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="N1069" t="n">
-        <v>4600</v>
+        <v>3200</v>
       </c>
       <c r="O1069" t="n">
-        <v>4600</v>
+        <v>3200</v>
       </c>
       <c r="P1069" t="n">
-        <v>4600</v>
+        <v>3200</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
@@ -85902,11 +85902,11 @@
       </c>
       <c r="R1069" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>4600</v>
+        <v>3200</v>
       </c>
       <c r="T1069" t="n">
         <v>1</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -85960,36 +85960,36 @@
       </c>
       <c r="L1070" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="N1070" t="n">
-        <v>4400</v>
+        <v>40000</v>
       </c>
       <c r="O1070" t="n">
-        <v>4400</v>
+        <v>40000</v>
       </c>
       <c r="P1070" t="n">
-        <v>4400</v>
+        <v>40000</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1070" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="T1070" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1071">
@@ -86007,7 +86007,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -86040,36 +86040,36 @@
       </c>
       <c r="L1071" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="N1071" t="n">
-        <v>4100</v>
+        <v>38000</v>
       </c>
       <c r="O1071" t="n">
-        <v>4100</v>
+        <v>38000</v>
       </c>
       <c r="P1071" t="n">
-        <v>4100</v>
+        <v>38000</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1071" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="T1071" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1072">
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -86115,41 +86115,41 @@
       </c>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1072" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="N1072" t="n">
-        <v>2900</v>
+        <v>35000</v>
       </c>
       <c r="O1072" t="n">
-        <v>2900</v>
+        <v>35000</v>
       </c>
       <c r="P1072" t="n">
-        <v>2900</v>
+        <v>35000</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1072" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="T1072" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1073">
@@ -86167,7 +86167,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -86195,41 +86195,41 @@
       </c>
       <c r="K1073" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N1073" t="n">
-        <v>2600</v>
+        <v>32000</v>
       </c>
       <c r="O1073" t="n">
-        <v>2600</v>
+        <v>32000</v>
       </c>
       <c r="P1073" t="n">
-        <v>2600</v>
+        <v>32000</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1073" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="T1073" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1074">
@@ -86247,7 +86247,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -86275,7 +86275,7 @@
       </c>
       <c r="K1074" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1074" t="inlineStr">
@@ -86284,16 +86284,16 @@
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N1074" t="n">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="O1074" t="n">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="P1074" t="n">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
@@ -86302,11 +86302,11 @@
       </c>
       <c r="R1074" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="T1074" t="n">
         <v>1</v>
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -86355,7 +86355,7 @@
       </c>
       <c r="K1075" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1075" t="inlineStr">
@@ -86364,16 +86364,16 @@
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N1075" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="O1075" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="P1075" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
@@ -86382,11 +86382,11 @@
       </c>
       <c r="R1075" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="T1075" t="n">
         <v>1</v>
@@ -86407,7 +86407,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -86435,7 +86435,7 @@
       </c>
       <c r="K1076" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1076" t="inlineStr">
@@ -86444,16 +86444,16 @@
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="N1076" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="O1076" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="P1076" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
@@ -86462,11 +86462,11 @@
       </c>
       <c r="R1076" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="T1076" t="n">
         <v>1</v>
@@ -86487,7 +86487,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -86520,20 +86520,20 @@
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N1077" t="n">
-        <v>2900</v>
+        <v>4800</v>
       </c>
       <c r="O1077" t="n">
-        <v>2900</v>
+        <v>4800</v>
       </c>
       <c r="P1077" t="n">
-        <v>2900</v>
+        <v>4800</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
@@ -86546,7 +86546,7 @@
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>2900</v>
+        <v>4800</v>
       </c>
       <c r="T1077" t="n">
         <v>1</v>
@@ -86567,7 +86567,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -86595,25 +86595,25 @@
       </c>
       <c r="K1078" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N1078" t="n">
-        <v>2500</v>
+        <v>4600</v>
       </c>
       <c r="O1078" t="n">
-        <v>2500</v>
+        <v>4600</v>
       </c>
       <c r="P1078" t="n">
-        <v>2500</v>
+        <v>4600</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
@@ -86626,7 +86626,7 @@
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>2500</v>
+        <v>4600</v>
       </c>
       <c r="T1078" t="n">
         <v>1</v>
@@ -86647,7 +86647,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -86675,25 +86675,25 @@
       </c>
       <c r="K1079" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="N1079" t="n">
-        <v>2300</v>
+        <v>4400</v>
       </c>
       <c r="O1079" t="n">
-        <v>2300</v>
+        <v>4400</v>
       </c>
       <c r="P1079" t="n">
-        <v>2300</v>
+        <v>4400</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
@@ -86706,7 +86706,7 @@
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>2300</v>
+        <v>4400</v>
       </c>
       <c r="T1079" t="n">
         <v>1</v>
@@ -86727,7 +86727,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -86755,25 +86755,25 @@
       </c>
       <c r="K1080" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1080" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N1080" t="n">
-        <v>2000</v>
+        <v>4100</v>
       </c>
       <c r="O1080" t="n">
-        <v>2000</v>
+        <v>4100</v>
       </c>
       <c r="P1080" t="n">
-        <v>2000</v>
+        <v>4100</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
@@ -86786,7 +86786,7 @@
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>2000</v>
+        <v>4100</v>
       </c>
       <c r="T1080" t="n">
         <v>1</v>
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -86835,7 +86835,7 @@
       </c>
       <c r="K1081" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1081" t="inlineStr">
@@ -86844,32 +86844,32 @@
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N1081" t="n">
-        <v>23000</v>
+        <v>2900</v>
       </c>
       <c r="O1081" t="n">
-        <v>23000</v>
+        <v>2900</v>
       </c>
       <c r="P1081" t="n">
-        <v>23000</v>
+        <v>2900</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1081" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="T1081" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082">
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -86915,7 +86915,7 @@
       </c>
       <c r="K1082" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1082" t="inlineStr">
@@ -86924,32 +86924,32 @@
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="N1082" t="n">
-        <v>21000</v>
+        <v>2600</v>
       </c>
       <c r="O1082" t="n">
-        <v>21000</v>
+        <v>2600</v>
       </c>
       <c r="P1082" t="n">
-        <v>21000</v>
+        <v>2600</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1082" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="T1082" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083">
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -87000,36 +87000,36 @@
       </c>
       <c r="L1083" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>295</v>
+        <v>120</v>
       </c>
       <c r="N1083" t="n">
-        <v>16000</v>
+        <v>3600</v>
       </c>
       <c r="O1083" t="n">
-        <v>16000</v>
+        <v>3600</v>
       </c>
       <c r="P1083" t="n">
-        <v>16000</v>
+        <v>3600</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1083" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>1600</v>
+        <v>3600</v>
       </c>
       <c r="T1083" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084">
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -87075,25 +87075,25 @@
       </c>
       <c r="K1084" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1084" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="N1084" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="O1084" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="P1084" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
@@ -87106,7 +87106,7 @@
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="T1084" t="n">
         <v>1</v>
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -87155,25 +87155,25 @@
       </c>
       <c r="K1085" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="N1085" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="O1085" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="P1085" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
@@ -87186,7 +87186,7 @@
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="T1085" t="n">
         <v>1</v>
@@ -87207,7 +87207,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -87235,25 +87235,25 @@
       </c>
       <c r="K1086" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1086" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="N1086" t="n">
-        <v>1800</v>
+        <v>2900</v>
       </c>
       <c r="O1086" t="n">
-        <v>1800</v>
+        <v>2900</v>
       </c>
       <c r="P1086" t="n">
-        <v>1800</v>
+        <v>2900</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
@@ -87266,7 +87266,7 @@
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>1800</v>
+        <v>2900</v>
       </c>
       <c r="T1086" t="n">
         <v>1</v>
@@ -87287,7 +87287,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -87315,7 +87315,7 @@
       </c>
       <c r="K1087" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1087" t="inlineStr">
@@ -87324,32 +87324,32 @@
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>280</v>
+        <v>25</v>
       </c>
       <c r="N1087" t="n">
-        <v>23000</v>
+        <v>2500</v>
       </c>
       <c r="O1087" t="n">
-        <v>23000</v>
+        <v>2500</v>
       </c>
       <c r="P1087" t="n">
-        <v>23000</v>
+        <v>2500</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1087" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="T1087" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088">
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -87395,7 +87395,7 @@
       </c>
       <c r="K1088" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1088" t="inlineStr">
@@ -87404,32 +87404,32 @@
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="N1088" t="n">
-        <v>20000</v>
+        <v>2300</v>
       </c>
       <c r="O1088" t="n">
-        <v>20000</v>
+        <v>2300</v>
       </c>
       <c r="P1088" t="n">
-        <v>20000</v>
+        <v>2300</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1088" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="T1088" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089">
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -87475,7 +87475,7 @@
       </c>
       <c r="K1089" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1089" t="inlineStr">
@@ -87484,32 +87484,32 @@
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="N1089" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O1089" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="P1089" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="T1089" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090">
@@ -87527,7 +87527,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -87555,7 +87555,7 @@
       </c>
       <c r="K1090" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1090" t="inlineStr">
@@ -87564,32 +87564,32 @@
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="N1090" t="n">
-        <v>2500</v>
+        <v>23000</v>
       </c>
       <c r="O1090" t="n">
-        <v>2500</v>
+        <v>23000</v>
       </c>
       <c r="P1090" t="n">
-        <v>2500</v>
+        <v>23000</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1090" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="T1090" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1091">
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -87635,7 +87635,7 @@
       </c>
       <c r="K1091" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1091" t="inlineStr">
@@ -87644,32 +87644,32 @@
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="N1091" t="n">
-        <v>2300</v>
+        <v>21000</v>
       </c>
       <c r="O1091" t="n">
-        <v>2300</v>
+        <v>21000</v>
       </c>
       <c r="P1091" t="n">
-        <v>2300</v>
+        <v>21000</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1091" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="T1091" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1092">
@@ -87687,7 +87687,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -87715,7 +87715,7 @@
       </c>
       <c r="K1092" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1092" t="inlineStr">
@@ -87724,32 +87724,32 @@
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>110</v>
+        <v>295</v>
       </c>
       <c r="N1092" t="n">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="O1092" t="n">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="P1092" t="n">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="T1092" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1093">
@@ -87767,7 +87767,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -87795,7 +87795,7 @@
       </c>
       <c r="K1093" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1093" t="inlineStr">
@@ -87804,16 +87804,16 @@
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="N1093" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O1093" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="P1093" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
@@ -87826,7 +87826,7 @@
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="T1093" t="n">
         <v>1</v>
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -87875,7 +87875,7 @@
       </c>
       <c r="K1094" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1094" t="inlineStr">
@@ -87884,16 +87884,16 @@
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N1094" t="n">
-        <v>4800</v>
+        <v>2200</v>
       </c>
       <c r="O1094" t="n">
-        <v>4800</v>
+        <v>2200</v>
       </c>
       <c r="P1094" t="n">
-        <v>4800</v>
+        <v>2200</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
@@ -87906,7 +87906,7 @@
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>4800</v>
+        <v>2200</v>
       </c>
       <c r="T1094" t="n">
         <v>1</v>
@@ -87927,7 +87927,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -87955,7 +87955,7 @@
       </c>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1095" t="inlineStr">
@@ -87964,16 +87964,16 @@
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="N1095" t="n">
-        <v>4600</v>
+        <v>1800</v>
       </c>
       <c r="O1095" t="n">
-        <v>4600</v>
+        <v>1800</v>
       </c>
       <c r="P1095" t="n">
-        <v>4600</v>
+        <v>1800</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
@@ -87986,7 +87986,7 @@
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>4600</v>
+        <v>1800</v>
       </c>
       <c r="T1095" t="n">
         <v>1</v>
@@ -88007,7 +88007,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -88040,36 +88040,36 @@
       </c>
       <c r="L1096" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N1096" t="n">
-        <v>4300</v>
+        <v>23000</v>
       </c>
       <c r="O1096" t="n">
-        <v>4300</v>
+        <v>23000</v>
       </c>
       <c r="P1096" t="n">
-        <v>4300</v>
+        <v>23000</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1096" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>4300</v>
+        <v>2300</v>
       </c>
       <c r="T1096" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1097">
@@ -88087,7 +88087,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -88120,36 +88120,36 @@
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N1097" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="O1097" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="P1097" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1097" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="T1097" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1098">
@@ -88167,7 +88167,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -88200,36 +88200,36 @@
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>140</v>
+        <v>410</v>
       </c>
       <c r="N1098" t="n">
-        <v>4100</v>
+        <v>16000</v>
       </c>
       <c r="O1098" t="n">
-        <v>4100</v>
+        <v>16000</v>
       </c>
       <c r="P1098" t="n">
-        <v>4100</v>
+        <v>16000</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>4100</v>
+        <v>1600</v>
       </c>
       <c r="T1098" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1099">
@@ -88247,7 +88247,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -88275,41 +88275,41 @@
       </c>
       <c r="K1099" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1099" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="N1099" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="O1099" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="P1099" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1099" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1099" t="n">
         <v>2500</v>
       </c>
       <c r="T1099" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100">
@@ -88327,7 +88327,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -88355,25 +88355,25 @@
       </c>
       <c r="K1100" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="N1100" t="n">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="O1100" t="n">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="P1100" t="n">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
@@ -88386,7 +88386,7 @@
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="T1100" t="n">
         <v>1</v>
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -88435,41 +88435,41 @@
       </c>
       <c r="K1101" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1101" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="N1101" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O1101" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="P1101" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1101" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="T1101" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102">
@@ -88487,7 +88487,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -88524,16 +88524,16 @@
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N1102" t="n">
-        <v>3900</v>
+        <v>5000</v>
       </c>
       <c r="O1102" t="n">
-        <v>3900</v>
+        <v>5000</v>
       </c>
       <c r="P1102" t="n">
-        <v>3900</v>
+        <v>5000</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
@@ -88542,11 +88542,11 @@
       </c>
       <c r="R1102" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>3900</v>
+        <v>5000</v>
       </c>
       <c r="T1102" t="n">
         <v>1</v>
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -88604,16 +88604,16 @@
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="N1103" t="n">
-        <v>3700</v>
+        <v>4800</v>
       </c>
       <c r="O1103" t="n">
-        <v>3700</v>
+        <v>4800</v>
       </c>
       <c r="P1103" t="n">
-        <v>3700</v>
+        <v>4800</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
@@ -88622,11 +88622,11 @@
       </c>
       <c r="R1103" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>3700</v>
+        <v>4800</v>
       </c>
       <c r="T1103" t="n">
         <v>1</v>
@@ -88647,7 +88647,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -88684,16 +88684,16 @@
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="N1104" t="n">
-        <v>3400</v>
+        <v>4600</v>
       </c>
       <c r="O1104" t="n">
-        <v>3400</v>
+        <v>4600</v>
       </c>
       <c r="P1104" t="n">
-        <v>3400</v>
+        <v>4600</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
@@ -88702,11 +88702,11 @@
       </c>
       <c r="R1104" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>3400</v>
+        <v>4600</v>
       </c>
       <c r="T1104" t="n">
         <v>1</v>
@@ -88727,7 +88727,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -88764,16 +88764,16 @@
         </is>
       </c>
       <c r="M1105" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N1105" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="O1105" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="P1105" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="Q1105" t="inlineStr">
         <is>
@@ -88782,11 +88782,11 @@
       </c>
       <c r="R1105" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1105" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="T1105" t="n">
         <v>1</v>
@@ -88807,7 +88807,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -88844,16 +88844,16 @@
         </is>
       </c>
       <c r="M1106" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N1106" t="n">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="O1106" t="n">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="P1106" t="n">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="Q1106" t="inlineStr">
         <is>
@@ -88862,11 +88862,11 @@
       </c>
       <c r="R1106" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1106" t="n">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="T1106" t="n">
         <v>1</v>
@@ -88887,7 +88887,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -88920,20 +88920,20 @@
       </c>
       <c r="L1107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1107" t="n">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="N1107" t="n">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="O1107" t="n">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="P1107" t="n">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="Q1107" t="inlineStr">
         <is>
@@ -88946,7 +88946,7 @@
         </is>
       </c>
       <c r="S1107" t="n">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="T1107" t="n">
         <v>1</v>
@@ -88967,7 +88967,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -89000,36 +89000,36 @@
       </c>
       <c r="L1108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1108" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N1108" t="n">
-        <v>4000</v>
+        <v>25000</v>
       </c>
       <c r="O1108" t="n">
-        <v>4000</v>
+        <v>25000</v>
       </c>
       <c r="P1108" t="n">
-        <v>4000</v>
+        <v>25000</v>
       </c>
       <c r="Q1108" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1108" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1108" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T1108" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1109">
@@ -89047,7 +89047,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -89080,20 +89080,20 @@
       </c>
       <c r="L1109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N1109" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="O1109" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="P1109" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="Q1109" t="inlineStr">
         <is>
@@ -89106,7 +89106,7 @@
         </is>
       </c>
       <c r="S1109" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="T1109" t="n">
         <v>1</v>
@@ -89127,7 +89127,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -89160,36 +89160,36 @@
       </c>
       <c r="L1110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1110" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N1110" t="n">
-        <v>3600</v>
+        <v>22000</v>
       </c>
       <c r="O1110" t="n">
-        <v>3600</v>
+        <v>22000</v>
       </c>
       <c r="P1110" t="n">
-        <v>3600</v>
+        <v>22000</v>
       </c>
       <c r="Q1110" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1110" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1110" t="n">
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="T1110" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1111">
@@ -89207,7 +89207,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -89240,20 +89240,20 @@
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1111" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N1111" t="n">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="O1111" t="n">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="P1111" t="n">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
@@ -89262,11 +89262,11 @@
       </c>
       <c r="R1111" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="T1111" t="n">
         <v>1</v>
@@ -89287,7 +89287,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -89315,7 +89315,7 @@
       </c>
       <c r="K1112" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1112" t="inlineStr">
@@ -89324,16 +89324,16 @@
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="N1112" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="O1112" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="P1112" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="Q1112" t="inlineStr">
         <is>
@@ -89342,11 +89342,11 @@
       </c>
       <c r="R1112" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1112" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="T1112" t="n">
         <v>1</v>
@@ -89367,7 +89367,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -89395,7 +89395,7 @@
       </c>
       <c r="K1113" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1113" t="inlineStr">
@@ -89404,16 +89404,16 @@
         </is>
       </c>
       <c r="M1113" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="N1113" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="O1113" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="P1113" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="Q1113" t="inlineStr">
         <is>
@@ -89422,11 +89422,11 @@
       </c>
       <c r="R1113" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1113" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="T1113" t="n">
         <v>1</v>
@@ -89447,7 +89447,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E1114" t="n">
         <v>13</v>
@@ -89480,20 +89480,20 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1114" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N1114" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O1114" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P1114" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q1114" t="inlineStr">
         <is>
@@ -89502,11 +89502,11 @@
       </c>
       <c r="R1114" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1114" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="T1114" t="n">
         <v>1</v>
@@ -89527,7 +89527,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1115" t="n">
         <v>13</v>
@@ -89560,20 +89560,20 @@
       </c>
       <c r="L1115" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1115" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N1115" t="n">
-        <v>3000</v>
+        <v>4400</v>
       </c>
       <c r="O1115" t="n">
-        <v>3000</v>
+        <v>4400</v>
       </c>
       <c r="P1115" t="n">
-        <v>3000</v>
+        <v>4400</v>
       </c>
       <c r="Q1115" t="inlineStr">
         <is>
@@ -89582,11 +89582,11 @@
       </c>
       <c r="R1115" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1115" t="n">
-        <v>3000</v>
+        <v>4400</v>
       </c>
       <c r="T1115" t="n">
         <v>1</v>
@@ -89607,7 +89607,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -89644,32 +89644,32 @@
         </is>
       </c>
       <c r="M1116" t="n">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="N1116" t="n">
-        <v>34000</v>
+        <v>4400</v>
       </c>
       <c r="O1116" t="n">
-        <v>35000</v>
+        <v>4400</v>
       </c>
       <c r="P1116" t="n">
-        <v>34571</v>
+        <v>4400</v>
       </c>
       <c r="Q1116" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1116" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1116" t="n">
-        <v>3457</v>
+        <v>4400</v>
       </c>
       <c r="T1116" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117">
@@ -89687,7 +89687,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -89720,36 +89720,36 @@
       </c>
       <c r="L1117" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1117" t="n">
-        <v>205</v>
+        <v>120</v>
       </c>
       <c r="N1117" t="n">
-        <v>37000</v>
+        <v>4000</v>
       </c>
       <c r="O1117" t="n">
-        <v>38000</v>
+        <v>4000</v>
       </c>
       <c r="P1117" t="n">
-        <v>37390</v>
+        <v>4000</v>
       </c>
       <c r="Q1117" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1117" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1117" t="n">
-        <v>3739</v>
+        <v>4000</v>
       </c>
       <c r="T1117" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118">
@@ -89767,7 +89767,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -89804,32 +89804,32 @@
         </is>
       </c>
       <c r="M1118" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N1118" t="n">
-        <v>28000</v>
+        <v>4000</v>
       </c>
       <c r="O1118" t="n">
-        <v>30000</v>
+        <v>4000</v>
       </c>
       <c r="P1118" t="n">
-        <v>29360</v>
+        <v>4000</v>
       </c>
       <c r="Q1118" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1118" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1118" t="n">
-        <v>2936</v>
+        <v>4000</v>
       </c>
       <c r="T1118" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119">
@@ -89847,7 +89847,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -89884,32 +89884,32 @@
         </is>
       </c>
       <c r="M1119" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N1119" t="n">
-        <v>24000</v>
+        <v>3600</v>
       </c>
       <c r="O1119" t="n">
-        <v>25000</v>
+        <v>3600</v>
       </c>
       <c r="P1119" t="n">
-        <v>24600</v>
+        <v>3600</v>
       </c>
       <c r="Q1119" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1119" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1119" t="n">
-        <v>2460</v>
+        <v>3600</v>
       </c>
       <c r="T1119" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -89927,7 +89927,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -89955,25 +89955,25 @@
       </c>
       <c r="K1120" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1120" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1120" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N1120" t="n">
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="O1120" t="n">
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="P1120" t="n">
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="Q1120" t="inlineStr">
         <is>
@@ -89986,7 +89986,7 @@
         </is>
       </c>
       <c r="S1120" t="n">
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="T1120" t="n">
         <v>1</v>
@@ -90035,7 +90035,7 @@
       </c>
       <c r="K1121" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1121" t="inlineStr">
@@ -90044,16 +90044,16 @@
         </is>
       </c>
       <c r="M1121" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N1121" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="O1121" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="P1121" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q1121" t="inlineStr">
         <is>
@@ -90066,7 +90066,7 @@
         </is>
       </c>
       <c r="S1121" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T1121" t="n">
         <v>1</v>
@@ -90115,7 +90115,7 @@
       </c>
       <c r="K1122" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1122" t="inlineStr">
@@ -90124,16 +90124,16 @@
         </is>
       </c>
       <c r="M1122" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N1122" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="O1122" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="P1122" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="Q1122" t="inlineStr">
         <is>
@@ -90146,7 +90146,7 @@
         </is>
       </c>
       <c r="S1122" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T1122" t="n">
         <v>1</v>
@@ -90167,7 +90167,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -90195,25 +90195,25 @@
       </c>
       <c r="K1123" t="inlineStr">
         <is>
-          <t>Champion</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="M1123" t="n">
         <v>60</v>
       </c>
       <c r="N1123" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="O1123" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="P1123" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q1123" t="inlineStr">
         <is>
@@ -90226,7 +90226,7 @@
         </is>
       </c>
       <c r="S1123" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="T1123" t="n">
         <v>1</v>
@@ -90247,7 +90247,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -90275,25 +90275,25 @@
       </c>
       <c r="K1124" t="inlineStr">
         <is>
-          <t>Champion</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="M1124" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N1124" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="O1124" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="P1124" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="Q1124" t="inlineStr">
         <is>
@@ -90306,7 +90306,7 @@
         </is>
       </c>
       <c r="S1124" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="T1124" t="n">
         <v>1</v>
@@ -90327,7 +90327,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -90355,41 +90355,41 @@
       </c>
       <c r="K1125" t="inlineStr">
         <is>
-          <t>Champion</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1125" t="n">
-        <v>70</v>
+        <v>420</v>
       </c>
       <c r="N1125" t="n">
-        <v>2000</v>
+        <v>34000</v>
       </c>
       <c r="O1125" t="n">
-        <v>2000</v>
+        <v>35000</v>
       </c>
       <c r="P1125" t="n">
-        <v>2000</v>
+        <v>34571</v>
       </c>
       <c r="Q1125" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1125" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1125" t="n">
-        <v>2000</v>
+        <v>3457</v>
       </c>
       <c r="T1125" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1126">
@@ -90407,7 +90407,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -90440,36 +90440,36 @@
       </c>
       <c r="L1126" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1126" t="n">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="N1126" t="n">
-        <v>5700</v>
+        <v>37000</v>
       </c>
       <c r="O1126" t="n">
-        <v>5700</v>
+        <v>38000</v>
       </c>
       <c r="P1126" t="n">
-        <v>5700</v>
+        <v>37390</v>
       </c>
       <c r="Q1126" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1126" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1126" t="n">
-        <v>5700</v>
+        <v>3739</v>
       </c>
       <c r="T1126" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1127">
@@ -90487,7 +90487,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -90524,16 +90524,16 @@
         </is>
       </c>
       <c r="M1127" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="N1127" t="n">
-        <v>42000</v>
+        <v>28000</v>
       </c>
       <c r="O1127" t="n">
-        <v>42000</v>
+        <v>30000</v>
       </c>
       <c r="P1127" t="n">
-        <v>42000</v>
+        <v>29360</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
@@ -90546,7 +90546,7 @@
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>4200</v>
+        <v>2936</v>
       </c>
       <c r="T1127" t="n">
         <v>10</v>
@@ -90567,7 +90567,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -90600,36 +90600,36 @@
       </c>
       <c r="L1128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="N1128" t="n">
-        <v>5500</v>
+        <v>24000</v>
       </c>
       <c r="O1128" t="n">
-        <v>5500</v>
+        <v>25000</v>
       </c>
       <c r="P1128" t="n">
-        <v>5500</v>
+        <v>24600</v>
       </c>
       <c r="Q1128" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1128" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1128" t="n">
-        <v>5500</v>
+        <v>2460</v>
       </c>
       <c r="T1128" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1129">
@@ -90647,7 +90647,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -90675,41 +90675,41 @@
       </c>
       <c r="K1129" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1129" t="n">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="N1129" t="n">
-        <v>40000</v>
+        <v>2600</v>
       </c>
       <c r="O1129" t="n">
-        <v>40000</v>
+        <v>2600</v>
       </c>
       <c r="P1129" t="n">
-        <v>40000</v>
+        <v>2600</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1129" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="T1129" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130">
@@ -90727,7 +90727,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -90755,25 +90755,25 @@
       </c>
       <c r="K1130" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1130" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="N1130" t="n">
-        <v>5300</v>
+        <v>2400</v>
       </c>
       <c r="O1130" t="n">
-        <v>5300</v>
+        <v>2400</v>
       </c>
       <c r="P1130" t="n">
-        <v>5300</v>
+        <v>2400</v>
       </c>
       <c r="Q1130" t="inlineStr">
         <is>
@@ -90786,7 +90786,7 @@
         </is>
       </c>
       <c r="S1130" t="n">
-        <v>5300</v>
+        <v>2400</v>
       </c>
       <c r="T1130" t="n">
         <v>1</v>
@@ -90807,7 +90807,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -90835,41 +90835,41 @@
       </c>
       <c r="K1131" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1131" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N1131" t="n">
-        <v>38000</v>
+        <v>2000</v>
       </c>
       <c r="O1131" t="n">
-        <v>38000</v>
+        <v>2000</v>
       </c>
       <c r="P1131" t="n">
-        <v>38000</v>
+        <v>2000</v>
       </c>
       <c r="Q1131" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1131" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1131" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="T1131" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132">
@@ -90915,25 +90915,25 @@
       </c>
       <c r="K1132" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Champion</t>
         </is>
       </c>
       <c r="L1132" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1132" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="N1132" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O1132" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="P1132" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q1132" t="inlineStr">
         <is>
@@ -90946,7 +90946,7 @@
         </is>
       </c>
       <c r="S1132" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="T1132" t="n">
         <v>1</v>
@@ -90967,7 +90967,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -90995,25 +90995,25 @@
       </c>
       <c r="K1133" t="inlineStr">
         <is>
-          <t>Fuerte</t>
+          <t>Champion</t>
         </is>
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1133" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N1133" t="n">
-        <v>3600</v>
+        <v>2300</v>
       </c>
       <c r="O1133" t="n">
-        <v>3600</v>
+        <v>2300</v>
       </c>
       <c r="P1133" t="n">
-        <v>3600</v>
+        <v>2300</v>
       </c>
       <c r="Q1133" t="inlineStr">
         <is>
@@ -91022,11 +91022,11 @@
       </c>
       <c r="R1133" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1133" t="n">
-        <v>3600</v>
+        <v>2300</v>
       </c>
       <c r="T1133" t="n">
         <v>1</v>
@@ -91047,7 +91047,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -91075,25 +91075,25 @@
       </c>
       <c r="K1134" t="inlineStr">
         <is>
-          <t>Fuerte</t>
+          <t>Champion</t>
         </is>
       </c>
       <c r="L1134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1134" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N1134" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="O1134" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="P1134" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="Q1134" t="inlineStr">
         <is>
@@ -91102,11 +91102,11 @@
       </c>
       <c r="R1134" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1134" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="T1134" t="n">
         <v>1</v>
@@ -91127,7 +91127,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -91155,25 +91155,25 @@
       </c>
       <c r="K1135" t="inlineStr">
         <is>
-          <t>Fuerte</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1135" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N1135" t="n">
-        <v>3200</v>
+        <v>5700</v>
       </c>
       <c r="O1135" t="n">
-        <v>3200</v>
+        <v>5700</v>
       </c>
       <c r="P1135" t="n">
-        <v>3200</v>
+        <v>5700</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
@@ -91182,11 +91182,11 @@
       </c>
       <c r="R1135" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1135" t="n">
-        <v>3200</v>
+        <v>5700</v>
       </c>
       <c r="T1135" t="n">
         <v>1</v>
@@ -91207,7 +91207,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -91240,20 +91240,20 @@
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1136" t="n">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="N1136" t="n">
-        <v>40000</v>
+        <v>42000</v>
       </c>
       <c r="O1136" t="n">
-        <v>40000</v>
+        <v>42000</v>
       </c>
       <c r="P1136" t="n">
-        <v>40000</v>
+        <v>42000</v>
       </c>
       <c r="Q1136" t="inlineStr">
         <is>
@@ -91266,7 +91266,7 @@
         </is>
       </c>
       <c r="S1136" t="n">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="T1136" t="n">
         <v>10</v>
@@ -91287,7 +91287,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -91324,32 +91324,32 @@
         </is>
       </c>
       <c r="M1137" t="n">
-        <v>480</v>
+        <v>190</v>
       </c>
       <c r="N1137" t="n">
-        <v>35000</v>
+        <v>5500</v>
       </c>
       <c r="O1137" t="n">
-        <v>36000</v>
+        <v>5500</v>
       </c>
       <c r="P1137" t="n">
-        <v>35500</v>
+        <v>5500</v>
       </c>
       <c r="Q1137" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1137" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1137" t="n">
-        <v>3550</v>
+        <v>5500</v>
       </c>
       <c r="T1137" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138">
@@ -91367,7 +91367,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -91407,13 +91407,13 @@
         <v>180</v>
       </c>
       <c r="N1138" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="O1138" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="P1138" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
@@ -91426,7 +91426,7 @@
         </is>
       </c>
       <c r="S1138" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="T1138" t="n">
         <v>10</v>
@@ -91447,7 +91447,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -91484,16 +91484,16 @@
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N1139" t="n">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="O1139" t="n">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="P1139" t="n">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
@@ -91502,11 +91502,11 @@
       </c>
       <c r="R1139" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1139" t="n">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="T1139" t="n">
         <v>1</v>
@@ -91527,7 +91527,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -91564,32 +91564,32 @@
         </is>
       </c>
       <c r="M1140" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N1140" t="n">
-        <v>4000</v>
+        <v>38000</v>
       </c>
       <c r="O1140" t="n">
-        <v>4000</v>
+        <v>38000</v>
       </c>
       <c r="P1140" t="n">
-        <v>4000</v>
+        <v>38000</v>
       </c>
       <c r="Q1140" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1140" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1140" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="T1140" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1141">
@@ -91607,7 +91607,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -91635,25 +91635,25 @@
       </c>
       <c r="K1141" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1141" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="N1141" t="n">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="O1141" t="n">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="P1141" t="n">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="Q1141" t="inlineStr">
         <is>
@@ -91662,11 +91662,11 @@
       </c>
       <c r="R1141" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1141" t="n">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="T1141" t="n">
         <v>1</v>
@@ -91715,25 +91715,25 @@
       </c>
       <c r="K1142" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Fuerte</t>
         </is>
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1142" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N1142" t="n">
-        <v>2200</v>
+        <v>3600</v>
       </c>
       <c r="O1142" t="n">
-        <v>2200</v>
+        <v>3600</v>
       </c>
       <c r="P1142" t="n">
-        <v>2200</v>
+        <v>3600</v>
       </c>
       <c r="Q1142" t="inlineStr">
         <is>
@@ -91746,7 +91746,7 @@
         </is>
       </c>
       <c r="S1142" t="n">
-        <v>2200</v>
+        <v>3600</v>
       </c>
       <c r="T1142" t="n">
         <v>1</v>
@@ -91767,7 +91767,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -91795,25 +91795,25 @@
       </c>
       <c r="K1143" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Fuerte</t>
         </is>
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1143" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N1143" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="O1143" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P1143" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
@@ -91822,11 +91822,11 @@
       </c>
       <c r="R1143" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="T1143" t="n">
         <v>1</v>
@@ -91847,7 +91847,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -91875,25 +91875,25 @@
       </c>
       <c r="K1144" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Fuerte</t>
         </is>
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1144" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="N1144" t="n">
-        <v>4800</v>
+        <v>3200</v>
       </c>
       <c r="O1144" t="n">
-        <v>4800</v>
+        <v>3200</v>
       </c>
       <c r="P1144" t="n">
-        <v>4800</v>
+        <v>3200</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
@@ -91902,11 +91902,11 @@
       </c>
       <c r="R1144" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>4800</v>
+        <v>3200</v>
       </c>
       <c r="T1144" t="n">
         <v>1</v>
@@ -91927,7 +91927,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -91960,36 +91960,36 @@
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1145" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N1145" t="n">
-        <v>4600</v>
+        <v>40000</v>
       </c>
       <c r="O1145" t="n">
-        <v>4600</v>
+        <v>40000</v>
       </c>
       <c r="P1145" t="n">
-        <v>4600</v>
+        <v>40000</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1145" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="T1145" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1146">
@@ -92007,7 +92007,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -92040,36 +92040,36 @@
       </c>
       <c r="L1146" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1146" t="n">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="N1146" t="n">
-        <v>4300</v>
+        <v>35000</v>
       </c>
       <c r="O1146" t="n">
-        <v>4300</v>
+        <v>36000</v>
       </c>
       <c r="P1146" t="n">
-        <v>4300</v>
+        <v>35500</v>
       </c>
       <c r="Q1146" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1146" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1146" t="n">
-        <v>4300</v>
+        <v>3550</v>
       </c>
       <c r="T1146" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1147">
@@ -92087,7 +92087,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -92120,20 +92120,20 @@
       </c>
       <c r="L1147" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1147" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N1147" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="O1147" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="P1147" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="Q1147" t="inlineStr">
         <is>
@@ -92146,7 +92146,7 @@
         </is>
       </c>
       <c r="S1147" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="T1147" t="n">
         <v>10</v>
@@ -92167,7 +92167,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -92200,36 +92200,36 @@
       </c>
       <c r="L1148" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1148" t="n">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="N1148" t="n">
-        <v>29000</v>
+        <v>5000</v>
       </c>
       <c r="O1148" t="n">
-        <v>29000</v>
+        <v>5000</v>
       </c>
       <c r="P1148" t="n">
-        <v>29000</v>
+        <v>5000</v>
       </c>
       <c r="Q1148" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1148" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1148" t="n">
-        <v>2900</v>
+        <v>5000</v>
       </c>
       <c r="T1148" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149">
@@ -92247,7 +92247,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1149" t="n">
         <v>13</v>
@@ -92280,36 +92280,36 @@
       </c>
       <c r="L1149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1149" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N1149" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="O1149" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="P1149" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="Q1149" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1149" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1149" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T1149" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150">
@@ -92327,7 +92327,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E1150" t="n">
         <v>13</v>
@@ -92355,7 +92355,7 @@
       </c>
       <c r="K1150" t="inlineStr">
         <is>
-          <t>Champion</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1150" t="inlineStr">
@@ -92364,16 +92364,16 @@
         </is>
       </c>
       <c r="M1150" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="N1150" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="O1150" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="P1150" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="Q1150" t="inlineStr">
         <is>
@@ -92382,11 +92382,11 @@
       </c>
       <c r="R1150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1150" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="T1150" t="n">
         <v>1</v>
@@ -92407,7 +92407,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -92435,7 +92435,7 @@
       </c>
       <c r="K1151" t="inlineStr">
         <is>
-          <t>Champion</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1151" t="inlineStr">
@@ -92444,7 +92444,7 @@
         </is>
       </c>
       <c r="M1151" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N1151" t="n">
         <v>2200</v>
@@ -92462,7 +92462,7 @@
       </c>
       <c r="R1151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1151" t="n">
@@ -92487,7 +92487,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E1152" t="n">
         <v>13</v>
@@ -92515,7 +92515,7 @@
       </c>
       <c r="K1152" t="inlineStr">
         <is>
-          <t>Ester</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1152" t="inlineStr">
@@ -92524,16 +92524,16 @@
         </is>
       </c>
       <c r="M1152" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N1152" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O1152" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P1152" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q1152" t="inlineStr">
         <is>
@@ -92546,7 +92546,7 @@
         </is>
       </c>
       <c r="S1152" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T1152" t="n">
         <v>1</v>
@@ -92567,7 +92567,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E1153" t="n">
         <v>13</v>
@@ -92595,7 +92595,7 @@
       </c>
       <c r="K1153" t="inlineStr">
         <is>
-          <t>Ester</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1153" t="inlineStr">
@@ -92604,16 +92604,16 @@
         </is>
       </c>
       <c r="M1153" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N1153" t="n">
-        <v>3800</v>
+        <v>4800</v>
       </c>
       <c r="O1153" t="n">
-        <v>3800</v>
+        <v>4800</v>
       </c>
       <c r="P1153" t="n">
-        <v>3800</v>
+        <v>4800</v>
       </c>
       <c r="Q1153" t="inlineStr">
         <is>
@@ -92626,7 +92626,7 @@
         </is>
       </c>
       <c r="S1153" t="n">
-        <v>3800</v>
+        <v>4800</v>
       </c>
       <c r="T1153" t="n">
         <v>1</v>
@@ -92647,7 +92647,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E1154" t="n">
         <v>13</v>
@@ -92675,7 +92675,7 @@
       </c>
       <c r="K1154" t="inlineStr">
         <is>
-          <t>Ester</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1154" t="inlineStr">
@@ -92684,16 +92684,16 @@
         </is>
       </c>
       <c r="M1154" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N1154" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="O1154" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="P1154" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="Q1154" t="inlineStr">
         <is>
@@ -92706,7 +92706,7 @@
         </is>
       </c>
       <c r="S1154" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="T1154" t="n">
         <v>1</v>
@@ -92727,7 +92727,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -92760,20 +92760,20 @@
       </c>
       <c r="L1155" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1155" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="N1155" t="n">
-        <v>6200</v>
+        <v>4300</v>
       </c>
       <c r="O1155" t="n">
-        <v>6200</v>
+        <v>4300</v>
       </c>
       <c r="P1155" t="n">
-        <v>6200</v>
+        <v>4300</v>
       </c>
       <c r="Q1155" t="inlineStr">
         <is>
@@ -92786,7 +92786,7 @@
         </is>
       </c>
       <c r="S1155" t="n">
-        <v>6200</v>
+        <v>4300</v>
       </c>
       <c r="T1155" t="n">
         <v>1</v>
@@ -92807,7 +92807,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1156" t="n">
         <v>13</v>
@@ -92840,20 +92840,20 @@
       </c>
       <c r="L1156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1156" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="N1156" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="O1156" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="P1156" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="Q1156" t="inlineStr">
         <is>
@@ -92866,7 +92866,7 @@
         </is>
       </c>
       <c r="S1156" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="T1156" t="n">
         <v>10</v>
@@ -92887,7 +92887,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1157" t="n">
         <v>13</v>
@@ -92920,36 +92920,36 @@
       </c>
       <c r="L1157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="N1157" t="n">
-        <v>6100</v>
+        <v>29000</v>
       </c>
       <c r="O1157" t="n">
-        <v>6100</v>
+        <v>29000</v>
       </c>
       <c r="P1157" t="n">
-        <v>6100</v>
+        <v>29000</v>
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1157" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1157" t="n">
-        <v>6100</v>
+        <v>2900</v>
       </c>
       <c r="T1157" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1158">
@@ -92967,7 +92967,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -93000,20 +93000,20 @@
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1158" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="N1158" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="O1158" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="P1158" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
@@ -93026,7 +93026,7 @@
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="T1158" t="n">
         <v>10</v>
@@ -93075,25 +93075,25 @@
       </c>
       <c r="K1159" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Champion</t>
         </is>
       </c>
       <c r="L1159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1159" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="N1159" t="n">
-        <v>5900</v>
+        <v>2500</v>
       </c>
       <c r="O1159" t="n">
-        <v>5900</v>
+        <v>2500</v>
       </c>
       <c r="P1159" t="n">
-        <v>5900</v>
+        <v>2500</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
@@ -93102,11 +93102,11 @@
       </c>
       <c r="R1159" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>5900</v>
+        <v>2500</v>
       </c>
       <c r="T1159" t="n">
         <v>1</v>
@@ -93155,40 +93155,760 @@
       </c>
       <c r="K1160" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Champion</t>
         </is>
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1160" t="n">
         <v>150</v>
       </c>
       <c r="N1160" t="n">
+        <v>2200</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>2200</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>2200</v>
+      </c>
+      <c r="Q1160" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1160" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1160" t="n">
+        <v>2200</v>
+      </c>
+      <c r="T1160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1161" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1161" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1161" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1161" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1161" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1161" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1161" t="inlineStr">
+        <is>
+          <t>Ester</t>
+        </is>
+      </c>
+      <c r="L1161" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1161" t="n">
+        <v>70</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q1161" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1161" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S1161" t="n">
+        <v>4000</v>
+      </c>
+      <c r="T1161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1162" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1162" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1162" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1162" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1162" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1162" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>Ester</t>
+        </is>
+      </c>
+      <c r="L1162" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1162" t="n">
+        <v>100</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>3800</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>3800</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>3800</v>
+      </c>
+      <c r="Q1162" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1162" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S1162" t="n">
+        <v>3800</v>
+      </c>
+      <c r="T1162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1163" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1163" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1163" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1163" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1163" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1163" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>Ester</t>
+        </is>
+      </c>
+      <c r="L1163" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1163" t="n">
+        <v>80</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>3600</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>3600</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>3600</v>
+      </c>
+      <c r="Q1163" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1163" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S1163" t="n">
+        <v>3600</v>
+      </c>
+      <c r="T1163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1164" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1164" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1164" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1164" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1164" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1164" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>Hass</t>
+        </is>
+      </c>
+      <c r="L1164" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1164" t="n">
+        <v>70</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>6200</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>6200</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>6200</v>
+      </c>
+      <c r="Q1164" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1164" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S1164" t="n">
+        <v>6200</v>
+      </c>
+      <c r="T1164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1165" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1165" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1165" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1165" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1165" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1165" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>Hass</t>
+        </is>
+      </c>
+      <c r="L1165" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1165" t="n">
+        <v>90</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>35000</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>35000</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>35000</v>
+      </c>
+      <c r="Q1165" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1165" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S1165" t="n">
+        <v>3500</v>
+      </c>
+      <c r="T1165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1166" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1166" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1166" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1166" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1166" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1166" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1166" t="inlineStr">
+        <is>
+          <t>Hass</t>
+        </is>
+      </c>
+      <c r="L1166" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1166" t="n">
+        <v>95</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>6100</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>6100</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>6100</v>
+      </c>
+      <c r="Q1166" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1166" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S1166" t="n">
+        <v>6100</v>
+      </c>
+      <c r="T1166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1167" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1167" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1167" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1167" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1167" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1167" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1167" t="inlineStr">
+        <is>
+          <t>Hass</t>
+        </is>
+      </c>
+      <c r="L1167" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1167" t="n">
+        <v>120</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>31000</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>31000</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>31000</v>
+      </c>
+      <c r="Q1167" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1167" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S1167" t="n">
+        <v>3100</v>
+      </c>
+      <c r="T1167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1168" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1168" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1168" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1168" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1168" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1168" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1168" t="inlineStr">
+        <is>
+          <t>Hass</t>
+        </is>
+      </c>
+      <c r="L1168" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1168" t="n">
+        <v>110</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>5900</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>5900</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>5900</v>
+      </c>
+      <c r="Q1168" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1168" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S1168" t="n">
+        <v>5900</v>
+      </c>
+      <c r="T1168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1169" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1169" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1169" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1169" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1169" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1169" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1169" t="inlineStr">
+        <is>
+          <t>Hass</t>
+        </is>
+      </c>
+      <c r="L1169" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M1169" t="n">
+        <v>150</v>
+      </c>
+      <c r="N1169" t="n">
         <v>29000</v>
       </c>
-      <c r="O1160" t="n">
+      <c r="O1169" t="n">
         <v>29000</v>
       </c>
-      <c r="P1160" t="n">
+      <c r="P1169" t="n">
         <v>29000</v>
       </c>
-      <c r="Q1160" t="inlineStr">
+      <c r="Q1169" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R1160" t="inlineStr">
+      <c r="R1169" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="S1160" t="n">
+      <c r="S1169" t="n">
         <v>2900</v>
       </c>
-      <c r="T1160" t="n">
+      <c r="T1169" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Palta.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Palta.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1221"/>
+  <dimension ref="A1:T1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84407,7 +84407,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -84435,25 +84435,25 @@
       </c>
       <c r="K1051" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="N1051" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="O1051" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="P1051" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
@@ -84466,7 +84466,7 @@
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T1051" t="n">
         <v>1</v>
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -84515,25 +84515,25 @@
       </c>
       <c r="K1052" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1052" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N1052" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="O1052" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="P1052" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
@@ -84546,7 +84546,7 @@
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="T1052" t="n">
         <v>1</v>
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -84595,25 +84595,25 @@
       </c>
       <c r="K1053" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="N1053" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="O1053" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="P1053" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
@@ -84626,7 +84626,7 @@
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T1053" t="n">
         <v>1</v>
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -84680,36 +84680,36 @@
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N1054" t="n">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="O1054" t="n">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="P1054" t="n">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1054" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T1054" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055">
@@ -84727,7 +84727,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -84760,36 +84760,36 @@
       </c>
       <c r="L1055" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="N1055" t="n">
-        <v>27000</v>
+        <v>2500</v>
       </c>
       <c r="O1055" t="n">
-        <v>27000</v>
+        <v>2500</v>
       </c>
       <c r="P1055" t="n">
-        <v>27000</v>
+        <v>2500</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1055" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="T1055" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056">
@@ -84807,7 +84807,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -84840,36 +84840,36 @@
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N1056" t="n">
-        <v>25000</v>
+        <v>2200</v>
       </c>
       <c r="O1056" t="n">
-        <v>25000</v>
+        <v>2200</v>
       </c>
       <c r="P1056" t="n">
-        <v>25000</v>
+        <v>2200</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1056" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="T1056" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057">
@@ -84887,7 +84887,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -84920,20 +84920,20 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N1057" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="O1057" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="P1057" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
@@ -84942,11 +84942,11 @@
       </c>
       <c r="R1057" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="T1057" t="n">
         <v>1</v>
@@ -84967,7 +84967,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -85000,20 +85000,20 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N1058" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="O1058" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="P1058" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
@@ -85022,11 +85022,11 @@
       </c>
       <c r="R1058" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="T1058" t="n">
         <v>1</v>
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -85080,36 +85080,36 @@
       </c>
       <c r="L1059" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Especial nueva (o)</t>
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N1059" t="n">
-        <v>35000</v>
+        <v>3000</v>
       </c>
       <c r="O1059" t="n">
-        <v>35000</v>
+        <v>3000</v>
       </c>
       <c r="P1059" t="n">
-        <v>35000</v>
+        <v>3000</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1059" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="T1059" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060">
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -85160,36 +85160,36 @@
       </c>
       <c r="L1060" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial nueva (o)</t>
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="N1060" t="n">
-        <v>30000</v>
+        <v>2800</v>
       </c>
       <c r="O1060" t="n">
-        <v>30000</v>
+        <v>2800</v>
       </c>
       <c r="P1060" t="n">
-        <v>30000</v>
+        <v>2800</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1060" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T1060" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061">
@@ -85207,7 +85207,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -85240,36 +85240,36 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="N1061" t="n">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="O1061" t="n">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="P1061" t="n">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1061" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="T1061" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062">
@@ -85287,7 +85287,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -85315,25 +85315,25 @@
       </c>
       <c r="K1062" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N1062" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="O1062" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="P1062" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
@@ -85346,7 +85346,7 @@
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="T1062" t="n">
         <v>1</v>
@@ -85367,7 +85367,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -85395,25 +85395,25 @@
       </c>
       <c r="K1063" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1063" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="N1063" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="O1063" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="P1063" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
@@ -85426,7 +85426,7 @@
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="T1063" t="n">
         <v>1</v>
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -85475,41 +85475,41 @@
       </c>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N1064" t="n">
-        <v>2100</v>
+        <v>30000</v>
       </c>
       <c r="O1064" t="n">
-        <v>2100</v>
+        <v>30000</v>
       </c>
       <c r="P1064" t="n">
-        <v>2100</v>
+        <v>30000</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1064" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="T1064" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1065">
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -85560,36 +85560,36 @@
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="N1065" t="n">
-        <v>5600</v>
+        <v>27000</v>
       </c>
       <c r="O1065" t="n">
-        <v>5600</v>
+        <v>27000</v>
       </c>
       <c r="P1065" t="n">
-        <v>5600</v>
+        <v>27000</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1065" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>5600</v>
+        <v>2700</v>
       </c>
       <c r="T1065" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1066">
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -85640,36 +85640,36 @@
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="N1066" t="n">
-        <v>5800</v>
+        <v>25000</v>
       </c>
       <c r="O1066" t="n">
-        <v>5800</v>
+        <v>25000</v>
       </c>
       <c r="P1066" t="n">
-        <v>5800</v>
+        <v>25000</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1066" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>5800</v>
+        <v>2500</v>
       </c>
       <c r="T1066" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1067">
@@ -85687,7 +85687,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -85720,20 +85720,20 @@
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N1067" t="n">
-        <v>5400</v>
+        <v>3300</v>
       </c>
       <c r="O1067" t="n">
-        <v>5400</v>
+        <v>3300</v>
       </c>
       <c r="P1067" t="n">
-        <v>5400</v>
+        <v>3300</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
@@ -85742,11 +85742,11 @@
       </c>
       <c r="R1067" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>5400</v>
+        <v>3300</v>
       </c>
       <c r="T1067" t="n">
         <v>1</v>
@@ -85767,7 +85767,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -85800,20 +85800,20 @@
       </c>
       <c r="L1068" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="N1068" t="n">
-        <v>5100</v>
+        <v>2800</v>
       </c>
       <c r="O1068" t="n">
-        <v>5100</v>
+        <v>2800</v>
       </c>
       <c r="P1068" t="n">
-        <v>5100</v>
+        <v>2800</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
@@ -85822,11 +85822,11 @@
       </c>
       <c r="R1068" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>5100</v>
+        <v>2800</v>
       </c>
       <c r="T1068" t="n">
         <v>1</v>
@@ -85847,7 +85847,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -85884,32 +85884,32 @@
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N1069" t="n">
-        <v>4900</v>
+        <v>35000</v>
       </c>
       <c r="O1069" t="n">
-        <v>4900</v>
+        <v>35000</v>
       </c>
       <c r="P1069" t="n">
-        <v>4900</v>
+        <v>35000</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1069" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>4900</v>
+        <v>3500</v>
       </c>
       <c r="T1069" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1070">
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -85967,29 +85967,29 @@
         <v>120</v>
       </c>
       <c r="N1070" t="n">
-        <v>4700</v>
+        <v>30000</v>
       </c>
       <c r="O1070" t="n">
-        <v>4700</v>
+        <v>30000</v>
       </c>
       <c r="P1070" t="n">
-        <v>4700</v>
+        <v>30000</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1070" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>4700</v>
+        <v>3000</v>
       </c>
       <c r="T1070" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1071">
@@ -86007,7 +86007,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -86047,29 +86047,29 @@
         <v>160</v>
       </c>
       <c r="N1071" t="n">
-        <v>4500</v>
+        <v>25000</v>
       </c>
       <c r="O1071" t="n">
-        <v>4500</v>
+        <v>25000</v>
       </c>
       <c r="P1071" t="n">
-        <v>4500</v>
+        <v>25000</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1071" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="T1071" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1072">
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -86115,25 +86115,25 @@
       </c>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1072" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="N1072" t="n">
-        <v>4300</v>
+        <v>2700</v>
       </c>
       <c r="O1072" t="n">
-        <v>4300</v>
+        <v>2700</v>
       </c>
       <c r="P1072" t="n">
-        <v>4300</v>
+        <v>2700</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
@@ -86146,7 +86146,7 @@
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>4300</v>
+        <v>2700</v>
       </c>
       <c r="T1072" t="n">
         <v>1</v>
@@ -86167,7 +86167,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -86195,25 +86195,25 @@
       </c>
       <c r="K1073" t="inlineStr">
         <is>
-          <t>Fuerte</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N1073" t="n">
-        <v>3800</v>
+        <v>2400</v>
       </c>
       <c r="O1073" t="n">
-        <v>3800</v>
+        <v>2400</v>
       </c>
       <c r="P1073" t="n">
-        <v>3800</v>
+        <v>2400</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
@@ -86222,11 +86222,11 @@
       </c>
       <c r="R1073" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>3800</v>
+        <v>2400</v>
       </c>
       <c r="T1073" t="n">
         <v>1</v>
@@ -86247,7 +86247,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -86275,25 +86275,25 @@
       </c>
       <c r="K1074" t="inlineStr">
         <is>
-          <t>Fuerte</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1074" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N1074" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="O1074" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="P1074" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
@@ -86302,11 +86302,11 @@
       </c>
       <c r="R1074" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="T1074" t="n">
         <v>1</v>
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -86355,25 +86355,25 @@
       </c>
       <c r="K1075" t="inlineStr">
         <is>
-          <t>Fuerte</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N1075" t="n">
-        <v>3200</v>
+        <v>5600</v>
       </c>
       <c r="O1075" t="n">
-        <v>3200</v>
+        <v>5600</v>
       </c>
       <c r="P1075" t="n">
-        <v>3200</v>
+        <v>5600</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
@@ -86382,11 +86382,11 @@
       </c>
       <c r="R1075" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>3200</v>
+        <v>5600</v>
       </c>
       <c r="T1075" t="n">
         <v>1</v>
@@ -86407,7 +86407,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -86440,36 +86440,36 @@
       </c>
       <c r="L1076" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="N1076" t="n">
-        <v>40000</v>
+        <v>5800</v>
       </c>
       <c r="O1076" t="n">
-        <v>40000</v>
+        <v>5800</v>
       </c>
       <c r="P1076" t="n">
-        <v>40000</v>
+        <v>5800</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1076" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>4000</v>
+        <v>5800</v>
       </c>
       <c r="T1076" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077">
@@ -86487,7 +86487,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -86524,32 +86524,32 @@
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>480</v>
+        <v>220</v>
       </c>
       <c r="N1077" t="n">
-        <v>36000</v>
+        <v>5400</v>
       </c>
       <c r="O1077" t="n">
-        <v>36000</v>
+        <v>5400</v>
       </c>
       <c r="P1077" t="n">
-        <v>36000</v>
+        <v>5400</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1077" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="T1077" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078">
@@ -86567,7 +86567,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -86604,32 +86604,32 @@
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="N1078" t="n">
-        <v>33000</v>
+        <v>5100</v>
       </c>
       <c r="O1078" t="n">
-        <v>33000</v>
+        <v>5100</v>
       </c>
       <c r="P1078" t="n">
-        <v>33000</v>
+        <v>5100</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>3300</v>
+        <v>5100</v>
       </c>
       <c r="T1078" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079">
@@ -86647,7 +86647,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -86684,16 +86684,16 @@
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N1079" t="n">
-        <v>3600</v>
+        <v>4900</v>
       </c>
       <c r="O1079" t="n">
-        <v>3600</v>
+        <v>4900</v>
       </c>
       <c r="P1079" t="n">
-        <v>3600</v>
+        <v>4900</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
@@ -86706,7 +86706,7 @@
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>3600</v>
+        <v>4900</v>
       </c>
       <c r="T1079" t="n">
         <v>1</v>
@@ -86727,7 +86727,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -86767,13 +86767,13 @@
         <v>120</v>
       </c>
       <c r="N1080" t="n">
-        <v>3400</v>
+        <v>4700</v>
       </c>
       <c r="O1080" t="n">
-        <v>3400</v>
+        <v>4700</v>
       </c>
       <c r="P1080" t="n">
-        <v>3400</v>
+        <v>4700</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
@@ -86786,7 +86786,7 @@
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>3400</v>
+        <v>4700</v>
       </c>
       <c r="T1080" t="n">
         <v>1</v>
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -86844,16 +86844,16 @@
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N1081" t="n">
-        <v>3200</v>
+        <v>4500</v>
       </c>
       <c r="O1081" t="n">
-        <v>3200</v>
+        <v>4500</v>
       </c>
       <c r="P1081" t="n">
-        <v>3200</v>
+        <v>4500</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
@@ -86866,7 +86866,7 @@
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>3200</v>
+        <v>4500</v>
       </c>
       <c r="T1081" t="n">
         <v>1</v>
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -86924,16 +86924,16 @@
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N1082" t="n">
-        <v>2800</v>
+        <v>4300</v>
       </c>
       <c r="O1082" t="n">
-        <v>2800</v>
+        <v>4300</v>
       </c>
       <c r="P1082" t="n">
-        <v>2800</v>
+        <v>4300</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
@@ -86946,7 +86946,7 @@
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>2800</v>
+        <v>4300</v>
       </c>
       <c r="T1082" t="n">
         <v>1</v>
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -86995,7 +86995,7 @@
       </c>
       <c r="K1083" t="inlineStr">
         <is>
-          <t>Champion</t>
+          <t>Fuerte</t>
         </is>
       </c>
       <c r="L1083" t="inlineStr">
@@ -87007,13 +87007,13 @@
         <v>80</v>
       </c>
       <c r="N1083" t="n">
-        <v>2500</v>
+        <v>3800</v>
       </c>
       <c r="O1083" t="n">
-        <v>2500</v>
+        <v>3800</v>
       </c>
       <c r="P1083" t="n">
-        <v>2500</v>
+        <v>3800</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
@@ -87026,7 +87026,7 @@
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>2500</v>
+        <v>3800</v>
       </c>
       <c r="T1083" t="n">
         <v>1</v>
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -87075,7 +87075,7 @@
       </c>
       <c r="K1084" t="inlineStr">
         <is>
-          <t>Champion</t>
+          <t>Fuerte</t>
         </is>
       </c>
       <c r="L1084" t="inlineStr">
@@ -87084,16 +87084,16 @@
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="N1084" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="O1084" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="P1084" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
@@ -87106,7 +87106,7 @@
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="T1084" t="n">
         <v>1</v>
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -87155,7 +87155,7 @@
       </c>
       <c r="K1085" t="inlineStr">
         <is>
-          <t>Champion</t>
+          <t>Fuerte</t>
         </is>
       </c>
       <c r="L1085" t="inlineStr">
@@ -87164,16 +87164,16 @@
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="N1085" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="O1085" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="P1085" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
@@ -87186,7 +87186,7 @@
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="T1085" t="n">
         <v>1</v>
@@ -87207,7 +87207,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -87244,7 +87244,7 @@
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N1086" t="n">
         <v>40000</v>
@@ -87287,7 +87287,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -87324,16 +87324,16 @@
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="N1087" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="O1087" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="P1087" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
@@ -87346,7 +87346,7 @@
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="T1087" t="n">
         <v>10</v>
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -87404,16 +87404,16 @@
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="N1088" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="O1088" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P1088" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
@@ -87426,7 +87426,7 @@
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="T1088" t="n">
         <v>10</v>
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -87475,7 +87475,7 @@
       </c>
       <c r="K1089" t="inlineStr">
         <is>
-          <t>Fuerte</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1089" t="inlineStr">
@@ -87484,16 +87484,16 @@
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N1089" t="n">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="O1089" t="n">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="P1089" t="n">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
@@ -87502,11 +87502,11 @@
       </c>
       <c r="R1089" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="T1089" t="n">
         <v>1</v>
@@ -87527,7 +87527,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -87555,7 +87555,7 @@
       </c>
       <c r="K1090" t="inlineStr">
         <is>
-          <t>Fuerte</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1090" t="inlineStr">
@@ -87564,16 +87564,16 @@
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N1090" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O1090" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P1090" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
@@ -87582,11 +87582,11 @@
       </c>
       <c r="R1090" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="T1090" t="n">
         <v>1</v>
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -87635,7 +87635,7 @@
       </c>
       <c r="K1091" t="inlineStr">
         <is>
-          <t>Fuerte</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1091" t="inlineStr">
@@ -87644,16 +87644,16 @@
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N1091" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="O1091" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="P1091" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
@@ -87662,11 +87662,11 @@
       </c>
       <c r="R1091" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="T1091" t="n">
         <v>1</v>
@@ -87687,7 +87687,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -87720,36 +87720,36 @@
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="N1092" t="n">
-        <v>44000</v>
+        <v>2800</v>
       </c>
       <c r="O1092" t="n">
-        <v>44000</v>
+        <v>2800</v>
       </c>
       <c r="P1092" t="n">
-        <v>44000</v>
+        <v>2800</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>4400</v>
+        <v>2800</v>
       </c>
       <c r="T1092" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093">
@@ -87767,7 +87767,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -87795,41 +87795,41 @@
       </c>
       <c r="K1093" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Champion</t>
         </is>
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N1093" t="n">
-        <v>40000</v>
+        <v>2500</v>
       </c>
       <c r="O1093" t="n">
-        <v>40000</v>
+        <v>2500</v>
       </c>
       <c r="P1093" t="n">
-        <v>40000</v>
+        <v>2500</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1093" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T1093" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094">
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -87875,41 +87875,41 @@
       </c>
       <c r="K1094" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Champion</t>
         </is>
       </c>
       <c r="L1094" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N1094" t="n">
-        <v>35000</v>
+        <v>2300</v>
       </c>
       <c r="O1094" t="n">
-        <v>35000</v>
+        <v>2300</v>
       </c>
       <c r="P1094" t="n">
-        <v>35000</v>
+        <v>2300</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1094" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="T1094" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095">
@@ -87927,7 +87927,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -87955,25 +87955,25 @@
       </c>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>Ester</t>
+          <t>Champion</t>
         </is>
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="N1095" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="O1095" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="P1095" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
@@ -87982,11 +87982,11 @@
       </c>
       <c r="R1095" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="T1095" t="n">
         <v>1</v>
@@ -88007,7 +88007,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -88035,41 +88035,41 @@
       </c>
       <c r="K1096" t="inlineStr">
         <is>
-          <t>Ester</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1096" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N1096" t="n">
-        <v>4300</v>
+        <v>40000</v>
       </c>
       <c r="O1096" t="n">
-        <v>4300</v>
+        <v>40000</v>
       </c>
       <c r="P1096" t="n">
-        <v>4300</v>
+        <v>40000</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1096" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="T1096" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1097">
@@ -88087,7 +88087,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -88115,41 +88115,41 @@
       </c>
       <c r="K1097" t="inlineStr">
         <is>
-          <t>Ester</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="N1097" t="n">
-        <v>4000</v>
+        <v>35000</v>
       </c>
       <c r="O1097" t="n">
-        <v>4000</v>
+        <v>35000</v>
       </c>
       <c r="P1097" t="n">
-        <v>4000</v>
+        <v>35000</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1097" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="T1097" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1098">
@@ -88167,7 +88167,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -88200,36 +88200,36 @@
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N1098" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="O1098" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="P1098" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="T1098" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1099">
@@ -88247,7 +88247,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -88275,25 +88275,25 @@
       </c>
       <c r="K1099" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Fuerte</t>
         </is>
       </c>
       <c r="L1099" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="N1099" t="n">
-        <v>5800</v>
+        <v>3400</v>
       </c>
       <c r="O1099" t="n">
-        <v>5800</v>
+        <v>3400</v>
       </c>
       <c r="P1099" t="n">
-        <v>5800</v>
+        <v>3400</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
@@ -88302,11 +88302,11 @@
       </c>
       <c r="R1099" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>5800</v>
+        <v>3400</v>
       </c>
       <c r="T1099" t="n">
         <v>1</v>
@@ -88327,7 +88327,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -88355,25 +88355,25 @@
       </c>
       <c r="K1100" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Fuerte</t>
         </is>
       </c>
       <c r="L1100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="N1100" t="n">
-        <v>5600</v>
+        <v>3000</v>
       </c>
       <c r="O1100" t="n">
-        <v>5600</v>
+        <v>3000</v>
       </c>
       <c r="P1100" t="n">
-        <v>5600</v>
+        <v>3000</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
@@ -88382,11 +88382,11 @@
       </c>
       <c r="R1100" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>5600</v>
+        <v>3000</v>
       </c>
       <c r="T1100" t="n">
         <v>1</v>
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -88435,25 +88435,25 @@
       </c>
       <c r="K1101" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Fuerte</t>
         </is>
       </c>
       <c r="L1101" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="N1101" t="n">
-        <v>5500</v>
+        <v>2800</v>
       </c>
       <c r="O1101" t="n">
-        <v>5500</v>
+        <v>2800</v>
       </c>
       <c r="P1101" t="n">
-        <v>5500</v>
+        <v>2800</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
@@ -88462,11 +88462,11 @@
       </c>
       <c r="R1101" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>5500</v>
+        <v>2800</v>
       </c>
       <c r="T1101" t="n">
         <v>1</v>
@@ -88487,7 +88487,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -88527,29 +88527,29 @@
         <v>120</v>
       </c>
       <c r="N1102" t="n">
-        <v>4800</v>
+        <v>44000</v>
       </c>
       <c r="O1102" t="n">
-        <v>4800</v>
+        <v>44000</v>
       </c>
       <c r="P1102" t="n">
-        <v>4800</v>
+        <v>44000</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1102" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>4800</v>
+        <v>4400</v>
       </c>
       <c r="T1102" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1103">
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -88604,32 +88604,32 @@
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N1103" t="n">
-        <v>4600</v>
+        <v>40000</v>
       </c>
       <c r="O1103" t="n">
-        <v>4600</v>
+        <v>40000</v>
       </c>
       <c r="P1103" t="n">
-        <v>4600</v>
+        <v>40000</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="T1103" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1104">
@@ -88647,7 +88647,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -88684,32 +88684,32 @@
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N1104" t="n">
-        <v>4400</v>
+        <v>35000</v>
       </c>
       <c r="O1104" t="n">
-        <v>4400</v>
+        <v>35000</v>
       </c>
       <c r="P1104" t="n">
-        <v>4400</v>
+        <v>35000</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>4400</v>
+        <v>3500</v>
       </c>
       <c r="T1104" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1105">
@@ -88727,7 +88727,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -88755,25 +88755,25 @@
       </c>
       <c r="K1105" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Ester</t>
         </is>
       </c>
       <c r="L1105" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1105" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="N1105" t="n">
-        <v>4100</v>
+        <v>4500</v>
       </c>
       <c r="O1105" t="n">
-        <v>4100</v>
+        <v>4500</v>
       </c>
       <c r="P1105" t="n">
-        <v>4100</v>
+        <v>4500</v>
       </c>
       <c r="Q1105" t="inlineStr">
         <is>
@@ -88786,7 +88786,7 @@
         </is>
       </c>
       <c r="S1105" t="n">
-        <v>4100</v>
+        <v>4500</v>
       </c>
       <c r="T1105" t="n">
         <v>1</v>
@@ -88807,7 +88807,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -88835,25 +88835,25 @@
       </c>
       <c r="K1106" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Ester</t>
         </is>
       </c>
       <c r="L1106" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1106" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N1106" t="n">
-        <v>3900</v>
+        <v>4300</v>
       </c>
       <c r="O1106" t="n">
-        <v>3900</v>
+        <v>4300</v>
       </c>
       <c r="P1106" t="n">
-        <v>3900</v>
+        <v>4300</v>
       </c>
       <c r="Q1106" t="inlineStr">
         <is>
@@ -88866,7 +88866,7 @@
         </is>
       </c>
       <c r="S1106" t="n">
-        <v>3900</v>
+        <v>4300</v>
       </c>
       <c r="T1106" t="n">
         <v>1</v>
@@ -88887,7 +88887,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -88915,25 +88915,25 @@
       </c>
       <c r="K1107" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Ester</t>
         </is>
       </c>
       <c r="L1107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1107" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N1107" t="n">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="O1107" t="n">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="P1107" t="n">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="Q1107" t="inlineStr">
         <is>
@@ -88946,7 +88946,7 @@
         </is>
       </c>
       <c r="S1107" t="n">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="T1107" t="n">
         <v>1</v>
@@ -88967,7 +88967,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -89000,20 +89000,20 @@
       </c>
       <c r="L1108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1108" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N1108" t="n">
-        <v>3400</v>
+        <v>6000</v>
       </c>
       <c r="O1108" t="n">
-        <v>3400</v>
+        <v>6000</v>
       </c>
       <c r="P1108" t="n">
-        <v>3400</v>
+        <v>6000</v>
       </c>
       <c r="Q1108" t="inlineStr">
         <is>
@@ -89026,7 +89026,7 @@
         </is>
       </c>
       <c r="S1108" t="n">
-        <v>3400</v>
+        <v>6000</v>
       </c>
       <c r="T1108" t="n">
         <v>1</v>
@@ -89047,7 +89047,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -89080,20 +89080,20 @@
       </c>
       <c r="L1109" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="N1109" t="n">
-        <v>3000</v>
+        <v>5800</v>
       </c>
       <c r="O1109" t="n">
-        <v>3000</v>
+        <v>5800</v>
       </c>
       <c r="P1109" t="n">
-        <v>3000</v>
+        <v>5800</v>
       </c>
       <c r="Q1109" t="inlineStr">
         <is>
@@ -89106,7 +89106,7 @@
         </is>
       </c>
       <c r="S1109" t="n">
-        <v>3000</v>
+        <v>5800</v>
       </c>
       <c r="T1109" t="n">
         <v>1</v>
@@ -89127,7 +89127,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -89155,25 +89155,25 @@
       </c>
       <c r="K1110" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1110" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1110" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="N1110" t="n">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="O1110" t="n">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="P1110" t="n">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="Q1110" t="inlineStr">
         <is>
@@ -89186,7 +89186,7 @@
         </is>
       </c>
       <c r="S1110" t="n">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="T1110" t="n">
         <v>1</v>
@@ -89207,7 +89207,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -89235,25 +89235,25 @@
       </c>
       <c r="K1111" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1111" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="N1111" t="n">
-        <v>2600</v>
+        <v>5500</v>
       </c>
       <c r="O1111" t="n">
-        <v>2600</v>
+        <v>5500</v>
       </c>
       <c r="P1111" t="n">
-        <v>2600</v>
+        <v>5500</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
@@ -89266,7 +89266,7 @@
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>2600</v>
+        <v>5500</v>
       </c>
       <c r="T1111" t="n">
         <v>1</v>
@@ -89287,7 +89287,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -89315,25 +89315,25 @@
       </c>
       <c r="K1112" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="N1112" t="n">
-        <v>2200</v>
+        <v>4800</v>
       </c>
       <c r="O1112" t="n">
-        <v>2200</v>
+        <v>4800</v>
       </c>
       <c r="P1112" t="n">
-        <v>2200</v>
+        <v>4800</v>
       </c>
       <c r="Q1112" t="inlineStr">
         <is>
@@ -89346,7 +89346,7 @@
         </is>
       </c>
       <c r="S1112" t="n">
-        <v>2200</v>
+        <v>4800</v>
       </c>
       <c r="T1112" t="n">
         <v>1</v>
@@ -89367,7 +89367,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -89400,20 +89400,20 @@
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1113" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N1113" t="n">
-        <v>3500</v>
+        <v>4600</v>
       </c>
       <c r="O1113" t="n">
-        <v>3500</v>
+        <v>4600</v>
       </c>
       <c r="P1113" t="n">
-        <v>3500</v>
+        <v>4600</v>
       </c>
       <c r="Q1113" t="inlineStr">
         <is>
@@ -89426,7 +89426,7 @@
         </is>
       </c>
       <c r="S1113" t="n">
-        <v>3500</v>
+        <v>4600</v>
       </c>
       <c r="T1113" t="n">
         <v>1</v>
@@ -89447,7 +89447,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E1114" t="n">
         <v>13</v>
@@ -89480,20 +89480,20 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1114" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="N1114" t="n">
-        <v>3000</v>
+        <v>4400</v>
       </c>
       <c r="O1114" t="n">
-        <v>3000</v>
+        <v>4400</v>
       </c>
       <c r="P1114" t="n">
-        <v>3000</v>
+        <v>4400</v>
       </c>
       <c r="Q1114" t="inlineStr">
         <is>
@@ -89506,7 +89506,7 @@
         </is>
       </c>
       <c r="S1114" t="n">
-        <v>3000</v>
+        <v>4400</v>
       </c>
       <c r="T1114" t="n">
         <v>1</v>
@@ -89527,7 +89527,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E1115" t="n">
         <v>13</v>
@@ -89560,20 +89560,20 @@
       </c>
       <c r="L1115" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1115" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="N1115" t="n">
-        <v>2500</v>
+        <v>4100</v>
       </c>
       <c r="O1115" t="n">
-        <v>2500</v>
+        <v>4100</v>
       </c>
       <c r="P1115" t="n">
-        <v>2500</v>
+        <v>4100</v>
       </c>
       <c r="Q1115" t="inlineStr">
         <is>
@@ -89586,7 +89586,7 @@
         </is>
       </c>
       <c r="S1115" t="n">
-        <v>2500</v>
+        <v>4100</v>
       </c>
       <c r="T1115" t="n">
         <v>1</v>
@@ -89607,7 +89607,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -89644,32 +89644,32 @@
         </is>
       </c>
       <c r="M1116" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N1116" t="n">
-        <v>30000</v>
+        <v>3900</v>
       </c>
       <c r="O1116" t="n">
-        <v>30000</v>
+        <v>3900</v>
       </c>
       <c r="P1116" t="n">
-        <v>30000</v>
+        <v>3900</v>
       </c>
       <c r="Q1116" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1116" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1116" t="n">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="T1116" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117">
@@ -89687,7 +89687,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -89724,32 +89724,32 @@
         </is>
       </c>
       <c r="M1117" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N1117" t="n">
-        <v>27000</v>
+        <v>3700</v>
       </c>
       <c r="O1117" t="n">
-        <v>27000</v>
+        <v>3700</v>
       </c>
       <c r="P1117" t="n">
-        <v>27000</v>
+        <v>3700</v>
       </c>
       <c r="Q1117" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1117" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1117" t="n">
-        <v>2700</v>
+        <v>3700</v>
       </c>
       <c r="T1117" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118">
@@ -89767,7 +89767,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -89804,32 +89804,32 @@
         </is>
       </c>
       <c r="M1118" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N1118" t="n">
-        <v>25000</v>
+        <v>3400</v>
       </c>
       <c r="O1118" t="n">
-        <v>25000</v>
+        <v>3400</v>
       </c>
       <c r="P1118" t="n">
-        <v>25000</v>
+        <v>3400</v>
       </c>
       <c r="Q1118" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1118" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1118" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="T1118" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119">
@@ -89847,7 +89847,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -89875,25 +89875,25 @@
       </c>
       <c r="K1119" t="inlineStr">
         <is>
-          <t>Fuerte</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1119" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1119" t="n">
         <v>70</v>
       </c>
       <c r="N1119" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="O1119" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="P1119" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q1119" t="inlineStr">
         <is>
@@ -89902,11 +89902,11 @@
       </c>
       <c r="R1119" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1119" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="T1119" t="n">
         <v>1</v>
@@ -89927,7 +89927,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -89955,25 +89955,25 @@
       </c>
       <c r="K1120" t="inlineStr">
         <is>
-          <t>Fuerte</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1120" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N1120" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="O1120" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="P1120" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="Q1120" t="inlineStr">
         <is>
@@ -89982,11 +89982,11 @@
       </c>
       <c r="R1120" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1120" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="T1120" t="n">
         <v>1</v>
@@ -90007,7 +90007,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -90035,25 +90035,25 @@
       </c>
       <c r="K1121" t="inlineStr">
         <is>
-          <t>Fuerte</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1121" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N1121" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="O1121" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="P1121" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="Q1121" t="inlineStr">
         <is>
@@ -90062,11 +90062,11 @@
       </c>
       <c r="R1121" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1121" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="T1121" t="n">
         <v>1</v>
@@ -90087,7 +90087,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -90115,41 +90115,41 @@
       </c>
       <c r="K1122" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1122" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1122" t="n">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="N1122" t="n">
-        <v>40000</v>
+        <v>2200</v>
       </c>
       <c r="O1122" t="n">
-        <v>40000</v>
+        <v>2200</v>
       </c>
       <c r="P1122" t="n">
-        <v>40000</v>
+        <v>2200</v>
       </c>
       <c r="Q1122" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1122" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1122" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="T1122" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123">
@@ -90167,7 +90167,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -90200,36 +90200,36 @@
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="M1123" t="n">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="N1123" t="n">
-        <v>38000</v>
+        <v>3500</v>
       </c>
       <c r="O1123" t="n">
-        <v>38000</v>
+        <v>3500</v>
       </c>
       <c r="P1123" t="n">
-        <v>38000</v>
+        <v>3500</v>
       </c>
       <c r="Q1123" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1123" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1123" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="T1123" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124">
@@ -90247,7 +90247,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -90280,36 +90280,36 @@
       </c>
       <c r="L1124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="M1124" t="n">
-        <v>360</v>
+        <v>85</v>
       </c>
       <c r="N1124" t="n">
-        <v>35000</v>
+        <v>3000</v>
       </c>
       <c r="O1124" t="n">
-        <v>35000</v>
+        <v>3000</v>
       </c>
       <c r="P1124" t="n">
-        <v>35000</v>
+        <v>3000</v>
       </c>
       <c r="Q1124" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1124" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1124" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="T1124" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -90327,7 +90327,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -90360,36 +90360,36 @@
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="M1125" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="N1125" t="n">
-        <v>32000</v>
+        <v>2500</v>
       </c>
       <c r="O1125" t="n">
-        <v>32000</v>
+        <v>2500</v>
       </c>
       <c r="P1125" t="n">
-        <v>32000</v>
+        <v>2500</v>
       </c>
       <c r="Q1125" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1125" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1125" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="T1125" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126">
@@ -90407,7 +90407,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -90435,7 +90435,7 @@
       </c>
       <c r="K1126" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1126" t="inlineStr">
@@ -90444,32 +90444,32 @@
         </is>
       </c>
       <c r="M1126" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N1126" t="n">
-        <v>2800</v>
+        <v>30000</v>
       </c>
       <c r="O1126" t="n">
-        <v>2800</v>
+        <v>30000</v>
       </c>
       <c r="P1126" t="n">
-        <v>2800</v>
+        <v>30000</v>
       </c>
       <c r="Q1126" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1126" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T1126" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1127">
@@ -90487,7 +90487,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -90515,7 +90515,7 @@
       </c>
       <c r="K1127" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1127" t="inlineStr">
@@ -90524,32 +90524,32 @@
         </is>
       </c>
       <c r="M1127" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N1127" t="n">
-        <v>2500</v>
+        <v>27000</v>
       </c>
       <c r="O1127" t="n">
-        <v>2500</v>
+        <v>27000</v>
       </c>
       <c r="P1127" t="n">
-        <v>2500</v>
+        <v>27000</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="T1127" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1128">
@@ -90567,7 +90567,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -90595,7 +90595,7 @@
       </c>
       <c r="K1128" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1128" t="inlineStr">
@@ -90604,32 +90604,32 @@
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N1128" t="n">
-        <v>2300</v>
+        <v>25000</v>
       </c>
       <c r="O1128" t="n">
-        <v>2300</v>
+        <v>25000</v>
       </c>
       <c r="P1128" t="n">
-        <v>2300</v>
+        <v>25000</v>
       </c>
       <c r="Q1128" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1128" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="T1128" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1129">
@@ -90647,7 +90647,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -90675,7 +90675,7 @@
       </c>
       <c r="K1129" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Fuerte</t>
         </is>
       </c>
       <c r="L1129" t="inlineStr">
@@ -90684,16 +90684,16 @@
         </is>
       </c>
       <c r="M1129" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N1129" t="n">
-        <v>4800</v>
+        <v>3800</v>
       </c>
       <c r="O1129" t="n">
-        <v>4800</v>
+        <v>3800</v>
       </c>
       <c r="P1129" t="n">
-        <v>4800</v>
+        <v>3800</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
@@ -90702,11 +90702,11 @@
       </c>
       <c r="R1129" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>4800</v>
+        <v>3800</v>
       </c>
       <c r="T1129" t="n">
         <v>1</v>
@@ -90727,7 +90727,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -90755,7 +90755,7 @@
       </c>
       <c r="K1130" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Fuerte</t>
         </is>
       </c>
       <c r="L1130" t="inlineStr">
@@ -90764,16 +90764,16 @@
         </is>
       </c>
       <c r="M1130" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N1130" t="n">
-        <v>4600</v>
+        <v>3500</v>
       </c>
       <c r="O1130" t="n">
-        <v>4600</v>
+        <v>3500</v>
       </c>
       <c r="P1130" t="n">
-        <v>4600</v>
+        <v>3500</v>
       </c>
       <c r="Q1130" t="inlineStr">
         <is>
@@ -90782,11 +90782,11 @@
       </c>
       <c r="R1130" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1130" t="n">
-        <v>4600</v>
+        <v>3500</v>
       </c>
       <c r="T1130" t="n">
         <v>1</v>
@@ -90807,7 +90807,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -90835,7 +90835,7 @@
       </c>
       <c r="K1131" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Fuerte</t>
         </is>
       </c>
       <c r="L1131" t="inlineStr">
@@ -90844,16 +90844,16 @@
         </is>
       </c>
       <c r="M1131" t="n">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="N1131" t="n">
-        <v>4400</v>
+        <v>3200</v>
       </c>
       <c r="O1131" t="n">
-        <v>4400</v>
+        <v>3200</v>
       </c>
       <c r="P1131" t="n">
-        <v>4400</v>
+        <v>3200</v>
       </c>
       <c r="Q1131" t="inlineStr">
         <is>
@@ -90862,11 +90862,11 @@
       </c>
       <c r="R1131" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1131" t="n">
-        <v>4400</v>
+        <v>3200</v>
       </c>
       <c r="T1131" t="n">
         <v>1</v>
@@ -90887,7 +90887,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -90920,36 +90920,36 @@
       </c>
       <c r="L1132" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1132" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N1132" t="n">
-        <v>4100</v>
+        <v>40000</v>
       </c>
       <c r="O1132" t="n">
-        <v>4100</v>
+        <v>40000</v>
       </c>
       <c r="P1132" t="n">
-        <v>4100</v>
+        <v>40000</v>
       </c>
       <c r="Q1132" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1132" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1132" t="n">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="T1132" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1133">
@@ -90967,7 +90967,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -90995,41 +90995,41 @@
       </c>
       <c r="K1133" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1133" t="n">
-        <v>60</v>
+        <v>480</v>
       </c>
       <c r="N1133" t="n">
-        <v>2900</v>
+        <v>38000</v>
       </c>
       <c r="O1133" t="n">
-        <v>2900</v>
+        <v>38000</v>
       </c>
       <c r="P1133" t="n">
-        <v>2900</v>
+        <v>38000</v>
       </c>
       <c r="Q1133" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1133" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1133" t="n">
-        <v>2900</v>
+        <v>3800</v>
       </c>
       <c r="T1133" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1134">
@@ -91047,7 +91047,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -91075,41 +91075,41 @@
       </c>
       <c r="K1134" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1134" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="N1134" t="n">
-        <v>2600</v>
+        <v>35000</v>
       </c>
       <c r="O1134" t="n">
-        <v>2600</v>
+        <v>35000</v>
       </c>
       <c r="P1134" t="n">
-        <v>2600</v>
+        <v>35000</v>
       </c>
       <c r="Q1134" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1134" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1134" t="n">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="T1134" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1135">
@@ -91127,7 +91127,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -91160,36 +91160,36 @@
       </c>
       <c r="L1135" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1135" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N1135" t="n">
-        <v>3600</v>
+        <v>32000</v>
       </c>
       <c r="O1135" t="n">
-        <v>3600</v>
+        <v>32000</v>
       </c>
       <c r="P1135" t="n">
-        <v>3600</v>
+        <v>32000</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1135" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1135" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="T1135" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1136">
@@ -91207,7 +91207,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -91235,25 +91235,25 @@
       </c>
       <c r="K1136" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1136" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N1136" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="O1136" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="P1136" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="Q1136" t="inlineStr">
         <is>
@@ -91262,11 +91262,11 @@
       </c>
       <c r="R1136" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1136" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="T1136" t="n">
         <v>1</v>
@@ -91287,7 +91287,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -91315,25 +91315,25 @@
       </c>
       <c r="K1137" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1137" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N1137" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="O1137" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="P1137" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="Q1137" t="inlineStr">
         <is>
@@ -91342,11 +91342,11 @@
       </c>
       <c r="R1137" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1137" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="T1137" t="n">
         <v>1</v>
@@ -91367,7 +91367,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -91395,25 +91395,25 @@
       </c>
       <c r="K1138" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1138" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="N1138" t="n">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="O1138" t="n">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="P1138" t="n">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
@@ -91422,11 +91422,11 @@
       </c>
       <c r="R1138" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1138" t="n">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="T1138" t="n">
         <v>1</v>
@@ -91447,7 +91447,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -91475,7 +91475,7 @@
       </c>
       <c r="K1139" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1139" t="inlineStr">
@@ -91484,16 +91484,16 @@
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N1139" t="n">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="O1139" t="n">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="P1139" t="n">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
@@ -91506,7 +91506,7 @@
         </is>
       </c>
       <c r="S1139" t="n">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="T1139" t="n">
         <v>1</v>
@@ -91527,7 +91527,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -91555,7 +91555,7 @@
       </c>
       <c r="K1140" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1140" t="inlineStr">
@@ -91564,16 +91564,16 @@
         </is>
       </c>
       <c r="M1140" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="N1140" t="n">
-        <v>2300</v>
+        <v>4600</v>
       </c>
       <c r="O1140" t="n">
-        <v>2300</v>
+        <v>4600</v>
       </c>
       <c r="P1140" t="n">
-        <v>2300</v>
+        <v>4600</v>
       </c>
       <c r="Q1140" t="inlineStr">
         <is>
@@ -91586,7 +91586,7 @@
         </is>
       </c>
       <c r="S1140" t="n">
-        <v>2300</v>
+        <v>4600</v>
       </c>
       <c r="T1140" t="n">
         <v>1</v>
@@ -91607,7 +91607,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -91635,7 +91635,7 @@
       </c>
       <c r="K1141" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1141" t="inlineStr">
@@ -91644,16 +91644,16 @@
         </is>
       </c>
       <c r="M1141" t="n">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="N1141" t="n">
-        <v>2000</v>
+        <v>4400</v>
       </c>
       <c r="O1141" t="n">
-        <v>2000</v>
+        <v>4400</v>
       </c>
       <c r="P1141" t="n">
-        <v>2000</v>
+        <v>4400</v>
       </c>
       <c r="Q1141" t="inlineStr">
         <is>
@@ -91666,7 +91666,7 @@
         </is>
       </c>
       <c r="S1141" t="n">
-        <v>2000</v>
+        <v>4400</v>
       </c>
       <c r="T1141" t="n">
         <v>1</v>
@@ -91687,7 +91687,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -91720,36 +91720,36 @@
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1142" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N1142" t="n">
-        <v>23000</v>
+        <v>4100</v>
       </c>
       <c r="O1142" t="n">
-        <v>23000</v>
+        <v>4100</v>
       </c>
       <c r="P1142" t="n">
-        <v>23000</v>
+        <v>4100</v>
       </c>
       <c r="Q1142" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1142" t="n">
-        <v>2300</v>
+        <v>4100</v>
       </c>
       <c r="T1142" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143">
@@ -91767,7 +91767,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -91795,41 +91795,41 @@
       </c>
       <c r="K1143" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1143" t="n">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="N1143" t="n">
-        <v>21000</v>
+        <v>2900</v>
       </c>
       <c r="O1143" t="n">
-        <v>21000</v>
+        <v>2900</v>
       </c>
       <c r="P1143" t="n">
-        <v>21000</v>
+        <v>2900</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1143" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>2100</v>
+        <v>2900</v>
       </c>
       <c r="T1143" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144">
@@ -91847,7 +91847,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -91875,41 +91875,41 @@
       </c>
       <c r="K1144" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1144" t="n">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="N1144" t="n">
-        <v>16000</v>
+        <v>2600</v>
       </c>
       <c r="O1144" t="n">
-        <v>16000</v>
+        <v>2600</v>
       </c>
       <c r="P1144" t="n">
-        <v>16000</v>
+        <v>2600</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1144" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>1600</v>
+        <v>2600</v>
       </c>
       <c r="T1144" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145">
@@ -91927,7 +91927,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -91955,7 +91955,7 @@
       </c>
       <c r="K1145" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1145" t="inlineStr">
@@ -91964,16 +91964,16 @@
         </is>
       </c>
       <c r="M1145" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N1145" t="n">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="O1145" t="n">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="P1145" t="n">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
@@ -91986,7 +91986,7 @@
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="T1145" t="n">
         <v>1</v>
@@ -92007,7 +92007,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -92035,7 +92035,7 @@
       </c>
       <c r="K1146" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1146" t="inlineStr">
@@ -92044,16 +92044,16 @@
         </is>
       </c>
       <c r="M1146" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N1146" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="O1146" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="P1146" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="Q1146" t="inlineStr">
         <is>
@@ -92066,7 +92066,7 @@
         </is>
       </c>
       <c r="S1146" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="T1146" t="n">
         <v>1</v>
@@ -92087,7 +92087,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -92115,7 +92115,7 @@
       </c>
       <c r="K1147" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1147" t="inlineStr">
@@ -92124,16 +92124,16 @@
         </is>
       </c>
       <c r="M1147" t="n">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="N1147" t="n">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="O1147" t="n">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="P1147" t="n">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="Q1147" t="inlineStr">
         <is>
@@ -92146,7 +92146,7 @@
         </is>
       </c>
       <c r="S1147" t="n">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="T1147" t="n">
         <v>1</v>
@@ -92167,7 +92167,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -92200,36 +92200,36 @@
       </c>
       <c r="L1148" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1148" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="N1148" t="n">
-        <v>23000</v>
+        <v>2900</v>
       </c>
       <c r="O1148" t="n">
-        <v>23000</v>
+        <v>2900</v>
       </c>
       <c r="P1148" t="n">
-        <v>23000</v>
+        <v>2900</v>
       </c>
       <c r="Q1148" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1148" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1148" t="n">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="T1148" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149">
@@ -92247,7 +92247,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1149" t="n">
         <v>13</v>
@@ -92275,41 +92275,41 @@
       </c>
       <c r="K1149" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1149" t="n">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="N1149" t="n">
-        <v>20000</v>
+        <v>2500</v>
       </c>
       <c r="O1149" t="n">
-        <v>20000</v>
+        <v>2500</v>
       </c>
       <c r="P1149" t="n">
-        <v>20000</v>
+        <v>2500</v>
       </c>
       <c r="Q1149" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1149" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1149" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T1149" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150">
@@ -92327,7 +92327,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1150" t="n">
         <v>13</v>
@@ -92355,41 +92355,41 @@
       </c>
       <c r="K1150" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1150" t="n">
-        <v>410</v>
+        <v>40</v>
       </c>
       <c r="N1150" t="n">
-        <v>16000</v>
+        <v>2300</v>
       </c>
       <c r="O1150" t="n">
-        <v>16000</v>
+        <v>2300</v>
       </c>
       <c r="P1150" t="n">
-        <v>16000</v>
+        <v>2300</v>
       </c>
       <c r="Q1150" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1150" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1150" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="T1150" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151">
@@ -92407,7 +92407,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -92435,25 +92435,25 @@
       </c>
       <c r="K1151" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1151" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1151" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N1151" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="O1151" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="P1151" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q1151" t="inlineStr">
         <is>
@@ -92466,7 +92466,7 @@
         </is>
       </c>
       <c r="S1151" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="T1151" t="n">
         <v>1</v>
@@ -92487,7 +92487,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1152" t="n">
         <v>13</v>
@@ -92515,41 +92515,41 @@
       </c>
       <c r="K1152" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1152" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="N1152" t="n">
-        <v>2300</v>
+        <v>23000</v>
       </c>
       <c r="O1152" t="n">
-        <v>2300</v>
+        <v>23000</v>
       </c>
       <c r="P1152" t="n">
-        <v>2300</v>
+        <v>23000</v>
       </c>
       <c r="Q1152" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1152" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1152" t="n">
         <v>2300</v>
       </c>
       <c r="T1152" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1153">
@@ -92567,7 +92567,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1153" t="n">
         <v>13</v>
@@ -92595,41 +92595,41 @@
       </c>
       <c r="K1153" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1153" t="n">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="N1153" t="n">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="O1153" t="n">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="P1153" t="n">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="Q1153" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1153" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1153" t="n">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="T1153" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1154">
@@ -92647,7 +92647,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E1154" t="n">
         <v>13</v>
@@ -92680,36 +92680,36 @@
       </c>
       <c r="L1154" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1154" t="n">
-        <v>160</v>
+        <v>295</v>
       </c>
       <c r="N1154" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O1154" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P1154" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="Q1154" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1154" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1154" t="n">
-        <v>5000</v>
+        <v>1600</v>
       </c>
       <c r="T1154" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1155">
@@ -92727,7 +92727,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -92755,25 +92755,25 @@
       </c>
       <c r="K1155" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1155" t="n">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="N1155" t="n">
-        <v>4800</v>
+        <v>2500</v>
       </c>
       <c r="O1155" t="n">
-        <v>4800</v>
+        <v>2500</v>
       </c>
       <c r="P1155" t="n">
-        <v>4800</v>
+        <v>2500</v>
       </c>
       <c r="Q1155" t="inlineStr">
         <is>
@@ -92786,7 +92786,7 @@
         </is>
       </c>
       <c r="S1155" t="n">
-        <v>4800</v>
+        <v>2500</v>
       </c>
       <c r="T1155" t="n">
         <v>1</v>
@@ -92807,7 +92807,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1156" t="n">
         <v>13</v>
@@ -92835,25 +92835,25 @@
       </c>
       <c r="K1156" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1156" t="n">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="N1156" t="n">
-        <v>4600</v>
+        <v>2200</v>
       </c>
       <c r="O1156" t="n">
-        <v>4600</v>
+        <v>2200</v>
       </c>
       <c r="P1156" t="n">
-        <v>4600</v>
+        <v>2200</v>
       </c>
       <c r="Q1156" t="inlineStr">
         <is>
@@ -92866,7 +92866,7 @@
         </is>
       </c>
       <c r="S1156" t="n">
-        <v>4600</v>
+        <v>2200</v>
       </c>
       <c r="T1156" t="n">
         <v>1</v>
@@ -92887,7 +92887,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1157" t="n">
         <v>13</v>
@@ -92915,25 +92915,25 @@
       </c>
       <c r="K1157" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1157" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N1157" t="n">
-        <v>4300</v>
+        <v>1800</v>
       </c>
       <c r="O1157" t="n">
-        <v>4300</v>
+        <v>1800</v>
       </c>
       <c r="P1157" t="n">
-        <v>4300</v>
+        <v>1800</v>
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
@@ -92946,7 +92946,7 @@
         </is>
       </c>
       <c r="S1157" t="n">
-        <v>4300</v>
+        <v>1800</v>
       </c>
       <c r="T1157" t="n">
         <v>1</v>
@@ -92967,7 +92967,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -93004,32 +93004,32 @@
         </is>
       </c>
       <c r="M1158" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N1158" t="n">
-        <v>4500</v>
+        <v>23000</v>
       </c>
       <c r="O1158" t="n">
-        <v>4500</v>
+        <v>23000</v>
       </c>
       <c r="P1158" t="n">
-        <v>4500</v>
+        <v>23000</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1158" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>4500</v>
+        <v>2300</v>
       </c>
       <c r="T1158" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1159">
@@ -93047,7 +93047,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1159" t="n">
         <v>13</v>
@@ -93084,32 +93084,32 @@
         </is>
       </c>
       <c r="M1159" t="n">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="N1159" t="n">
-        <v>4100</v>
+        <v>20000</v>
       </c>
       <c r="O1159" t="n">
-        <v>4100</v>
+        <v>20000</v>
       </c>
       <c r="P1159" t="n">
-        <v>4100</v>
+        <v>20000</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1159" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>4100</v>
+        <v>2000</v>
       </c>
       <c r="T1159" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1160">
@@ -93127,7 +93127,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1160" t="n">
         <v>13</v>
@@ -93164,16 +93164,16 @@
         </is>
       </c>
       <c r="M1160" t="n">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="N1160" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O1160" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P1160" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
@@ -93186,7 +93186,7 @@
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="T1160" t="n">
         <v>10</v>
@@ -93207,7 +93207,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1161" t="n">
         <v>13</v>
@@ -93235,25 +93235,25 @@
       </c>
       <c r="K1161" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1161" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="N1161" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="O1161" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="P1161" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="Q1161" t="inlineStr">
         <is>
@@ -93266,7 +93266,7 @@
         </is>
       </c>
       <c r="S1161" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="T1161" t="n">
         <v>1</v>
@@ -93287,7 +93287,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1162" t="n">
         <v>13</v>
@@ -93315,41 +93315,41 @@
       </c>
       <c r="K1162" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1162" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1162" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="N1162" t="n">
-        <v>22000</v>
+        <v>2300</v>
       </c>
       <c r="O1162" t="n">
-        <v>22000</v>
+        <v>2300</v>
       </c>
       <c r="P1162" t="n">
-        <v>22000</v>
+        <v>2300</v>
       </c>
       <c r="Q1162" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1162" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1162" t="n">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="T1162" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163">
@@ -93367,7 +93367,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E1163" t="n">
         <v>13</v>
@@ -93395,25 +93395,25 @@
       </c>
       <c r="K1163" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1163" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1163" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="N1163" t="n">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="O1163" t="n">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="P1163" t="n">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="Q1163" t="inlineStr">
         <is>
@@ -93422,11 +93422,11 @@
       </c>
       <c r="R1163" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1163" t="n">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="T1163" t="n">
         <v>1</v>
@@ -93447,7 +93447,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E1164" t="n">
         <v>13</v>
@@ -93480,20 +93480,20 @@
       </c>
       <c r="L1164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1164" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="N1164" t="n">
-        <v>3700</v>
+        <v>5000</v>
       </c>
       <c r="O1164" t="n">
-        <v>3700</v>
+        <v>5000</v>
       </c>
       <c r="P1164" t="n">
-        <v>3700</v>
+        <v>5000</v>
       </c>
       <c r="Q1164" t="inlineStr">
         <is>
@@ -93502,11 +93502,11 @@
       </c>
       <c r="R1164" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1164" t="n">
-        <v>3700</v>
+        <v>5000</v>
       </c>
       <c r="T1164" t="n">
         <v>1</v>
@@ -93527,7 +93527,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E1165" t="n">
         <v>13</v>
@@ -93560,20 +93560,20 @@
       </c>
       <c r="L1165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1165" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="N1165" t="n">
-        <v>3400</v>
+        <v>4800</v>
       </c>
       <c r="O1165" t="n">
-        <v>3400</v>
+        <v>4800</v>
       </c>
       <c r="P1165" t="n">
-        <v>3400</v>
+        <v>4800</v>
       </c>
       <c r="Q1165" t="inlineStr">
         <is>
@@ -93582,11 +93582,11 @@
       </c>
       <c r="R1165" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1165" t="n">
-        <v>3400</v>
+        <v>4800</v>
       </c>
       <c r="T1165" t="n">
         <v>1</v>
@@ -93607,7 +93607,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E1166" t="n">
         <v>13</v>
@@ -93640,20 +93640,20 @@
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1166" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N1166" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="O1166" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="P1166" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="Q1166" t="inlineStr">
         <is>
@@ -93662,11 +93662,11 @@
       </c>
       <c r="R1166" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1166" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="T1166" t="n">
         <v>1</v>
@@ -93687,7 +93687,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44239</v>
+        <v>44257</v>
       </c>
       <c r="E1167" t="n">
         <v>13</v>
@@ -93720,20 +93720,20 @@
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1167" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="N1167" t="n">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="O1167" t="n">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="P1167" t="n">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="Q1167" t="inlineStr">
         <is>
@@ -93742,11 +93742,11 @@
       </c>
       <c r="R1167" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1167" t="n">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="T1167" t="n">
         <v>1</v>
@@ -93767,7 +93767,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -93804,16 +93804,16 @@
         </is>
       </c>
       <c r="M1168" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N1168" t="n">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="O1168" t="n">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="P1168" t="n">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="Q1168" t="inlineStr">
         <is>
@@ -93826,7 +93826,7 @@
         </is>
       </c>
       <c r="S1168" t="n">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="T1168" t="n">
         <v>1</v>
@@ -93847,7 +93847,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1169" t="n">
         <v>13</v>
@@ -93884,16 +93884,16 @@
         </is>
       </c>
       <c r="M1169" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N1169" t="n">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="O1169" t="n">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="P1169" t="n">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="Q1169" t="inlineStr">
         <is>
@@ -93902,11 +93902,11 @@
       </c>
       <c r="R1169" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1169" t="n">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="T1169" t="n">
         <v>1</v>
@@ -93927,7 +93927,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1170" t="n">
         <v>13</v>
@@ -93960,36 +93960,36 @@
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N1170" t="n">
-        <v>4000</v>
+        <v>25000</v>
       </c>
       <c r="O1170" t="n">
-        <v>4000</v>
+        <v>25000</v>
       </c>
       <c r="P1170" t="n">
-        <v>4000</v>
+        <v>25000</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1170" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T1170" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1171">
@@ -94007,7 +94007,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1171" t="n">
         <v>13</v>
@@ -94044,16 +94044,16 @@
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="N1171" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="O1171" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="P1171" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
@@ -94062,11 +94062,11 @@
       </c>
       <c r="R1171" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="T1171" t="n">
         <v>1</v>
@@ -94087,7 +94087,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1172" t="n">
         <v>13</v>
@@ -94120,36 +94120,36 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N1172" t="n">
-        <v>3600</v>
+        <v>22000</v>
       </c>
       <c r="O1172" t="n">
-        <v>3600</v>
+        <v>22000</v>
       </c>
       <c r="P1172" t="n">
-        <v>3600</v>
+        <v>22000</v>
       </c>
       <c r="Q1172" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1172" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1172" t="n">
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="T1172" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1173">
@@ -94167,7 +94167,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E1173" t="n">
         <v>13</v>
@@ -94195,25 +94195,25 @@
       </c>
       <c r="K1173" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1173" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="N1173" t="n">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="O1173" t="n">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="P1173" t="n">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="Q1173" t="inlineStr">
         <is>
@@ -94222,11 +94222,11 @@
       </c>
       <c r="R1173" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1173" t="n">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="T1173" t="n">
         <v>1</v>
@@ -94247,7 +94247,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E1174" t="n">
         <v>13</v>
@@ -94275,25 +94275,25 @@
       </c>
       <c r="K1174" t="inlineStr">
         <is>
-          <t>Edranol</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1174" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="N1174" t="n">
-        <v>2800</v>
+        <v>3700</v>
       </c>
       <c r="O1174" t="n">
-        <v>2800</v>
+        <v>3700</v>
       </c>
       <c r="P1174" t="n">
-        <v>2800</v>
+        <v>3700</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
@@ -94302,11 +94302,11 @@
       </c>
       <c r="R1174" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>2800</v>
+        <v>3700</v>
       </c>
       <c r="T1174" t="n">
         <v>1</v>
@@ -94327,7 +94327,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E1175" t="n">
         <v>13</v>
@@ -94360,20 +94360,20 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1175" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="N1175" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="O1175" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="P1175" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
@@ -94382,11 +94382,11 @@
       </c>
       <c r="R1175" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="T1175" t="n">
         <v>1</v>
@@ -94407,7 +94407,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E1176" t="n">
         <v>13</v>
@@ -94440,7 +94440,7 @@
       </c>
       <c r="L1176" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1176" t="n">
@@ -94462,7 +94462,7 @@
       </c>
       <c r="R1176" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1176" t="n">
@@ -94487,7 +94487,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1177" t="n">
         <v>13</v>
@@ -94524,32 +94524,32 @@
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="N1177" t="n">
-        <v>34000</v>
+        <v>4400</v>
       </c>
       <c r="O1177" t="n">
-        <v>35000</v>
+        <v>4400</v>
       </c>
       <c r="P1177" t="n">
-        <v>34571</v>
+        <v>4400</v>
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1177" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>3457</v>
+        <v>4400</v>
       </c>
       <c r="T1177" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178">
@@ -94567,7 +94567,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1178" t="n">
         <v>13</v>
@@ -94600,36 +94600,36 @@
       </c>
       <c r="L1178" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="N1178" t="n">
-        <v>37000</v>
+        <v>4400</v>
       </c>
       <c r="O1178" t="n">
-        <v>38000</v>
+        <v>4400</v>
       </c>
       <c r="P1178" t="n">
-        <v>37390</v>
+        <v>4400</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1178" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>3739</v>
+        <v>4400</v>
       </c>
       <c r="T1178" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179">
@@ -94647,7 +94647,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1179" t="n">
         <v>13</v>
@@ -94684,32 +94684,32 @@
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N1179" t="n">
-        <v>28000</v>
+        <v>4000</v>
       </c>
       <c r="O1179" t="n">
-        <v>30000</v>
+        <v>4000</v>
       </c>
       <c r="P1179" t="n">
-        <v>29360</v>
+        <v>4000</v>
       </c>
       <c r="Q1179" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1179" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1179" t="n">
-        <v>2936</v>
+        <v>4000</v>
       </c>
       <c r="T1179" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180">
@@ -94727,7 +94727,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1180" t="n">
         <v>13</v>
@@ -94760,36 +94760,36 @@
       </c>
       <c r="L1180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N1180" t="n">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="O1180" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="P1180" t="n">
-        <v>24600</v>
+        <v>4000</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1180" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>2460</v>
+        <v>4000</v>
       </c>
       <c r="T1180" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181">
@@ -94807,7 +94807,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1181" t="n">
         <v>13</v>
@@ -94835,25 +94835,25 @@
       </c>
       <c r="K1181" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1181" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1181" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N1181" t="n">
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="O1181" t="n">
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="P1181" t="n">
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
@@ -94862,11 +94862,11 @@
       </c>
       <c r="R1181" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="T1181" t="n">
         <v>1</v>
@@ -94887,7 +94887,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1182" t="n">
         <v>13</v>
@@ -94915,25 +94915,25 @@
       </c>
       <c r="K1182" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N1182" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="O1182" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="P1182" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
@@ -94946,7 +94946,7 @@
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="T1182" t="n">
         <v>1</v>
@@ -94995,25 +94995,25 @@
       </c>
       <c r="K1183" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1183" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="N1183" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O1183" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="P1183" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q1183" t="inlineStr">
         <is>
@@ -95026,7 +95026,7 @@
         </is>
       </c>
       <c r="S1183" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T1183" t="n">
         <v>1</v>
@@ -95047,7 +95047,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1184" t="n">
         <v>13</v>
@@ -95075,25 +95075,25 @@
       </c>
       <c r="K1184" t="inlineStr">
         <is>
-          <t>Champion</t>
+          <t>Edranol</t>
         </is>
       </c>
       <c r="L1184" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1184" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N1184" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="O1184" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="P1184" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q1184" t="inlineStr">
         <is>
@@ -95106,7 +95106,7 @@
         </is>
       </c>
       <c r="S1184" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T1184" t="n">
         <v>1</v>
@@ -95127,7 +95127,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1185" t="n">
         <v>13</v>
@@ -95155,25 +95155,25 @@
       </c>
       <c r="K1185" t="inlineStr">
         <is>
-          <t>Champion</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="M1185" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N1185" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="O1185" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="P1185" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="Q1185" t="inlineStr">
         <is>
@@ -95186,7 +95186,7 @@
         </is>
       </c>
       <c r="S1185" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="T1185" t="n">
         <v>1</v>
@@ -95207,7 +95207,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1186" t="n">
         <v>13</v>
@@ -95235,25 +95235,25 @@
       </c>
       <c r="K1186" t="inlineStr">
         <is>
-          <t>Champion</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="M1186" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N1186" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O1186" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="P1186" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q1186" t="inlineStr">
         <is>
@@ -95266,7 +95266,7 @@
         </is>
       </c>
       <c r="S1186" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T1186" t="n">
         <v>1</v>
@@ -95287,7 +95287,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1187" t="n">
         <v>13</v>
@@ -95324,32 +95324,32 @@
         </is>
       </c>
       <c r="M1187" t="n">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="N1187" t="n">
-        <v>5700</v>
+        <v>34000</v>
       </c>
       <c r="O1187" t="n">
-        <v>5700</v>
+        <v>35000</v>
       </c>
       <c r="P1187" t="n">
-        <v>5700</v>
+        <v>34571</v>
       </c>
       <c r="Q1187" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1187" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1187" t="n">
-        <v>5700</v>
+        <v>3457</v>
       </c>
       <c r="T1187" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1188">
@@ -95367,7 +95367,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1188" t="n">
         <v>13</v>
@@ -95400,20 +95400,20 @@
       </c>
       <c r="L1188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1188" t="n">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="N1188" t="n">
-        <v>42000</v>
+        <v>37000</v>
       </c>
       <c r="O1188" t="n">
-        <v>42000</v>
+        <v>38000</v>
       </c>
       <c r="P1188" t="n">
-        <v>42000</v>
+        <v>37390</v>
       </c>
       <c r="Q1188" t="inlineStr">
         <is>
@@ -95426,7 +95426,7 @@
         </is>
       </c>
       <c r="S1188" t="n">
-        <v>4200</v>
+        <v>3739</v>
       </c>
       <c r="T1188" t="n">
         <v>10</v>
@@ -95447,7 +95447,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1189" t="n">
         <v>13</v>
@@ -95484,32 +95484,32 @@
         </is>
       </c>
       <c r="M1189" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="N1189" t="n">
-        <v>5500</v>
+        <v>28000</v>
       </c>
       <c r="O1189" t="n">
-        <v>5500</v>
+        <v>30000</v>
       </c>
       <c r="P1189" t="n">
-        <v>5500</v>
+        <v>29360</v>
       </c>
       <c r="Q1189" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1189" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1189" t="n">
-        <v>5500</v>
+        <v>2936</v>
       </c>
       <c r="T1189" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1190">
@@ -95527,7 +95527,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1190" t="n">
         <v>13</v>
@@ -95564,16 +95564,16 @@
         </is>
       </c>
       <c r="M1190" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N1190" t="n">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="O1190" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="P1190" t="n">
-        <v>40000</v>
+        <v>24600</v>
       </c>
       <c r="Q1190" t="inlineStr">
         <is>
@@ -95586,7 +95586,7 @@
         </is>
       </c>
       <c r="S1190" t="n">
-        <v>4000</v>
+        <v>2460</v>
       </c>
       <c r="T1190" t="n">
         <v>10</v>
@@ -95607,7 +95607,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1191" t="n">
         <v>13</v>
@@ -95635,25 +95635,25 @@
       </c>
       <c r="K1191" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1191" t="n">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="N1191" t="n">
-        <v>5300</v>
+        <v>2600</v>
       </c>
       <c r="O1191" t="n">
-        <v>5300</v>
+        <v>2600</v>
       </c>
       <c r="P1191" t="n">
-        <v>5300</v>
+        <v>2600</v>
       </c>
       <c r="Q1191" t="inlineStr">
         <is>
@@ -95666,7 +95666,7 @@
         </is>
       </c>
       <c r="S1191" t="n">
-        <v>5300</v>
+        <v>2600</v>
       </c>
       <c r="T1191" t="n">
         <v>1</v>
@@ -95687,7 +95687,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1192" t="n">
         <v>13</v>
@@ -95715,41 +95715,41 @@
       </c>
       <c r="K1192" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1192" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N1192" t="n">
-        <v>38000</v>
+        <v>2400</v>
       </c>
       <c r="O1192" t="n">
-        <v>38000</v>
+        <v>2400</v>
       </c>
       <c r="P1192" t="n">
-        <v>38000</v>
+        <v>2400</v>
       </c>
       <c r="Q1192" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1192" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1192" t="n">
-        <v>3800</v>
+        <v>2400</v>
       </c>
       <c r="T1192" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193">
@@ -95767,7 +95767,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1193" t="n">
         <v>13</v>
@@ -95795,25 +95795,25 @@
       </c>
       <c r="K1193" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1193" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1193" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="N1193" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="O1193" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="P1193" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="Q1193" t="inlineStr">
         <is>
@@ -95826,7 +95826,7 @@
         </is>
       </c>
       <c r="S1193" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="T1193" t="n">
         <v>1</v>
@@ -95847,7 +95847,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1194" t="n">
         <v>13</v>
@@ -95875,7 +95875,7 @@
       </c>
       <c r="K1194" t="inlineStr">
         <is>
-          <t>Fuerte</t>
+          <t>Champion</t>
         </is>
       </c>
       <c r="L1194" t="inlineStr">
@@ -95884,16 +95884,16 @@
         </is>
       </c>
       <c r="M1194" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N1194" t="n">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="O1194" t="n">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="P1194" t="n">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="Q1194" t="inlineStr">
         <is>
@@ -95902,11 +95902,11 @@
       </c>
       <c r="R1194" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1194" t="n">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="T1194" t="n">
         <v>1</v>
@@ -95927,7 +95927,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1195" t="n">
         <v>13</v>
@@ -95955,7 +95955,7 @@
       </c>
       <c r="K1195" t="inlineStr">
         <is>
-          <t>Fuerte</t>
+          <t>Champion</t>
         </is>
       </c>
       <c r="L1195" t="inlineStr">
@@ -95964,16 +95964,16 @@
         </is>
       </c>
       <c r="M1195" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N1195" t="n">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="O1195" t="n">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="P1195" t="n">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="Q1195" t="inlineStr">
         <is>
@@ -95982,11 +95982,11 @@
       </c>
       <c r="R1195" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1195" t="n">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="T1195" t="n">
         <v>1</v>
@@ -96007,7 +96007,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1196" t="n">
         <v>13</v>
@@ -96035,7 +96035,7 @@
       </c>
       <c r="K1196" t="inlineStr">
         <is>
-          <t>Fuerte</t>
+          <t>Champion</t>
         </is>
       </c>
       <c r="L1196" t="inlineStr">
@@ -96044,16 +96044,16 @@
         </is>
       </c>
       <c r="M1196" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N1196" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="O1196" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="P1196" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="Q1196" t="inlineStr">
         <is>
@@ -96062,11 +96062,11 @@
       </c>
       <c r="R1196" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1196" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="T1196" t="n">
         <v>1</v>
@@ -96087,7 +96087,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1197" t="n">
         <v>13</v>
@@ -96124,32 +96124,32 @@
         </is>
       </c>
       <c r="M1197" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N1197" t="n">
-        <v>40000</v>
+        <v>5700</v>
       </c>
       <c r="O1197" t="n">
-        <v>40000</v>
+        <v>5700</v>
       </c>
       <c r="P1197" t="n">
-        <v>40000</v>
+        <v>5700</v>
       </c>
       <c r="Q1197" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1197" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1197" t="n">
-        <v>4000</v>
+        <v>5700</v>
       </c>
       <c r="T1197" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198">
@@ -96167,7 +96167,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1198" t="n">
         <v>13</v>
@@ -96204,16 +96204,16 @@
         </is>
       </c>
       <c r="M1198" t="n">
-        <v>480</v>
+        <v>140</v>
       </c>
       <c r="N1198" t="n">
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="O1198" t="n">
-        <v>36000</v>
+        <v>42000</v>
       </c>
       <c r="P1198" t="n">
-        <v>35500</v>
+        <v>42000</v>
       </c>
       <c r="Q1198" t="inlineStr">
         <is>
@@ -96226,7 +96226,7 @@
         </is>
       </c>
       <c r="S1198" t="n">
-        <v>3550</v>
+        <v>4200</v>
       </c>
       <c r="T1198" t="n">
         <v>10</v>
@@ -96247,7 +96247,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1199" t="n">
         <v>13</v>
@@ -96280,36 +96280,36 @@
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1199" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N1199" t="n">
-        <v>33000</v>
+        <v>5500</v>
       </c>
       <c r="O1199" t="n">
-        <v>33000</v>
+        <v>5500</v>
       </c>
       <c r="P1199" t="n">
-        <v>33000</v>
+        <v>5500</v>
       </c>
       <c r="Q1199" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1199" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1199" t="n">
-        <v>3300</v>
+        <v>5500</v>
       </c>
       <c r="T1199" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200">
@@ -96327,7 +96327,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1200" t="n">
         <v>13</v>
@@ -96364,32 +96364,32 @@
         </is>
       </c>
       <c r="M1200" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N1200" t="n">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="O1200" t="n">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="P1200" t="n">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="Q1200" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1200" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="T1200" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1201">
@@ -96407,7 +96407,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1201" t="n">
         <v>13</v>
@@ -96440,20 +96440,20 @@
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1201" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N1201" t="n">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="O1201" t="n">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="P1201" t="n">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="Q1201" t="inlineStr">
         <is>
@@ -96462,11 +96462,11 @@
       </c>
       <c r="R1201" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1201" t="n">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="T1201" t="n">
         <v>1</v>
@@ -96487,7 +96487,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1202" t="n">
         <v>13</v>
@@ -96515,41 +96515,41 @@
       </c>
       <c r="K1202" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1202" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N1202" t="n">
-        <v>2400</v>
+        <v>38000</v>
       </c>
       <c r="O1202" t="n">
-        <v>2400</v>
+        <v>38000</v>
       </c>
       <c r="P1202" t="n">
-        <v>2400</v>
+        <v>38000</v>
       </c>
       <c r="Q1202" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1202" t="n">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="T1202" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1203">
@@ -96567,7 +96567,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1203" t="n">
         <v>13</v>
@@ -96595,25 +96595,25 @@
       </c>
       <c r="K1203" t="inlineStr">
         <is>
-          <t>Negra de La Cruz</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1203" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N1203" t="n">
-        <v>2200</v>
+        <v>5000</v>
       </c>
       <c r="O1203" t="n">
-        <v>2200</v>
+        <v>5000</v>
       </c>
       <c r="P1203" t="n">
-        <v>2200</v>
+        <v>5000</v>
       </c>
       <c r="Q1203" t="inlineStr">
         <is>
@@ -96622,11 +96622,11 @@
       </c>
       <c r="R1203" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1203" t="n">
-        <v>2200</v>
+        <v>5000</v>
       </c>
       <c r="T1203" t="n">
         <v>1</v>
@@ -96647,7 +96647,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1204" t="n">
         <v>13</v>
@@ -96675,7 +96675,7 @@
       </c>
       <c r="K1204" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Fuerte</t>
         </is>
       </c>
       <c r="L1204" t="inlineStr">
@@ -96687,13 +96687,13 @@
         <v>80</v>
       </c>
       <c r="N1204" t="n">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="O1204" t="n">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="P1204" t="n">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="Q1204" t="inlineStr">
         <is>
@@ -96702,11 +96702,11 @@
       </c>
       <c r="R1204" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1204" t="n">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="T1204" t="n">
         <v>1</v>
@@ -96727,7 +96727,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1205" t="n">
         <v>13</v>
@@ -96755,7 +96755,7 @@
       </c>
       <c r="K1205" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Fuerte</t>
         </is>
       </c>
       <c r="L1205" t="inlineStr">
@@ -96764,16 +96764,16 @@
         </is>
       </c>
       <c r="M1205" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N1205" t="n">
-        <v>4800</v>
+        <v>3400</v>
       </c>
       <c r="O1205" t="n">
-        <v>4800</v>
+        <v>3400</v>
       </c>
       <c r="P1205" t="n">
-        <v>4800</v>
+        <v>3400</v>
       </c>
       <c r="Q1205" t="inlineStr">
         <is>
@@ -96782,11 +96782,11 @@
       </c>
       <c r="R1205" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1205" t="n">
-        <v>4800</v>
+        <v>3400</v>
       </c>
       <c r="T1205" t="n">
         <v>1</v>
@@ -96807,7 +96807,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1206" t="n">
         <v>13</v>
@@ -96835,7 +96835,7 @@
       </c>
       <c r="K1206" t="inlineStr">
         <is>
-          <t>Hass</t>
+          <t>Fuerte</t>
         </is>
       </c>
       <c r="L1206" t="inlineStr">
@@ -96844,16 +96844,16 @@
         </is>
       </c>
       <c r="M1206" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N1206" t="n">
-        <v>4600</v>
+        <v>3200</v>
       </c>
       <c r="O1206" t="n">
-        <v>4600</v>
+        <v>3200</v>
       </c>
       <c r="P1206" t="n">
-        <v>4600</v>
+        <v>3200</v>
       </c>
       <c r="Q1206" t="inlineStr">
         <is>
@@ -96862,11 +96862,11 @@
       </c>
       <c r="R1206" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1206" t="n">
-        <v>4600</v>
+        <v>3200</v>
       </c>
       <c r="T1206" t="n">
         <v>1</v>
@@ -96887,7 +96887,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1207" t="n">
         <v>13</v>
@@ -96920,36 +96920,36 @@
       </c>
       <c r="L1207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1207" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N1207" t="n">
-        <v>4300</v>
+        <v>40000</v>
       </c>
       <c r="O1207" t="n">
-        <v>4300</v>
+        <v>40000</v>
       </c>
       <c r="P1207" t="n">
-        <v>4300</v>
+        <v>40000</v>
       </c>
       <c r="Q1207" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1207" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1207" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="T1207" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1208">
@@ -96967,7 +96967,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1208" t="n">
         <v>13</v>
@@ -97000,20 +97000,20 @@
       </c>
       <c r="L1208" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1208" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N1208" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="O1208" t="n">
-        <v>27000</v>
+        <v>36000</v>
       </c>
       <c r="P1208" t="n">
-        <v>27000</v>
+        <v>35500</v>
       </c>
       <c r="Q1208" t="inlineStr">
         <is>
@@ -97026,7 +97026,7 @@
         </is>
       </c>
       <c r="S1208" t="n">
-        <v>2700</v>
+        <v>3550</v>
       </c>
       <c r="T1208" t="n">
         <v>10</v>
@@ -97047,7 +97047,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1209" t="n">
         <v>13</v>
@@ -97080,20 +97080,20 @@
       </c>
       <c r="L1209" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1209" t="n">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="N1209" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="O1209" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="P1209" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="Q1209" t="inlineStr">
         <is>
@@ -97106,7 +97106,7 @@
         </is>
       </c>
       <c r="S1209" t="n">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="T1209" t="n">
         <v>10</v>
@@ -97127,7 +97127,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1210" t="n">
         <v>13</v>
@@ -97160,36 +97160,36 @@
       </c>
       <c r="L1210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1210" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="N1210" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="O1210" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="P1210" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="Q1210" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1210" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1210" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="T1210" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211">
@@ -97207,7 +97207,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E1211" t="n">
         <v>13</v>
@@ -97235,25 +97235,25 @@
       </c>
       <c r="K1211" t="inlineStr">
         <is>
-          <t>Champion</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1211" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="N1211" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="O1211" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="P1211" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q1211" t="inlineStr">
         <is>
@@ -97262,11 +97262,11 @@
       </c>
       <c r="R1211" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1211" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T1211" t="n">
         <v>1</v>
@@ -97287,7 +97287,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E1212" t="n">
         <v>13</v>
@@ -97315,25 +97315,25 @@
       </c>
       <c r="K1212" t="inlineStr">
         <is>
-          <t>Champion</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1212" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="N1212" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="O1212" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="P1212" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="Q1212" t="inlineStr">
         <is>
@@ -97342,11 +97342,11 @@
       </c>
       <c r="R1212" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1212" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="T1212" t="n">
         <v>1</v>
@@ -97367,7 +97367,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E1213" t="n">
         <v>13</v>
@@ -97395,25 +97395,25 @@
       </c>
       <c r="K1213" t="inlineStr">
         <is>
-          <t>Ester</t>
+          <t>Negra de La Cruz</t>
         </is>
       </c>
       <c r="L1213" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1213" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N1213" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="O1213" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="P1213" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="Q1213" t="inlineStr">
         <is>
@@ -97422,11 +97422,11 @@
       </c>
       <c r="R1213" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1213" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="T1213" t="n">
         <v>1</v>
@@ -97447,7 +97447,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E1214" t="n">
         <v>13</v>
@@ -97475,25 +97475,25 @@
       </c>
       <c r="K1214" t="inlineStr">
         <is>
-          <t>Ester</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1214" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N1214" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="O1214" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="P1214" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q1214" t="inlineStr">
         <is>
@@ -97506,7 +97506,7 @@
         </is>
       </c>
       <c r="S1214" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="T1214" t="n">
         <v>1</v>
@@ -97527,7 +97527,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E1215" t="n">
         <v>13</v>
@@ -97555,25 +97555,25 @@
       </c>
       <c r="K1215" t="inlineStr">
         <is>
-          <t>Ester</t>
+          <t>Hass</t>
         </is>
       </c>
       <c r="L1215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1215" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N1215" t="n">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="O1215" t="n">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="P1215" t="n">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="Q1215" t="inlineStr">
         <is>
@@ -97586,7 +97586,7 @@
         </is>
       </c>
       <c r="S1215" t="n">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="T1215" t="n">
         <v>1</v>
@@ -97607,7 +97607,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E1216" t="n">
         <v>13</v>
@@ -97640,20 +97640,20 @@
       </c>
       <c r="L1216" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1216" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N1216" t="n">
-        <v>6200</v>
+        <v>4600</v>
       </c>
       <c r="O1216" t="n">
-        <v>6200</v>
+        <v>4600</v>
       </c>
       <c r="P1216" t="n">
-        <v>6200</v>
+        <v>4600</v>
       </c>
       <c r="Q1216" t="inlineStr">
         <is>
@@ -97666,7 +97666,7 @@
         </is>
       </c>
       <c r="S1216" t="n">
-        <v>6200</v>
+        <v>4600</v>
       </c>
       <c r="T1216" t="n">
         <v>1</v>
@@ -97687,7 +97687,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E1217" t="n">
         <v>13</v>
@@ -97720,36 +97720,36 @@
       </c>
       <c r="L1217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1217" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N1217" t="n">
-        <v>35000</v>
+        <v>4300</v>
       </c>
       <c r="O1217" t="n">
-        <v>35000</v>
+        <v>4300</v>
       </c>
       <c r="P1217" t="n">
-        <v>35000</v>
+        <v>4300</v>
       </c>
       <c r="Q1217" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 17 kilos)</t>
         </is>
       </c>
       <c r="R1217" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1217" t="n">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="T1217" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218">
@@ -97767,7 +97767,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1218" t="n">
         <v>13</v>
@@ -97800,36 +97800,36 @@
       </c>
       <c r="L1218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1218" t="n">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="N1218" t="n">
-        <v>6100</v>
+        <v>27000</v>
       </c>
       <c r="O1218" t="n">
-        <v>6100</v>
+        <v>27000</v>
       </c>
       <c r="P1218" t="n">
-        <v>6100</v>
+        <v>27000</v>
       </c>
       <c r="Q1218" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1218" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1218" t="n">
-        <v>6100</v>
+        <v>2700</v>
       </c>
       <c r="T1218" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1219">
@@ -97847,7 +97847,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1219" t="n">
         <v>13</v>
@@ -97880,20 +97880,20 @@
       </c>
       <c r="L1219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1219" t="n">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="N1219" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="O1219" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="P1219" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="Q1219" t="inlineStr">
         <is>
@@ -97906,7 +97906,7 @@
         </is>
       </c>
       <c r="S1219" t="n">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="T1219" t="n">
         <v>10</v>
@@ -97927,7 +97927,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1220" t="n">
         <v>13</v>
@@ -97960,36 +97960,36 @@
       </c>
       <c r="L1220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1220" t="n">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="N1220" t="n">
-        <v>5900</v>
+        <v>25000</v>
       </c>
       <c r="O1220" t="n">
-        <v>5900</v>
+        <v>25000</v>
       </c>
       <c r="P1220" t="n">
-        <v>5900</v>
+        <v>25000</v>
       </c>
       <c r="Q1220" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 17 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1220" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1220" t="n">
-        <v>5900</v>
+        <v>2500</v>
       </c>
       <c r="T1220" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1221">
@@ -98035,40 +98035,840 @@
       </c>
       <c r="K1221" t="inlineStr">
         <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L1221" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1221" t="n">
+        <v>130</v>
+      </c>
+      <c r="N1221" t="n">
+        <v>2500</v>
+      </c>
+      <c r="O1221" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P1221" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q1221" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1221" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1221" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T1221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1222" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1222" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1222" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1222" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1222" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1222" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L1222" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1222" t="n">
+        <v>150</v>
+      </c>
+      <c r="N1222" t="n">
+        <v>2200</v>
+      </c>
+      <c r="O1222" t="n">
+        <v>2200</v>
+      </c>
+      <c r="P1222" t="n">
+        <v>2200</v>
+      </c>
+      <c r="Q1222" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1222" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1222" t="n">
+        <v>2200</v>
+      </c>
+      <c r="T1222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1223" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1223" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1223" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1223" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1223" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1223" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1223" t="inlineStr">
+        <is>
+          <t>Ester</t>
+        </is>
+      </c>
+      <c r="L1223" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1223" t="n">
+        <v>70</v>
+      </c>
+      <c r="N1223" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1223" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P1223" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q1223" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1223" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S1223" t="n">
+        <v>4000</v>
+      </c>
+      <c r="T1223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1224" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1224" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1224" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1224" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1224" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1224" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>Ester</t>
+        </is>
+      </c>
+      <c r="L1224" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1224" t="n">
+        <v>100</v>
+      </c>
+      <c r="N1224" t="n">
+        <v>3800</v>
+      </c>
+      <c r="O1224" t="n">
+        <v>3800</v>
+      </c>
+      <c r="P1224" t="n">
+        <v>3800</v>
+      </c>
+      <c r="Q1224" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1224" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S1224" t="n">
+        <v>3800</v>
+      </c>
+      <c r="T1224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1225" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1225" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1225" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1225" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1225" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1225" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>Ester</t>
+        </is>
+      </c>
+      <c r="L1225" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1225" t="n">
+        <v>80</v>
+      </c>
+      <c r="N1225" t="n">
+        <v>3600</v>
+      </c>
+      <c r="O1225" t="n">
+        <v>3600</v>
+      </c>
+      <c r="P1225" t="n">
+        <v>3600</v>
+      </c>
+      <c r="Q1225" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1225" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S1225" t="n">
+        <v>3600</v>
+      </c>
+      <c r="T1225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1226" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1226" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1226" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1226" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1226" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1226" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1226" t="inlineStr">
+        <is>
           <t>Hass</t>
         </is>
       </c>
-      <c r="L1221" t="inlineStr">
+      <c r="L1226" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1226" t="n">
+        <v>70</v>
+      </c>
+      <c r="N1226" t="n">
+        <v>6200</v>
+      </c>
+      <c r="O1226" t="n">
+        <v>6200</v>
+      </c>
+      <c r="P1226" t="n">
+        <v>6200</v>
+      </c>
+      <c r="Q1226" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1226" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S1226" t="n">
+        <v>6200</v>
+      </c>
+      <c r="T1226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1227" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1227" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1227" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1227" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1227" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1227" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>Hass</t>
+        </is>
+      </c>
+      <c r="L1227" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1227" t="n">
+        <v>90</v>
+      </c>
+      <c r="N1227" t="n">
+        <v>35000</v>
+      </c>
+      <c r="O1227" t="n">
+        <v>35000</v>
+      </c>
+      <c r="P1227" t="n">
+        <v>35000</v>
+      </c>
+      <c r="Q1227" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1227" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S1227" t="n">
+        <v>3500</v>
+      </c>
+      <c r="T1227" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1228" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1228" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1228" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1228" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1228" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1228" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>Hass</t>
+        </is>
+      </c>
+      <c r="L1228" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1228" t="n">
+        <v>95</v>
+      </c>
+      <c r="N1228" t="n">
+        <v>6100</v>
+      </c>
+      <c r="O1228" t="n">
+        <v>6100</v>
+      </c>
+      <c r="P1228" t="n">
+        <v>6100</v>
+      </c>
+      <c r="Q1228" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1228" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S1228" t="n">
+        <v>6100</v>
+      </c>
+      <c r="T1228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1229" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1229" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1229" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1229" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1229" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1229" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>Hass</t>
+        </is>
+      </c>
+      <c r="L1229" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1229" t="n">
+        <v>120</v>
+      </c>
+      <c r="N1229" t="n">
+        <v>31000</v>
+      </c>
+      <c r="O1229" t="n">
+        <v>31000</v>
+      </c>
+      <c r="P1229" t="n">
+        <v>31000</v>
+      </c>
+      <c r="Q1229" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1229" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S1229" t="n">
+        <v>3100</v>
+      </c>
+      <c r="T1229" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1230" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1230" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1230" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1230" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1230" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1230" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>Hass</t>
+        </is>
+      </c>
+      <c r="L1230" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1230" t="n">
+        <v>110</v>
+      </c>
+      <c r="N1230" t="n">
+        <v>5900</v>
+      </c>
+      <c r="O1230" t="n">
+        <v>5900</v>
+      </c>
+      <c r="P1230" t="n">
+        <v>5900</v>
+      </c>
+      <c r="Q1230" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 17 kilos)</t>
+        </is>
+      </c>
+      <c r="R1230" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S1230" t="n">
+        <v>5900</v>
+      </c>
+      <c r="T1230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1231" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1231" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1231" t="n">
+        <v>100106</v>
+      </c>
+      <c r="H1231" t="inlineStr">
+        <is>
+          <t>Oleaginosos</t>
+        </is>
+      </c>
+      <c r="I1231" t="n">
+        <v>100106002</v>
+      </c>
+      <c r="J1231" t="inlineStr">
+        <is>
+          <t>Palta</t>
+        </is>
+      </c>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>Hass</t>
+        </is>
+      </c>
+      <c r="L1231" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M1221" t="n">
+      <c r="M1231" t="n">
         <v>150</v>
       </c>
-      <c r="N1221" t="n">
+      <c r="N1231" t="n">
         <v>29000</v>
       </c>
-      <c r="O1221" t="n">
+      <c r="O1231" t="n">
         <v>29000</v>
       </c>
-      <c r="P1221" t="n">
+      <c r="P1231" t="n">
         <v>29000</v>
       </c>
-      <c r="Q1221" t="inlineStr">
+      <c r="Q1231" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R1221" t="inlineStr">
+      <c r="R1231" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="S1221" t="n">
+      <c r="S1231" t="n">
         <v>2900</v>
       </c>
-      <c r="T1221" t="n">
+      <c r="T1231" t="n">
         <v>10</v>
       </c>
     </row>
